--- a/SuppXLS/Scen_B_SYS_SubAnnual_Data.xlsx
+++ b/SuppXLS/Scen_B_SYS_SubAnnual_Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olex\Documents\MANRID\ResLab\Modelling\TIMES\TIMES-IE\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{772630E7-62A9-43AA-925E-98B96D5768AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B7C0C48-D064-41ED-8FD4-939F3EF8F8C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="12" r:id="rId1"/>
@@ -26,9 +26,6 @@
     <sheet name="DCs" sheetId="10" r:id="rId11"/>
     <sheet name="SRVSOL" sheetId="11" r:id="rId12"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId13"/>
-  </externalReferences>
   <definedNames>
     <definedName name="__123Graph_AEUMILKPN" hidden="1">#REF!</definedName>
     <definedName name="_AtRisk_SimSetting_AutomaticallyGenerateReports" hidden="1">FALSE</definedName>
@@ -100,7 +97,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2471" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2472" uniqueCount="122">
   <si>
     <t>~TFM_INS</t>
   </si>
@@ -464,6 +461,9 @@
   <si>
     <t>https://creativecommons.org/licenses/by-nc-sa/4.0/</t>
   </si>
+  <si>
+    <t>1.0.0-s.1</t>
+  </si>
 </sst>
 </file>
 
@@ -607,9 +607,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -628,9 +625,6 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -643,9 +637,6 @@
     <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -654,6 +645,15 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -982,41 +982,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Cover"/>
-      <sheetName val="TimeSlices"/>
-      <sheetName val="RSDSOL"/>
-      <sheetName val="RSD_SH"/>
-      <sheetName val="RSD_RTFT"/>
-      <sheetName val="RSD_OE_DEM"/>
-      <sheetName val="PWR_AF"/>
-      <sheetName val="TRA_DEM"/>
-      <sheetName val="SRV_CS_DEM"/>
-      <sheetName val="SRV_PU_DEM"/>
-      <sheetName val="DCs"/>
-      <sheetName val="SRVSOL"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
-      <sheetData sheetId="10" refreshError="1"/>
-      <sheetData sheetId="11" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1522,23 +1487,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF9E7995-53E7-4F58-976D-6AC1D3A1017B}">
   <dimension ref="A1:Z99"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="4" width="21.7109375" style="3" customWidth="1"/>
-    <col min="5" max="6" width="14.140625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="3" customWidth="1"/>
-    <col min="8" max="10" width="8.140625" style="3" customWidth="1"/>
-    <col min="11" max="11" width="9.7109375" style="3" customWidth="1"/>
-    <col min="12" max="12" width="8.140625" style="3" customWidth="1"/>
+    <col min="1" max="4" width="21.73046875" style="3" customWidth="1"/>
+    <col min="5" max="6" width="14.1328125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="12.1328125" style="3" customWidth="1"/>
+    <col min="8" max="10" width="8.1328125" style="3" customWidth="1"/>
+    <col min="11" max="11" width="9.73046875" style="3" customWidth="1"/>
+    <col min="12" max="12" width="8.1328125" style="3" customWidth="1"/>
     <col min="13" max="13" width="10" style="3" customWidth="1"/>
-    <col min="14" max="14" width="11.42578125" style="3" customWidth="1"/>
-    <col min="15" max="15" width="13.42578125" style="3" customWidth="1"/>
-    <col min="16" max="16384" width="8.85546875" style="3"/>
+    <col min="14" max="14" width="11.3984375" style="3" customWidth="1"/>
+    <col min="15" max="15" width="13.3984375" style="3" customWidth="1"/>
+    <col min="16" max="16384" width="8.86328125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -1566,7 +1533,7 @@
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -1594,7 +1561,7 @@
       <c r="Y2" s="2"/>
       <c r="Z2" s="2"/>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1622,7 +1589,7 @@
       <c r="Y3" s="2"/>
       <c r="Z3" s="2"/>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -1650,7 +1617,7 @@
       <c r="Y4" s="2"/>
       <c r="Z4" s="2"/>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -1678,7 +1645,7 @@
       <c r="Y5" s="2"/>
       <c r="Z5" s="2"/>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -1706,7 +1673,7 @@
       <c r="Y6" s="2"/>
       <c r="Z6" s="2"/>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -1734,7 +1701,7 @@
       <c r="Y7" s="2"/>
       <c r="Z7" s="2"/>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -1762,7 +1729,7 @@
       <c r="Y8" s="2"/>
       <c r="Z8" s="2"/>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -1790,7 +1757,7 @@
       <c r="Y9" s="2"/>
       <c r="Z9" s="2"/>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -1818,7 +1785,7 @@
       <c r="Y10" s="2"/>
       <c r="Z10" s="2"/>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -1846,7 +1813,7 @@
       <c r="Y11" s="2"/>
       <c r="Z11" s="2"/>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -1874,7 +1841,7 @@
       <c r="Y12" s="2"/>
       <c r="Z12" s="2"/>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -1902,7 +1869,7 @@
       <c r="Y13" s="2"/>
       <c r="Z13" s="2"/>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -1930,7 +1897,7 @@
       <c r="Y14" s="2"/>
       <c r="Z14" s="2"/>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -1958,21 +1925,21 @@
       <c r="Y15" s="2"/>
       <c r="Z15" s="2"/>
     </row>
-    <row r="16" spans="1:26" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
+    <row r="16" spans="1:26" ht="102.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A16" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="6"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -1988,11 +1955,11 @@
       <c r="Y16" s="2"/>
       <c r="Z16" s="2"/>
     </row>
-    <row r="17" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="7"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
+    <row r="17" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A17" s="6"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
@@ -2016,19 +1983,19 @@
       <c r="Y17" s="2"/>
       <c r="Z17" s="2"/>
     </row>
-    <row r="18" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="7"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="9"/>
-      <c r="L18" s="9"/>
+    <row r="18" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A18" s="6"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="8"/>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -2044,23 +2011,23 @@
       <c r="Y18" s="2"/>
       <c r="Z18" s="2"/>
     </row>
-    <row r="19" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="10" t="s">
+    <row r="19" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A19" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="B19" s="11" t="s">
+      <c r="B19" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="13"/>
-      <c r="L19" s="13"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="11"/>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -2076,23 +2043,23 @@
       <c r="Y19" s="2"/>
       <c r="Z19" s="2"/>
     </row>
-    <row r="20" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="10" t="s">
+    <row r="20" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A20" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="B20" s="11" t="s">
+      <c r="B20" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="13"/>
-      <c r="J20" s="13"/>
-      <c r="K20" s="13"/>
-      <c r="L20" s="13"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="11"/>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -2108,23 +2075,23 @@
       <c r="Y20" s="2"/>
       <c r="Z20" s="2"/>
     </row>
-    <row r="21" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="10" t="s">
+    <row r="21" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A21" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="B21" s="14" t="s">
+      <c r="B21" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="13"/>
-      <c r="J21" s="13"/>
-      <c r="K21" s="13"/>
-      <c r="L21" s="13"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="11"/>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -2140,19 +2107,19 @@
       <c r="Y21" s="2"/>
       <c r="Z21" s="2"/>
     </row>
-    <row r="22" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="10"/>
-      <c r="B22" s="14"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="13"/>
-      <c r="J22" s="13"/>
-      <c r="K22" s="13"/>
-      <c r="L22" s="13"/>
+    <row r="22" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A22" s="9"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="11"/>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -2168,15 +2135,15 @@
       <c r="Y22" s="2"/>
       <c r="Z22" s="2"/>
     </row>
-    <row r="23" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="10" t="s">
+    <row r="23" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A23" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="B23" s="11" t="s">
+      <c r="B23" s="18" t="s">
         <v>113</v>
       </c>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
@@ -2200,11 +2167,11 @@
       <c r="Y23" s="2"/>
       <c r="Z23" s="2"/>
     </row>
-    <row r="24" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="10"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
+    <row r="24" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A24" s="9"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
@@ -2228,11 +2195,11 @@
       <c r="Y24" s="2"/>
       <c r="Z24" s="2"/>
     </row>
-    <row r="25" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="10"/>
-      <c r="B25" s="14"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
+    <row r="25" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A25" s="9"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
@@ -2256,15 +2223,15 @@
       <c r="Y25" s="2"/>
       <c r="Z25" s="2"/>
     </row>
-    <row r="26" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="10" t="s">
+    <row r="26" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A26" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="B26" s="11" t="s">
+      <c r="B26" s="18" t="s">
         <v>113</v>
       </c>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="18"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
@@ -2288,11 +2255,11 @@
       <c r="Y26" s="2"/>
       <c r="Z26" s="2"/>
     </row>
-    <row r="27" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="10"/>
-      <c r="B27" s="14"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
+    <row r="27" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A27" s="9"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
@@ -2316,11 +2283,11 @@
       <c r="Y27" s="2"/>
       <c r="Z27" s="2"/>
     </row>
-    <row r="28" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="10"/>
-      <c r="B28" s="14"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
+    <row r="28" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A28" s="9"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
@@ -2344,15 +2311,15 @@
       <c r="Y28" s="2"/>
       <c r="Z28" s="2"/>
     </row>
-    <row r="29" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="10" t="s">
+    <row r="29" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A29" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="B29" s="15">
-        <v>1</v>
-      </c>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
+      <c r="B29" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="C29" s="12"/>
+      <c r="D29" s="12"/>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
@@ -2376,17 +2343,17 @@
       <c r="Y29" s="2"/>
       <c r="Z29" s="2"/>
     </row>
-    <row r="30" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="10" t="s">
+    <row r="30" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A30" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="B30" s="16" t="s">
+      <c r="B30" s="17" t="s">
         <v>117</v>
       </c>
-      <c r="C30" s="11"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="17"/>
-      <c r="F30" s="17"/>
+      <c r="C30" s="18"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
@@ -2408,17 +2375,17 @@
       <c r="Y30" s="2"/>
       <c r="Z30" s="2"/>
     </row>
-    <row r="31" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="10" t="s">
+    <row r="31" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A31" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="B31" s="11" t="s">
+      <c r="B31" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="C31" s="11"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="17"/>
-      <c r="F31" s="17"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
@@ -2440,13 +2407,13 @@
       <c r="Y31" s="2"/>
       <c r="Z31" s="2"/>
     </row>
-    <row r="32" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="18"/>
-      <c r="B32" s="19" t="s">
+    <row r="32" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A32" s="15"/>
+      <c r="B32" s="16" t="s">
         <v>120</v>
       </c>
-      <c r="C32" s="18"/>
-      <c r="D32" s="18"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="15"/>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
@@ -2470,7 +2437,7 @@
       <c r="Y32" s="2"/>
       <c r="Z32" s="2"/>
     </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -2498,7 +2465,7 @@
       <c r="Y33" s="2"/>
       <c r="Z33" s="2"/>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -2526,7 +2493,7 @@
       <c r="Y34" s="2"/>
       <c r="Z34" s="2"/>
     </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -2554,7 +2521,7 @@
       <c r="Y35" s="2"/>
       <c r="Z35" s="2"/>
     </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -2582,7 +2549,7 @@
       <c r="Y36" s="2"/>
       <c r="Z36" s="2"/>
     </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -2610,7 +2577,7 @@
       <c r="Y37" s="2"/>
       <c r="Z37" s="2"/>
     </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -2638,7 +2605,7 @@
       <c r="Y38" s="2"/>
       <c r="Z38" s="2"/>
     </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -2666,7 +2633,7 @@
       <c r="Y39" s="2"/>
       <c r="Z39" s="2"/>
     </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -2694,7 +2661,7 @@
       <c r="Y40" s="2"/>
       <c r="Z40" s="2"/>
     </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -2722,7 +2689,7 @@
       <c r="Y41" s="2"/>
       <c r="Z41" s="2"/>
     </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -2750,7 +2717,7 @@
       <c r="Y42" s="2"/>
       <c r="Z42" s="2"/>
     </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -2778,7 +2745,7 @@
       <c r="Y43" s="2"/>
       <c r="Z43" s="2"/>
     </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
@@ -2806,7 +2773,7 @@
       <c r="Y44" s="2"/>
       <c r="Z44" s="2"/>
     </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
@@ -2834,7 +2801,7 @@
       <c r="Y45" s="2"/>
       <c r="Z45" s="2"/>
     </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -2862,7 +2829,7 @@
       <c r="Y46" s="2"/>
       <c r="Z46" s="2"/>
     </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
@@ -2890,7 +2857,7 @@
       <c r="Y47" s="2"/>
       <c r="Z47" s="2"/>
     </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
@@ -2918,7 +2885,7 @@
       <c r="Y48" s="2"/>
       <c r="Z48" s="2"/>
     </row>
-    <row r="49" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
@@ -2946,7 +2913,7 @@
       <c r="Y49" s="2"/>
       <c r="Z49" s="2"/>
     </row>
-    <row r="50" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
@@ -2974,7 +2941,7 @@
       <c r="Y50" s="2"/>
       <c r="Z50" s="2"/>
     </row>
-    <row r="51" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
@@ -3002,7 +2969,7 @@
       <c r="Y51" s="2"/>
       <c r="Z51" s="2"/>
     </row>
-    <row r="52" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
@@ -3030,7 +2997,7 @@
       <c r="Y52" s="2"/>
       <c r="Z52" s="2"/>
     </row>
-    <row r="53" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
@@ -3058,7 +3025,7 @@
       <c r="Y53" s="2"/>
       <c r="Z53" s="2"/>
     </row>
-    <row r="54" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
@@ -3086,7 +3053,7 @@
       <c r="Y54" s="2"/>
       <c r="Z54" s="2"/>
     </row>
-    <row r="55" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -3114,7 +3081,7 @@
       <c r="Y55" s="2"/>
       <c r="Z55" s="2"/>
     </row>
-    <row r="56" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
@@ -3142,7 +3109,7 @@
       <c r="Y56" s="2"/>
       <c r="Z56" s="2"/>
     </row>
-    <row r="57" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
@@ -3170,7 +3137,7 @@
       <c r="Y57" s="2"/>
       <c r="Z57" s="2"/>
     </row>
-    <row r="58" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
@@ -3198,7 +3165,7 @@
       <c r="Y58" s="2"/>
       <c r="Z58" s="2"/>
     </row>
-    <row r="59" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
@@ -3226,7 +3193,7 @@
       <c r="Y59" s="2"/>
       <c r="Z59" s="2"/>
     </row>
-    <row r="60" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
@@ -3254,7 +3221,7 @@
       <c r="Y60" s="2"/>
       <c r="Z60" s="2"/>
     </row>
-    <row r="61" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
@@ -3282,7 +3249,7 @@
       <c r="Y61" s="2"/>
       <c r="Z61" s="2"/>
     </row>
-    <row r="62" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
@@ -3310,7 +3277,7 @@
       <c r="Y62" s="2"/>
       <c r="Z62" s="2"/>
     </row>
-    <row r="63" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
@@ -3338,7 +3305,7 @@
       <c r="Y63" s="2"/>
       <c r="Z63" s="2"/>
     </row>
-    <row r="64" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
@@ -3366,7 +3333,7 @@
       <c r="Y64" s="2"/>
       <c r="Z64" s="2"/>
     </row>
-    <row r="65" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
@@ -3394,7 +3361,7 @@
       <c r="Y65" s="2"/>
       <c r="Z65" s="2"/>
     </row>
-    <row r="66" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
@@ -3422,7 +3389,7 @@
       <c r="Y66" s="2"/>
       <c r="Z66" s="2"/>
     </row>
-    <row r="67" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
@@ -3450,7 +3417,7 @@
       <c r="Y67" s="2"/>
       <c r="Z67" s="2"/>
     </row>
-    <row r="68" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
@@ -3478,7 +3445,7 @@
       <c r="Y68" s="2"/>
       <c r="Z68" s="2"/>
     </row>
-    <row r="69" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
@@ -3506,7 +3473,7 @@
       <c r="Y69" s="2"/>
       <c r="Z69" s="2"/>
     </row>
-    <row r="70" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
@@ -3534,7 +3501,7 @@
       <c r="Y70" s="2"/>
       <c r="Z70" s="2"/>
     </row>
-    <row r="71" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
@@ -3562,7 +3529,7 @@
       <c r="Y71" s="2"/>
       <c r="Z71" s="2"/>
     </row>
-    <row r="72" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
@@ -3590,7 +3557,7 @@
       <c r="Y72" s="2"/>
       <c r="Z72" s="2"/>
     </row>
-    <row r="73" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
@@ -3618,7 +3585,7 @@
       <c r="Y73" s="2"/>
       <c r="Z73" s="2"/>
     </row>
-    <row r="74" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
@@ -3646,7 +3613,7 @@
       <c r="Y74" s="2"/>
       <c r="Z74" s="2"/>
     </row>
-    <row r="75" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
@@ -3674,7 +3641,7 @@
       <c r="Y75" s="2"/>
       <c r="Z75" s="2"/>
     </row>
-    <row r="76" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
@@ -3702,7 +3669,7 @@
       <c r="Y76" s="2"/>
       <c r="Z76" s="2"/>
     </row>
-    <row r="77" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
@@ -3730,7 +3697,7 @@
       <c r="Y77" s="2"/>
       <c r="Z77" s="2"/>
     </row>
-    <row r="78" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
@@ -3758,7 +3725,7 @@
       <c r="Y78" s="2"/>
       <c r="Z78" s="2"/>
     </row>
-    <row r="79" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
@@ -3786,7 +3753,7 @@
       <c r="Y79" s="2"/>
       <c r="Z79" s="2"/>
     </row>
-    <row r="80" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
@@ -3814,7 +3781,7 @@
       <c r="Y80" s="2"/>
       <c r="Z80" s="2"/>
     </row>
-    <row r="81" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
@@ -3842,7 +3809,7 @@
       <c r="Y81" s="2"/>
       <c r="Z81" s="2"/>
     </row>
-    <row r="82" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
@@ -3870,7 +3837,7 @@
       <c r="Y82" s="2"/>
       <c r="Z82" s="2"/>
     </row>
-    <row r="83" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
@@ -3898,7 +3865,7 @@
       <c r="Y83" s="2"/>
       <c r="Z83" s="2"/>
     </row>
-    <row r="84" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
@@ -3926,7 +3893,7 @@
       <c r="Y84" s="2"/>
       <c r="Z84" s="2"/>
     </row>
-    <row r="85" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
@@ -3954,7 +3921,7 @@
       <c r="Y85" s="2"/>
       <c r="Z85" s="2"/>
     </row>
-    <row r="86" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
@@ -3982,7 +3949,7 @@
       <c r="Y86" s="2"/>
       <c r="Z86" s="2"/>
     </row>
-    <row r="87" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
@@ -4010,7 +3977,7 @@
       <c r="Y87" s="2"/>
       <c r="Z87" s="2"/>
     </row>
-    <row r="88" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
@@ -4038,7 +4005,7 @@
       <c r="Y88" s="2"/>
       <c r="Z88" s="2"/>
     </row>
-    <row r="89" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
@@ -4066,7 +4033,7 @@
       <c r="Y89" s="2"/>
       <c r="Z89" s="2"/>
     </row>
-    <row r="90" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A90" s="2"/>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
@@ -4094,7 +4061,7 @@
       <c r="Y90" s="2"/>
       <c r="Z90" s="2"/>
     </row>
-    <row r="91" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A91" s="2"/>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
@@ -4122,7 +4089,7 @@
       <c r="Y91" s="2"/>
       <c r="Z91" s="2"/>
     </row>
-    <row r="92" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
@@ -4150,7 +4117,7 @@
       <c r="Y92" s="2"/>
       <c r="Z92" s="2"/>
     </row>
-    <row r="93" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
@@ -4178,7 +4145,7 @@
       <c r="Y93" s="2"/>
       <c r="Z93" s="2"/>
     </row>
-    <row r="94" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
@@ -4206,7 +4173,7 @@
       <c r="Y94" s="2"/>
       <c r="Z94" s="2"/>
     </row>
-    <row r="95" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A95" s="2"/>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
@@ -4234,7 +4201,7 @@
       <c r="Y95" s="2"/>
       <c r="Z95" s="2"/>
     </row>
-    <row r="96" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
@@ -4262,7 +4229,7 @@
       <c r="Y96" s="2"/>
       <c r="Z96" s="2"/>
     </row>
-    <row r="97" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
@@ -4290,7 +4257,7 @@
       <c r="Y97" s="2"/>
       <c r="Z97" s="2"/>
     </row>
-    <row r="98" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
@@ -4318,7 +4285,7 @@
       <c r="Y98" s="2"/>
       <c r="Z98" s="2"/>
     </row>
-    <row r="99" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
@@ -4373,14 +4340,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.3984375" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B2" t="s">
         <v>1</v>
       </c>
@@ -4400,7 +4367,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B3" t="s">
         <v>31</v>
       </c>
@@ -4420,7 +4387,7 @@
         <v>1.8839999999999999E-2</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
         <v>33</v>
       </c>
@@ -4440,7 +4407,7 @@
         <v>9.0299999999999998E-3</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
         <v>34</v>
       </c>
@@ -4460,7 +4427,7 @@
         <v>3.2980000000000002E-2</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B6" t="s">
         <v>35</v>
       </c>
@@ -4480,7 +4447,7 @@
         <v>5.9199999999999999E-3</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B7" t="s">
         <v>36</v>
       </c>
@@ -4500,7 +4467,7 @@
         <v>1.3100000000000001E-2</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B8" t="s">
         <v>37</v>
       </c>
@@ -4520,7 +4487,7 @@
         <v>4.2250000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B9" t="s">
         <v>38</v>
       </c>
@@ -4540,7 +4507,7 @@
         <v>1.8249999999999999E-2</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B10" t="s">
         <v>39</v>
       </c>
@@ -4560,7 +4527,7 @@
         <v>7.0150000000000004E-2</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B11" t="s">
         <v>40</v>
       </c>
@@ -4580,7 +4547,7 @@
         <v>1.374E-2</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B12" t="s">
         <v>41</v>
       </c>
@@ -4600,7 +4567,7 @@
         <v>3.074E-2</v>
       </c>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B13" t="s">
         <v>42</v>
       </c>
@@ -4620,7 +4587,7 @@
         <v>1.959E-2</v>
       </c>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B14" t="s">
         <v>43</v>
       </c>
@@ -4640,7 +4607,7 @@
         <v>8.8900000000000003E-3</v>
       </c>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B15" t="s">
         <v>44</v>
       </c>
@@ -4660,7 +4627,7 @@
         <v>3.3189999999999997E-2</v>
       </c>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B16" t="s">
         <v>45</v>
       </c>
@@ -4680,7 +4647,7 @@
         <v>5.9300000000000004E-3</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B17" t="s">
         <v>46</v>
       </c>
@@ -4700,7 +4667,7 @@
         <v>1.379E-2</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B18" t="s">
         <v>47</v>
       </c>
@@ -4720,7 +4687,7 @@
         <v>4.122E-2</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B19" t="s">
         <v>48</v>
       </c>
@@ -4740,7 +4707,7 @@
         <v>1.7610000000000001E-2</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B20" t="s">
         <v>49</v>
       </c>
@@ -4760,7 +4727,7 @@
         <v>6.7349999999999993E-2</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B21" t="s">
         <v>50</v>
       </c>
@@ -4780,7 +4747,7 @@
         <v>1.2789999999999999E-2</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B22" t="s">
         <v>51</v>
       </c>
@@ -4800,7 +4767,7 @@
         <v>2.9850000000000002E-2</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B23" t="s">
         <v>52</v>
       </c>
@@ -4820,7 +4787,7 @@
         <v>1.916E-2</v>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B24" t="s">
         <v>53</v>
       </c>
@@ -4840,7 +4807,7 @@
         <v>8.3499999999999998E-3</v>
       </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B25" t="s">
         <v>54</v>
       </c>
@@ -4860,7 +4827,7 @@
         <v>3.049E-2</v>
       </c>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B26" t="s">
         <v>55</v>
       </c>
@@ -4880,7 +4847,7 @@
         <v>5.5999999999999999E-3</v>
       </c>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B27" t="s">
         <v>56</v>
       </c>
@@ -4900,7 +4867,7 @@
         <v>1.2959999999999999E-2</v>
       </c>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B28" t="s">
         <v>57</v>
       </c>
@@ -4920,7 +4887,7 @@
         <v>4.2049999999999997E-2</v>
       </c>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B29" t="s">
         <v>58</v>
       </c>
@@ -4940,7 +4907,7 @@
         <v>1.7239999999999998E-2</v>
       </c>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B30" t="s">
         <v>59</v>
       </c>
@@ -4960,7 +4927,7 @@
         <v>6.5199999999999994E-2</v>
       </c>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B31" t="s">
         <v>60</v>
       </c>
@@ -4980,7 +4947,7 @@
         <v>1.268E-2</v>
       </c>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B32" t="s">
         <v>61</v>
       </c>
@@ -5000,7 +4967,7 @@
         <v>2.947E-2</v>
       </c>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B33" t="s">
         <v>62</v>
       </c>
@@ -5020,7 +4987,7 @@
         <v>1.9040000000000001E-2</v>
       </c>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B34" t="s">
         <v>63</v>
       </c>
@@ -5040,7 +5007,7 @@
         <v>8.8999999999999999E-3</v>
       </c>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B35" t="s">
         <v>64</v>
       </c>
@@ -5060,7 +5027,7 @@
         <v>3.4770000000000002E-2</v>
       </c>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B36" t="s">
         <v>65</v>
       </c>
@@ -5080,7 +5047,7 @@
         <v>6.5900000000000004E-3</v>
       </c>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B37" t="s">
         <v>66</v>
       </c>
@@ -5100,7 +5067,7 @@
         <v>1.447E-2</v>
       </c>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B38" t="s">
         <v>67</v>
       </c>
@@ -5120,7 +5087,7 @@
         <v>3.9219999999999998E-2</v>
       </c>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B39" t="s">
         <v>68</v>
       </c>
@@ -5140,7 +5107,7 @@
         <v>1.6979999999999999E-2</v>
       </c>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B40" t="s">
         <v>69</v>
       </c>
@@ -5160,7 +5127,7 @@
         <v>6.7659999999999998E-2</v>
       </c>
     </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B41" t="s">
         <v>70</v>
       </c>
@@ -5180,7 +5147,7 @@
         <v>1.3650000000000001E-2</v>
       </c>
     </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B42" t="s">
         <v>71</v>
       </c>
@@ -5215,14 +5182,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.3984375" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B2" t="s">
         <v>1</v>
       </c>
@@ -5248,7 +5215,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B3" t="s">
         <v>31</v>
       </c>
@@ -5268,7 +5235,7 @@
         <v>1.814E-2</v>
       </c>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
         <v>33</v>
       </c>
@@ -5288,7 +5255,7 @@
         <v>6.0800000000000003E-3</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
         <v>34</v>
       </c>
@@ -5308,7 +5275,7 @@
         <v>2.734E-2</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B6" t="s">
         <v>35</v>
       </c>
@@ -5328,7 +5295,7 @@
         <v>6.8300000000000001E-3</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B7" t="s">
         <v>36</v>
       </c>
@@ -5348,7 +5315,7 @@
         <v>1.558E-2</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B8" t="s">
         <v>37</v>
       </c>
@@ -5368,7 +5335,7 @@
         <v>4.2999999999999997E-2</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B9" t="s">
         <v>38</v>
       </c>
@@ -5388,7 +5355,7 @@
         <v>1.4409999999999999E-2</v>
       </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B10" t="s">
         <v>39</v>
       </c>
@@ -5408,7 +5375,7 @@
         <v>6.4799999999999996E-2</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B11" t="s">
         <v>40</v>
       </c>
@@ -5428,7 +5395,7 @@
         <v>1.6199999999999999E-2</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B12" t="s">
         <v>41</v>
       </c>
@@ -5448,7 +5415,7 @@
         <v>3.6929999999999998E-2</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B13" t="s">
         <v>42</v>
       </c>
@@ -5468,7 +5435,7 @@
         <v>1.949E-2</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B14" t="s">
         <v>43</v>
       </c>
@@ -5488,7 +5455,7 @@
         <v>6.5300000000000002E-3</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B15" t="s">
         <v>44</v>
       </c>
@@ -5508,7 +5475,7 @@
         <v>2.9360000000000001E-2</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B16" t="s">
         <v>45</v>
       </c>
@@ -5528,7 +5495,7 @@
         <v>7.3400000000000002E-3</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B17" t="s">
         <v>46</v>
       </c>
@@ -5548,7 +5515,7 @@
         <v>1.6729999999999998E-2</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B18" t="s">
         <v>47</v>
       </c>
@@ -5568,7 +5535,7 @@
         <v>4.233E-2</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B19" t="s">
         <v>48</v>
       </c>
@@ -5588,7 +5555,7 @@
         <v>1.4189999999999999E-2</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B20" t="s">
         <v>49</v>
       </c>
@@ -5608,7 +5575,7 @@
         <v>6.3789999999999999E-2</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B21" t="s">
         <v>50</v>
       </c>
@@ -5628,7 +5595,7 @@
         <v>1.5949999999999999E-2</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B22" t="s">
         <v>51</v>
       </c>
@@ -5648,7 +5615,7 @@
         <v>3.635E-2</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B23" t="s">
         <v>52</v>
       </c>
@@ -5668,7 +5635,7 @@
         <v>1.881E-2</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B24" t="s">
         <v>53</v>
       </c>
@@ -5688,7 +5655,7 @@
         <v>6.3099999999999996E-3</v>
       </c>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B25" t="s">
         <v>54</v>
       </c>
@@ -5708,7 +5675,7 @@
         <v>2.835E-2</v>
       </c>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B26" t="s">
         <v>55</v>
       </c>
@@ -5728,7 +5695,7 @@
         <v>7.0899999999999999E-3</v>
       </c>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B27" t="s">
         <v>56</v>
       </c>
@@ -5748,7 +5715,7 @@
         <v>1.6160000000000001E-2</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B28" t="s">
         <v>57</v>
       </c>
@@ -5768,7 +5735,7 @@
         <v>4.2999999999999997E-2</v>
       </c>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B29" t="s">
         <v>58</v>
       </c>
@@ -5788,7 +5755,7 @@
         <v>1.4409999999999999E-2</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B30" t="s">
         <v>59</v>
       </c>
@@ -5808,7 +5775,7 @@
         <v>6.4799999999999996E-2</v>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B31" t="s">
         <v>60</v>
       </c>
@@ -5828,7 +5795,7 @@
         <v>1.6199999999999999E-2</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B32" t="s">
         <v>61</v>
       </c>
@@ -5848,7 +5815,7 @@
         <v>3.6929999999999998E-2</v>
       </c>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B33" t="s">
         <v>62</v>
       </c>
@@ -5868,7 +5835,7 @@
         <v>1.949E-2</v>
       </c>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B34" t="s">
         <v>63</v>
       </c>
@@ -5888,7 +5855,7 @@
         <v>6.5300000000000002E-3</v>
       </c>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B35" t="s">
         <v>64</v>
       </c>
@@ -5908,7 +5875,7 @@
         <v>2.9360000000000001E-2</v>
       </c>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B36" t="s">
         <v>65</v>
       </c>
@@ -5928,7 +5895,7 @@
         <v>7.3400000000000002E-3</v>
       </c>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B37" t="s">
         <v>66</v>
       </c>
@@ -5948,7 +5915,7 @@
         <v>1.6729999999999998E-2</v>
       </c>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B38" t="s">
         <v>67</v>
       </c>
@@ -5968,7 +5935,7 @@
         <v>4.0989999999999999E-2</v>
       </c>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B39" t="s">
         <v>68</v>
       </c>
@@ -5988,7 +5955,7 @@
         <v>1.374E-2</v>
       </c>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B40" t="s">
         <v>69</v>
       </c>
@@ -6008,7 +5975,7 @@
         <v>6.1760000000000002E-2</v>
       </c>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B41" t="s">
         <v>70</v>
       </c>
@@ -6028,7 +5995,7 @@
         <v>1.5440000000000001E-2</v>
       </c>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B42" t="s">
         <v>71</v>
       </c>
@@ -6048,7 +6015,7 @@
         <v>3.5200000000000002E-2</v>
       </c>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B43" t="s">
         <v>31</v>
       </c>
@@ -6071,7 +6038,7 @@
         <v>0.51441000000000003</v>
       </c>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B44" t="s">
         <v>33</v>
       </c>
@@ -6094,7 +6061,7 @@
         <v>0.52210000000000001</v>
       </c>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B45" t="s">
         <v>34</v>
       </c>
@@ -6117,7 +6084,7 @@
         <v>0.63083</v>
       </c>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B46" t="s">
         <v>35</v>
       </c>
@@ -6140,7 +6107,7 @@
         <v>0.59721999999999997</v>
       </c>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B47" t="s">
         <v>36</v>
       </c>
@@ -6163,7 +6130,7 @@
         <v>0.51756000000000002</v>
       </c>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B48" t="s">
         <v>37</v>
       </c>
@@ -6186,7 +6153,7 @@
         <v>0.50434999999999997</v>
       </c>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B49" t="s">
         <v>38</v>
       </c>
@@ -6209,7 +6176,7 @@
         <v>0.51417000000000002</v>
       </c>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B50" t="s">
         <v>39</v>
       </c>
@@ -6232,7 +6199,7 @@
         <v>0.60546999999999995</v>
       </c>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B51" t="s">
         <v>40</v>
       </c>
@@ -6255,7 +6222,7 @@
         <v>0.58825000000000005</v>
       </c>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B52" t="s">
         <v>41</v>
       </c>
@@ -6278,7 +6245,7 @@
         <v>0.53712000000000004</v>
       </c>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B53" t="s">
         <v>42</v>
       </c>
@@ -6301,7 +6268,7 @@
         <v>0.43708999999999998</v>
       </c>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B54" t="s">
         <v>43</v>
       </c>
@@ -6324,7 +6291,7 @@
         <v>0.47854999999999998</v>
       </c>
     </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B55" t="s">
         <v>44</v>
       </c>
@@ -6347,7 +6314,7 @@
         <v>0.59389000000000003</v>
       </c>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B56" t="s">
         <v>45</v>
       </c>
@@ -6370,7 +6337,7 @@
         <v>0.60058999999999996</v>
       </c>
     </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B57" t="s">
         <v>46</v>
       </c>
@@ -6393,7 +6360,7 @@
         <v>0.50705</v>
       </c>
     </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B58" t="s">
         <v>47</v>
       </c>
@@ -6416,7 +6383,7 @@
         <v>0.44672000000000001</v>
       </c>
     </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B59" t="s">
         <v>48</v>
       </c>
@@ -6439,7 +6406,7 @@
         <v>0.48557</v>
       </c>
     </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B60" t="s">
         <v>49</v>
       </c>
@@ -6462,7 +6429,7 @@
         <v>0.57428000000000001</v>
       </c>
     </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B61" t="s">
         <v>50</v>
       </c>
@@ -6485,7 +6452,7 @@
         <v>0.56764000000000003</v>
       </c>
     </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B62" t="s">
         <v>51</v>
       </c>
@@ -6508,7 +6475,7 @@
         <v>0.48723</v>
       </c>
     </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B63" t="s">
         <v>52</v>
       </c>
@@ -6531,7 +6498,7 @@
         <v>0.60631999999999997</v>
       </c>
     </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B64" t="s">
         <v>53</v>
       </c>
@@ -6554,7 +6521,7 @@
         <v>0.74412999999999996</v>
       </c>
     </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B65" t="s">
         <v>54</v>
       </c>
@@ -6577,7 +6544,7 @@
         <v>1.09599</v>
       </c>
     </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B66" t="s">
         <v>55</v>
       </c>
@@ -6600,7 +6567,7 @@
         <v>1.16177</v>
       </c>
     </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B67" t="s">
         <v>56</v>
       </c>
@@ -6623,7 +6590,7 @@
         <v>0.8508</v>
       </c>
     </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B68" t="s">
         <v>57</v>
       </c>
@@ -6646,7 +6613,7 @@
         <v>0.61389000000000005</v>
       </c>
     </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B69" t="s">
         <v>58</v>
       </c>
@@ -6669,7 +6636,7 @@
         <v>0.73699999999999999</v>
       </c>
     </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B70" t="s">
         <v>59</v>
       </c>
@@ -6692,7 +6659,7 @@
         <v>1.0340400000000001</v>
       </c>
     </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B71" t="s">
         <v>60</v>
       </c>
@@ -6715,7 +6682,7 @@
         <v>1.05667</v>
       </c>
     </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B72" t="s">
         <v>61</v>
       </c>
@@ -6738,7 +6705,7 @@
         <v>0.77376</v>
       </c>
     </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B73" t="s">
         <v>62</v>
       </c>
@@ -6761,7 +6728,7 @@
         <v>0.43712000000000001</v>
       </c>
     </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B74" t="s">
         <v>63</v>
       </c>
@@ -6784,7 +6751,7 @@
         <v>0.44361</v>
       </c>
     </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B75" t="s">
         <v>64</v>
       </c>
@@ -6807,7 +6774,7 @@
         <v>0.47626000000000002</v>
       </c>
     </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B76" t="s">
         <v>65</v>
       </c>
@@ -6830,7 +6797,7 @@
         <v>0.46534999999999999</v>
       </c>
     </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B77" t="s">
         <v>66</v>
       </c>
@@ -6853,7 +6820,7 @@
         <v>0.44346999999999998</v>
       </c>
     </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B78" t="s">
         <v>67</v>
       </c>
@@ -6876,7 +6843,7 @@
         <v>0.42027999999999999</v>
       </c>
     </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B79" t="s">
         <v>68</v>
       </c>
@@ -6899,7 +6866,7 @@
         <v>0.41655999999999999</v>
       </c>
     </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B80" t="s">
         <v>69</v>
       </c>
@@ -6922,7 +6889,7 @@
         <v>0.44624000000000003</v>
       </c>
     </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B81" t="s">
         <v>70</v>
       </c>
@@ -6945,7 +6912,7 @@
         <v>0.44042999999999999</v>
       </c>
     </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B82" t="s">
         <v>71</v>
       </c>
@@ -6968,7 +6935,7 @@
         <v>0.42854999999999999</v>
       </c>
     </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B83" t="s">
         <v>31</v>
       </c>
@@ -6991,7 +6958,7 @@
         <v>3.737E-2</v>
       </c>
     </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B84" t="s">
         <v>33</v>
       </c>
@@ -7014,7 +6981,7 @@
         <v>5.1069999999999997E-2</v>
       </c>
     </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B85" t="s">
         <v>34</v>
       </c>
@@ -7037,7 +7004,7 @@
         <v>8.0390000000000003E-2</v>
       </c>
     </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B86" t="s">
         <v>35</v>
       </c>
@@ -7060,7 +7027,7 @@
         <v>7.5950000000000004E-2</v>
       </c>
     </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B87" t="s">
         <v>36</v>
       </c>
@@ -7083,7 +7050,7 @@
         <v>5.2229999999999999E-2</v>
       </c>
     </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B88" t="s">
         <v>37</v>
       </c>
@@ -7106,7 +7073,7 @@
         <v>3.7109999999999997E-2</v>
       </c>
     </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B89" t="s">
         <v>38</v>
       </c>
@@ -7129,7 +7096,7 @@
         <v>4.7320000000000001E-2</v>
       </c>
     </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B90" t="s">
         <v>39</v>
       </c>
@@ -7152,7 +7119,7 @@
         <v>6.9099999999999995E-2</v>
       </c>
     </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B91" t="s">
         <v>40</v>
       </c>
@@ -7175,7 +7142,7 @@
         <v>6.7129999999999995E-2</v>
       </c>
     </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B92" t="s">
         <v>41</v>
       </c>
@@ -7198,7 +7165,7 @@
         <v>5.3900000000000003E-2</v>
       </c>
     </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B93" t="s">
         <v>42</v>
       </c>
@@ -7221,7 +7188,7 @@
         <v>3.5999999999999997E-2</v>
       </c>
     </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B94" t="s">
         <v>43</v>
       </c>
@@ -7244,7 +7211,7 @@
         <v>4.6580000000000003E-2</v>
       </c>
     </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B95" t="s">
         <v>44</v>
       </c>
@@ -7267,7 +7234,7 @@
         <v>8.276E-2</v>
       </c>
     </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B96" t="s">
         <v>45</v>
       </c>
@@ -7290,7 +7257,7 @@
         <v>8.1470000000000001E-2</v>
       </c>
     </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B97" t="s">
         <v>46</v>
       </c>
@@ -7313,7 +7280,7 @@
         <v>5.4429999999999999E-2</v>
       </c>
     </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B98" t="s">
         <v>47</v>
       </c>
@@ -7336,7 +7303,7 @@
         <v>3.6110000000000003E-2</v>
       </c>
     </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B99" t="s">
         <v>48</v>
       </c>
@@ -7359,7 +7326,7 @@
         <v>4.8219999999999999E-2</v>
       </c>
     </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B100" t="s">
         <v>49</v>
       </c>
@@ -7382,7 +7349,7 @@
         <v>7.2090000000000001E-2</v>
       </c>
     </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B101" t="s">
         <v>50</v>
       </c>
@@ -7405,7 +7372,7 @@
         <v>7.2569999999999996E-2</v>
       </c>
     </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B102" t="s">
         <v>51</v>
       </c>
@@ -7428,7 +7395,7 @@
         <v>4.9820000000000003E-2</v>
       </c>
     </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B103" t="s">
         <v>52</v>
       </c>
@@ -7451,7 +7418,7 @@
         <v>5.0360000000000002E-2</v>
       </c>
     </row>
-    <row r="104" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B104" t="s">
         <v>53</v>
       </c>
@@ -7474,7 +7441,7 @@
         <v>9.7549999999999998E-2</v>
       </c>
     </row>
-    <row r="105" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B105" t="s">
         <v>54</v>
       </c>
@@ -7497,7 +7464,7 @@
         <v>0.21303</v>
       </c>
     </row>
-    <row r="106" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B106" t="s">
         <v>55</v>
       </c>
@@ -7520,7 +7487,7 @@
         <v>0.21972</v>
       </c>
     </row>
-    <row r="107" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B107" t="s">
         <v>56</v>
       </c>
@@ -7543,7 +7510,7 @@
         <v>0.13431999999999999</v>
       </c>
     </row>
-    <row r="108" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B108" t="s">
         <v>57</v>
       </c>
@@ -7566,7 +7533,7 @@
         <v>5.9639999999999999E-2</v>
       </c>
     </row>
-    <row r="109" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B109" t="s">
         <v>58</v>
       </c>
@@ -7589,7 +7556,7 @@
         <v>9.647E-2</v>
       </c>
     </row>
-    <row r="110" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B110" t="s">
         <v>59</v>
       </c>
@@ -7612,7 +7579,7 @@
         <v>0.192</v>
       </c>
     </row>
-    <row r="111" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B111" t="s">
         <v>60</v>
       </c>
@@ -7635,7 +7602,7 @@
         <v>0.19963</v>
       </c>
     </row>
-    <row r="112" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B112" t="s">
         <v>61</v>
       </c>
@@ -7658,7 +7625,7 @@
         <v>0.10663</v>
       </c>
     </row>
-    <row r="113" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B113" t="s">
         <v>62</v>
       </c>
@@ -7681,7 +7648,7 @@
         <v>3.5929999999999997E-2</v>
       </c>
     </row>
-    <row r="114" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B114" t="s">
         <v>63</v>
       </c>
@@ -7704,7 +7671,7 @@
         <v>4.5719999999999997E-2</v>
       </c>
     </row>
-    <row r="115" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B115" t="s">
         <v>64</v>
       </c>
@@ -7727,7 +7694,7 @@
         <v>5.5140000000000002E-2</v>
       </c>
     </row>
-    <row r="116" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B116" t="s">
         <v>65</v>
       </c>
@@ -7750,7 +7717,7 @@
         <v>5.4890000000000001E-2</v>
       </c>
     </row>
-    <row r="117" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B117" t="s">
         <v>66</v>
       </c>
@@ -7773,7 +7740,7 @@
         <v>4.7570000000000001E-2</v>
       </c>
     </row>
-    <row r="118" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B118" t="s">
         <v>67</v>
       </c>
@@ -7796,7 +7763,7 @@
         <v>3.5709999999999999E-2</v>
       </c>
     </row>
-    <row r="119" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B119" t="s">
         <v>68</v>
       </c>
@@ -7819,7 +7786,7 @@
         <v>4.5249999999999999E-2</v>
       </c>
     </row>
-    <row r="120" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B120" t="s">
         <v>69</v>
       </c>
@@ -7842,7 +7809,7 @@
         <v>5.4449999999999998E-2</v>
       </c>
     </row>
-    <row r="121" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B121" t="s">
         <v>70</v>
       </c>
@@ -7865,7 +7832,7 @@
         <v>5.432E-2</v>
       </c>
     </row>
-    <row r="122" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B122" t="s">
         <v>71</v>
       </c>
@@ -7905,14 +7872,14 @@
       <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.3984375" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B2" t="s">
         <v>1</v>
       </c>
@@ -7938,7 +7905,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B3" t="s">
         <v>31</v>
       </c>
@@ -7964,7 +7931,7 @@
         <v>5.9999999999999995E-4</v>
       </c>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
         <v>33</v>
       </c>
@@ -7990,7 +7957,7 @@
         <v>5.6349999999999997E-2</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
         <v>34</v>
       </c>
@@ -8016,7 +7983,7 @@
         <v>0.23627999999999999</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B6" t="s">
         <v>35</v>
       </c>
@@ -8042,7 +8009,7 @@
         <v>1.7829999999999999E-2</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B7" t="s">
         <v>36</v>
       </c>
@@ -8068,7 +8035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B8" t="s">
         <v>37</v>
       </c>
@@ -8094,7 +8061,7 @@
         <v>2.9999999999999997E-4</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B9" t="s">
         <v>38</v>
       </c>
@@ -8120,7 +8087,7 @@
         <v>4.7419999999999997E-2</v>
       </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B10" t="s">
         <v>39</v>
       </c>
@@ -8146,7 +8113,7 @@
         <v>0.22863</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B11" t="s">
         <v>40</v>
       </c>
@@ -8172,7 +8139,7 @@
         <v>1.503E-2</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B12" t="s">
         <v>41</v>
       </c>
@@ -8198,7 +8165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B13" t="s">
         <v>42</v>
       </c>
@@ -8224,7 +8191,7 @@
         <v>5.28E-3</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B14" t="s">
         <v>43</v>
       </c>
@@ -8250,7 +8217,7 @@
         <v>0.15382999999999999</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B15" t="s">
         <v>44</v>
       </c>
@@ -8276,7 +8243,7 @@
         <v>0.3609</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B16" t="s">
         <v>45</v>
       </c>
@@ -8302,7 +8269,7 @@
         <v>7.6520000000000005E-2</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B17" t="s">
         <v>46</v>
       </c>
@@ -8328,7 +8295,7 @@
         <v>1.23E-3</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B18" t="s">
         <v>47</v>
       </c>
@@ -8354,7 +8321,7 @@
         <v>6.9899999999999997E-3</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B19" t="s">
         <v>48</v>
       </c>
@@ -8380,7 +8347,7 @@
         <v>0.15962999999999999</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B20" t="s">
         <v>49</v>
       </c>
@@ -8406,7 +8373,7 @@
         <v>0.3644</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B21" t="s">
         <v>50</v>
       </c>
@@ -8432,7 +8399,7 @@
         <v>7.893E-2</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B22" t="s">
         <v>51</v>
       </c>
@@ -8458,7 +8425,7 @@
         <v>1.57E-3</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B23" t="s">
         <v>52</v>
       </c>
@@ -8484,7 +8451,7 @@
         <v>1.529E-2</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B24" t="s">
         <v>53</v>
       </c>
@@ -8510,7 +8477,7 @@
         <v>0.23</v>
       </c>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B25" t="s">
         <v>54</v>
       </c>
@@ -8536,7 +8503,7 @@
         <v>0.42102000000000001</v>
       </c>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B26" t="s">
         <v>55</v>
       </c>
@@ -8562,7 +8529,7 @@
         <v>0.12891</v>
       </c>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B27" t="s">
         <v>56</v>
       </c>
@@ -8588,7 +8555,7 @@
         <v>5.1900000000000002E-3</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B28" t="s">
         <v>57</v>
       </c>
@@ -8614,7 +8581,7 @@
         <v>1.436E-2</v>
       </c>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B29" t="s">
         <v>58</v>
       </c>
@@ -8640,7 +8607,7 @@
         <v>0.22231999999999999</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B30" t="s">
         <v>59</v>
       </c>
@@ -8666,7 +8633,7 @@
         <v>0.40501999999999999</v>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B31" t="s">
         <v>60</v>
       </c>
@@ -8692,7 +8659,7 @@
         <v>0.11814</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B32" t="s">
         <v>61</v>
       </c>
@@ -8718,7 +8685,7 @@
         <v>4.7299999999999998E-3</v>
       </c>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B33" t="s">
         <v>62</v>
       </c>
@@ -8744,7 +8711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B34" t="s">
         <v>63</v>
       </c>
@@ -8770,7 +8737,7 @@
         <v>6.0299999999999998E-3</v>
       </c>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B35" t="s">
         <v>64</v>
       </c>
@@ -8796,7 +8763,7 @@
         <v>0.11210000000000001</v>
       </c>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B36" t="s">
         <v>65</v>
       </c>
@@ -8822,7 +8789,7 @@
         <v>2.2000000000000001E-4</v>
       </c>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B37" t="s">
         <v>66</v>
       </c>
@@ -8848,7 +8815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B38" t="s">
         <v>67</v>
       </c>
@@ -8874,7 +8841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B39" t="s">
         <v>68</v>
       </c>
@@ -8900,7 +8867,7 @@
         <v>6.0499999999999998E-3</v>
       </c>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B40" t="s">
         <v>69</v>
       </c>
@@ -8926,7 +8893,7 @@
         <v>9.4469999999999998E-2</v>
       </c>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B41" t="s">
         <v>70</v>
       </c>
@@ -8952,7 +8919,7 @@
         <v>3.8999999999999999E-4</v>
       </c>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B42" t="s">
         <v>71</v>
       </c>
@@ -8995,14 +8962,14 @@
       <selection activeCell="N27" sqref="N27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.3984375" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:31" x14ac:dyDescent="0.45">
       <c r="B1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:31" x14ac:dyDescent="0.45">
       <c r="B2" t="s">
         <v>1</v>
       </c>
@@ -9094,7 +9061,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:31" x14ac:dyDescent="0.45">
       <c r="B3" t="s">
         <v>31</v>
       </c>
@@ -9186,7 +9153,7 @@
         <v>2.1575342465753398E-2</v>
       </c>
     </row>
-    <row r="4" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:31" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
         <v>33</v>
       </c>
@@ -9278,7 +9245,7 @@
         <v>6.1643835616438398E-3</v>
       </c>
     </row>
-    <row r="5" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:31" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
         <v>34</v>
       </c>
@@ -9370,7 +9337,7 @@
         <v>2.46575342465753E-2</v>
       </c>
     </row>
-    <row r="6" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:31" x14ac:dyDescent="0.45">
       <c r="B6" t="s">
         <v>35</v>
       </c>
@@ -9462,7 +9429,7 @@
         <v>6.1643835616438398E-3</v>
       </c>
     </row>
-    <row r="7" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:31" x14ac:dyDescent="0.45">
       <c r="B7" t="s">
         <v>36</v>
       </c>
@@ -9554,7 +9521,7 @@
         <v>1.54109589041096E-2</v>
       </c>
     </row>
-    <row r="8" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:31" x14ac:dyDescent="0.45">
       <c r="B8" t="s">
         <v>37</v>
       </c>
@@ -9646,7 +9613,7 @@
         <v>5.11415525114155E-2</v>
       </c>
     </row>
-    <row r="9" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:31" x14ac:dyDescent="0.45">
       <c r="B9" t="s">
         <v>38</v>
       </c>
@@ -9738,7 +9705,7 @@
         <v>1.46118721461187E-2</v>
       </c>
     </row>
-    <row r="10" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:31" x14ac:dyDescent="0.45">
       <c r="B10" t="s">
         <v>39</v>
       </c>
@@ -9830,7 +9797,7 @@
         <v>5.8447488584474898E-2</v>
       </c>
     </row>
-    <row r="11" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:31" x14ac:dyDescent="0.45">
       <c r="B11" t="s">
         <v>40</v>
       </c>
@@ -9922,7 +9889,7 @@
         <v>1.46118721461187E-2</v>
       </c>
     </row>
-    <row r="12" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:31" x14ac:dyDescent="0.45">
       <c r="B12" t="s">
         <v>41</v>
       </c>
@@ -10014,7 +9981,7 @@
         <v>3.6529680365296802E-2</v>
       </c>
     </row>
-    <row r="13" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:31" x14ac:dyDescent="0.45">
       <c r="B13" t="s">
         <v>42</v>
       </c>
@@ -10106,7 +10073,7 @@
         <v>2.3173515981735199E-2</v>
       </c>
     </row>
-    <row r="14" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:31" x14ac:dyDescent="0.45">
       <c r="B14" t="s">
         <v>43</v>
       </c>
@@ -10198,7 +10165,7 @@
         <v>6.62100456621005E-3</v>
       </c>
     </row>
-    <row r="15" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:31" x14ac:dyDescent="0.45">
       <c r="B15" t="s">
         <v>44</v>
       </c>
@@ -10290,7 +10257,7 @@
         <v>2.64840182648402E-2</v>
       </c>
     </row>
-    <row r="16" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:31" x14ac:dyDescent="0.45">
       <c r="B16" t="s">
         <v>45</v>
       </c>
@@ -10382,7 +10349,7 @@
         <v>6.62100456621005E-3</v>
       </c>
     </row>
-    <row r="17" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:31" x14ac:dyDescent="0.45">
       <c r="B17" t="s">
         <v>46</v>
       </c>
@@ -10474,7 +10441,7 @@
         <v>1.6552511415525099E-2</v>
       </c>
     </row>
-    <row r="18" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:31" x14ac:dyDescent="0.45">
       <c r="B18" t="s">
         <v>47</v>
       </c>
@@ -10566,7 +10533,7 @@
         <v>5.0342465753424701E-2</v>
       </c>
     </row>
-    <row r="19" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:31" x14ac:dyDescent="0.45">
       <c r="B19" t="s">
         <v>48</v>
       </c>
@@ -10658,7 +10625,7 @@
         <v>1.4383561643835601E-2</v>
       </c>
     </row>
-    <row r="20" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:31" x14ac:dyDescent="0.45">
       <c r="B20" t="s">
         <v>49</v>
       </c>
@@ -10750,7 +10717,7 @@
         <v>5.75342465753425E-2</v>
       </c>
     </row>
-    <row r="21" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:31" x14ac:dyDescent="0.45">
       <c r="B21" t="s">
         <v>50</v>
       </c>
@@ -10842,7 +10809,7 @@
         <v>1.4383561643835601E-2</v>
       </c>
     </row>
-    <row r="22" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:31" x14ac:dyDescent="0.45">
       <c r="B22" t="s">
         <v>51</v>
       </c>
@@ -10934,7 +10901,7 @@
         <v>3.5958904109588997E-2</v>
       </c>
     </row>
-    <row r="23" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:31" x14ac:dyDescent="0.45">
       <c r="B23" t="s">
         <v>52</v>
       </c>
@@ -11026,7 +10993,7 @@
         <v>2.2374429223744299E-2</v>
       </c>
     </row>
-    <row r="24" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:31" x14ac:dyDescent="0.45">
       <c r="B24" t="s">
         <v>53</v>
       </c>
@@ -11118,7 +11085,7 @@
         <v>6.3926940639269401E-3</v>
       </c>
     </row>
-    <row r="25" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:31" x14ac:dyDescent="0.45">
       <c r="B25" t="s">
         <v>54</v>
       </c>
@@ -11210,7 +11177,7 @@
         <v>2.5570776255707799E-2</v>
       </c>
     </row>
-    <row r="26" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:31" x14ac:dyDescent="0.45">
       <c r="B26" t="s">
         <v>55</v>
       </c>
@@ -11302,7 +11269,7 @@
         <v>6.3926940639269401E-3</v>
       </c>
     </row>
-    <row r="27" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:31" x14ac:dyDescent="0.45">
       <c r="B27" t="s">
         <v>56</v>
       </c>
@@ -11394,7 +11361,7 @@
         <v>1.5981735159817399E-2</v>
       </c>
     </row>
-    <row r="28" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:31" x14ac:dyDescent="0.45">
       <c r="B28" t="s">
         <v>57</v>
       </c>
@@ -11486,7 +11453,7 @@
         <v>5.11415525114155E-2</v>
       </c>
     </row>
-    <row r="29" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:31" x14ac:dyDescent="0.45">
       <c r="B29" t="s">
         <v>58</v>
       </c>
@@ -11578,7 +11545,7 @@
         <v>1.46118721461187E-2</v>
       </c>
     </row>
-    <row r="30" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:31" x14ac:dyDescent="0.45">
       <c r="B30" t="s">
         <v>59</v>
       </c>
@@ -11670,7 +11637,7 @@
         <v>5.8447488584474898E-2</v>
       </c>
     </row>
-    <row r="31" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:31" x14ac:dyDescent="0.45">
       <c r="B31" t="s">
         <v>60</v>
       </c>
@@ -11762,7 +11729,7 @@
         <v>1.46118721461187E-2</v>
       </c>
     </row>
-    <row r="32" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:31" x14ac:dyDescent="0.45">
       <c r="B32" t="s">
         <v>61</v>
       </c>
@@ -11854,7 +11821,7 @@
         <v>3.6529680365296802E-2</v>
       </c>
     </row>
-    <row r="33" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:31" x14ac:dyDescent="0.45">
       <c r="B33" t="s">
         <v>62</v>
       </c>
@@ -11946,7 +11913,7 @@
         <v>2.3173515981735199E-2</v>
       </c>
     </row>
-    <row r="34" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:31" x14ac:dyDescent="0.45">
       <c r="B34" t="s">
         <v>63</v>
       </c>
@@ -12038,7 +12005,7 @@
         <v>6.62100456621005E-3</v>
       </c>
     </row>
-    <row r="35" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:31" x14ac:dyDescent="0.45">
       <c r="B35" t="s">
         <v>64</v>
       </c>
@@ -12130,7 +12097,7 @@
         <v>2.64840182648402E-2</v>
       </c>
     </row>
-    <row r="36" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:31" x14ac:dyDescent="0.45">
       <c r="B36" t="s">
         <v>65</v>
       </c>
@@ -12222,7 +12189,7 @@
         <v>6.62100456621005E-3</v>
       </c>
     </row>
-    <row r="37" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:31" x14ac:dyDescent="0.45">
       <c r="B37" t="s">
         <v>66</v>
       </c>
@@ -12314,7 +12281,7 @@
         <v>1.6552511415525099E-2</v>
       </c>
     </row>
-    <row r="38" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.45">
       <c r="B38" t="s">
         <v>67</v>
       </c>
@@ -12406,7 +12373,7 @@
         <v>4.87442922374429E-2</v>
       </c>
     </row>
-    <row r="39" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.45">
       <c r="B39" t="s">
         <v>68</v>
       </c>
@@ -12498,7 +12465,7 @@
         <v>1.39269406392694E-2</v>
       </c>
     </row>
-    <row r="40" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:31" x14ac:dyDescent="0.45">
       <c r="B40" t="s">
         <v>69</v>
       </c>
@@ -12590,7 +12557,7 @@
         <v>5.57077625570776E-2</v>
       </c>
     </row>
-    <row r="41" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:31" x14ac:dyDescent="0.45">
       <c r="B41" t="s">
         <v>70</v>
       </c>
@@ -12682,7 +12649,7 @@
         <v>1.39269406392694E-2</v>
       </c>
     </row>
-    <row r="42" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:31" x14ac:dyDescent="0.45">
       <c r="B42" t="s">
         <v>71</v>
       </c>
@@ -12791,14 +12758,14 @@
       <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.3984375" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B2" t="s">
         <v>1</v>
       </c>
@@ -12824,7 +12791,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B3" t="s">
         <v>31</v>
       </c>
@@ -12850,7 +12817,7 @@
         <v>5.9999999999999995E-4</v>
       </c>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
         <v>33</v>
       </c>
@@ -12876,7 +12843,7 @@
         <v>5.6349999999999997E-2</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
         <v>34</v>
       </c>
@@ -12902,7 +12869,7 @@
         <v>0.23627999999999999</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B6" t="s">
         <v>35</v>
       </c>
@@ -12928,7 +12895,7 @@
         <v>1.7829999999999999E-2</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B7" t="s">
         <v>36</v>
       </c>
@@ -12954,7 +12921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B8" t="s">
         <v>37</v>
       </c>
@@ -12980,7 +12947,7 @@
         <v>2.9999999999999997E-4</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B9" t="s">
         <v>38</v>
       </c>
@@ -13006,7 +12973,7 @@
         <v>4.7419999999999997E-2</v>
       </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B10" t="s">
         <v>39</v>
       </c>
@@ -13032,7 +12999,7 @@
         <v>0.22863</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B11" t="s">
         <v>40</v>
       </c>
@@ -13058,7 +13025,7 @@
         <v>1.503E-2</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B12" t="s">
         <v>41</v>
       </c>
@@ -13084,7 +13051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B13" t="s">
         <v>42</v>
       </c>
@@ -13110,7 +13077,7 @@
         <v>5.28E-3</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B14" t="s">
         <v>43</v>
       </c>
@@ -13136,7 +13103,7 @@
         <v>0.15382999999999999</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B15" t="s">
         <v>44</v>
       </c>
@@ -13162,7 +13129,7 @@
         <v>0.3609</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B16" t="s">
         <v>45</v>
       </c>
@@ -13188,7 +13155,7 @@
         <v>7.6520000000000005E-2</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B17" t="s">
         <v>46</v>
       </c>
@@ -13214,7 +13181,7 @@
         <v>1.23E-3</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B18" t="s">
         <v>47</v>
       </c>
@@ -13240,7 +13207,7 @@
         <v>6.9899999999999997E-3</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B19" t="s">
         <v>48</v>
       </c>
@@ -13266,7 +13233,7 @@
         <v>0.15962999999999999</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B20" t="s">
         <v>49</v>
       </c>
@@ -13292,7 +13259,7 @@
         <v>0.3644</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B21" t="s">
         <v>50</v>
       </c>
@@ -13318,7 +13285,7 @@
         <v>7.893E-2</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B22" t="s">
         <v>51</v>
       </c>
@@ -13344,7 +13311,7 @@
         <v>1.57E-3</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B23" t="s">
         <v>52</v>
       </c>
@@ -13370,7 +13337,7 @@
         <v>1.529E-2</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B24" t="s">
         <v>53</v>
       </c>
@@ -13396,7 +13363,7 @@
         <v>0.23</v>
       </c>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B25" t="s">
         <v>54</v>
       </c>
@@ -13422,7 +13389,7 @@
         <v>0.42102000000000001</v>
       </c>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B26" t="s">
         <v>55</v>
       </c>
@@ -13448,7 +13415,7 @@
         <v>0.12891</v>
       </c>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B27" t="s">
         <v>56</v>
       </c>
@@ -13474,7 +13441,7 @@
         <v>5.1900000000000002E-3</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B28" t="s">
         <v>57</v>
       </c>
@@ -13500,7 +13467,7 @@
         <v>1.436E-2</v>
       </c>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B29" t="s">
         <v>58</v>
       </c>
@@ -13526,7 +13493,7 @@
         <v>0.22231999999999999</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B30" t="s">
         <v>59</v>
       </c>
@@ -13552,7 +13519,7 @@
         <v>0.40501999999999999</v>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B31" t="s">
         <v>60</v>
       </c>
@@ -13578,7 +13545,7 @@
         <v>0.11814</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B32" t="s">
         <v>61</v>
       </c>
@@ -13604,7 +13571,7 @@
         <v>4.7299999999999998E-3</v>
       </c>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B33" t="s">
         <v>62</v>
       </c>
@@ -13630,7 +13597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B34" t="s">
         <v>63</v>
       </c>
@@ -13656,7 +13623,7 @@
         <v>6.0299999999999998E-3</v>
       </c>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B35" t="s">
         <v>64</v>
       </c>
@@ -13682,7 +13649,7 @@
         <v>0.11210000000000001</v>
       </c>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B36" t="s">
         <v>65</v>
       </c>
@@ -13708,7 +13675,7 @@
         <v>2.2000000000000001E-4</v>
       </c>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B37" t="s">
         <v>66</v>
       </c>
@@ -13734,7 +13701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B38" t="s">
         <v>67</v>
       </c>
@@ -13760,7 +13727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B39" t="s">
         <v>68</v>
       </c>
@@ -13786,7 +13753,7 @@
         <v>6.0499999999999998E-3</v>
       </c>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B40" t="s">
         <v>69</v>
       </c>
@@ -13812,7 +13779,7 @@
         <v>9.4469999999999998E-2</v>
       </c>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B41" t="s">
         <v>70</v>
       </c>
@@ -13838,7 +13805,7 @@
         <v>3.8999999999999999E-4</v>
       </c>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B42" t="s">
         <v>71</v>
       </c>
@@ -13879,14 +13846,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.3984375" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B2" t="s">
         <v>1</v>
       </c>
@@ -13906,7 +13873,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B3" t="s">
         <v>31</v>
       </c>
@@ -13926,7 +13893,7 @@
         <v>1.9570000000000001E-2</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
         <v>33</v>
       </c>
@@ -13946,7 +13913,7 @@
         <v>6.7200000000000003E-3</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
         <v>34</v>
       </c>
@@ -13966,7 +13933,7 @@
         <v>2.3550000000000001E-2</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B6" t="s">
         <v>35</v>
       </c>
@@ -13986,7 +13953,7 @@
         <v>4.6600000000000001E-3</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B7" t="s">
         <v>36</v>
       </c>
@@ -14006,7 +13973,7 @@
         <v>1.146E-2</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B8" t="s">
         <v>37</v>
       </c>
@@ -14026,7 +13993,7 @@
         <v>4.8300000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B9" t="s">
         <v>38</v>
       </c>
@@ -14046,7 +14013,7 @@
         <v>1.6410000000000001E-2</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B10" t="s">
         <v>39</v>
       </c>
@@ -14066,7 +14033,7 @@
         <v>5.806E-2</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B11" t="s">
         <v>40</v>
       </c>
@@ -14086,7 +14053,7 @@
         <v>1.1679999999999999E-2</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B12" t="s">
         <v>41</v>
       </c>
@@ -14106,7 +14073,7 @@
         <v>2.928E-2</v>
       </c>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B13" t="s">
         <v>42</v>
       </c>
@@ -14126,7 +14093,7 @@
         <v>2.811E-2</v>
       </c>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B14" t="s">
         <v>43</v>
       </c>
@@ -14146,7 +14113,7 @@
         <v>9.0100000000000006E-3</v>
       </c>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B15" t="s">
         <v>44</v>
       </c>
@@ -14166,7 +14133,7 @@
         <v>2.9579999999999999E-2</v>
       </c>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B16" t="s">
         <v>45</v>
       </c>
@@ -14186,7 +14153,7 @@
         <v>5.8300000000000001E-3</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B17" t="s">
         <v>46</v>
       </c>
@@ -14206,7 +14173,7 @@
         <v>1.529E-2</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B18" t="s">
         <v>47</v>
       </c>
@@ -14226,7 +14193,7 @@
         <v>6.0089999999999998E-2</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B19" t="s">
         <v>48</v>
       </c>
@@ -14246,7 +14213,7 @@
         <v>1.9109999999999999E-2</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B20" t="s">
         <v>49</v>
       </c>
@@ -14266,7 +14233,7 @@
         <v>6.3700000000000007E-2</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B21" t="s">
         <v>50</v>
       </c>
@@ -14286,7 +14253,7 @@
         <v>1.2710000000000001E-2</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B22" t="s">
         <v>51</v>
       </c>
@@ -14306,7 +14273,7 @@
         <v>3.3099999999999997E-2</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B23" t="s">
         <v>52</v>
       </c>
@@ -14326,7 +14293,7 @@
         <v>1.201E-2</v>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B24" t="s">
         <v>53</v>
       </c>
@@ -14346,7 +14313,7 @@
         <v>4.3899999999999998E-3</v>
       </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B25" t="s">
         <v>54</v>
       </c>
@@ -14366,7 +14333,7 @@
         <v>1.213E-2</v>
       </c>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B26" t="s">
         <v>55</v>
       </c>
@@ -14386,7 +14353,7 @@
         <v>1.5499999999999999E-3</v>
       </c>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B27" t="s">
         <v>56</v>
       </c>
@@ -14406,7 +14373,7 @@
         <v>3.6099999999999999E-3</v>
       </c>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B28" t="s">
         <v>57</v>
       </c>
@@ -14426,7 +14393,7 @@
         <v>2.4809999999999999E-2</v>
       </c>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B29" t="s">
         <v>58</v>
       </c>
@@ -14446,7 +14413,7 @@
         <v>9.3500000000000007E-3</v>
       </c>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B30" t="s">
         <v>59</v>
       </c>
@@ -14466,7 +14433,7 @@
         <v>2.8199999999999999E-2</v>
       </c>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B31" t="s">
         <v>60</v>
       </c>
@@ -14486,7 +14453,7 @@
         <v>3.9699999999999996E-3</v>
       </c>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B32" t="s">
         <v>61</v>
       </c>
@@ -14506,7 +14473,7 @@
         <v>8.5000000000000006E-3</v>
       </c>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B33" t="s">
         <v>62</v>
       </c>
@@ -14526,7 +14493,7 @@
         <v>3.7249999999999998E-2</v>
       </c>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B34" t="s">
         <v>63</v>
       </c>
@@ -14546,7 +14513,7 @@
         <v>1.1769999999999999E-2</v>
       </c>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B35" t="s">
         <v>64</v>
       </c>
@@ -14566,7 +14533,7 @@
         <v>4.5530000000000001E-2</v>
       </c>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B36" t="s">
         <v>65</v>
       </c>
@@ -14586,7 +14553,7 @@
         <v>1.0070000000000001E-2</v>
       </c>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B37" t="s">
         <v>66</v>
       </c>
@@ -14606,7 +14573,7 @@
         <v>2.409E-2</v>
       </c>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B38" t="s">
         <v>67</v>
       </c>
@@ -14626,7 +14593,7 @@
         <v>7.3150000000000007E-2</v>
       </c>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B39" t="s">
         <v>68</v>
       </c>
@@ -14646,7 +14613,7 @@
         <v>2.3460000000000002E-2</v>
       </c>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B40" t="s">
         <v>69</v>
       </c>
@@ -14666,7 +14633,7 @@
         <v>9.1060000000000002E-2</v>
       </c>
     </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B41" t="s">
         <v>70</v>
       </c>
@@ -14686,7 +14653,7 @@
         <v>2.0140000000000002E-2</v>
       </c>
     </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B42" t="s">
         <v>71</v>
       </c>
@@ -14723,17 +14690,17 @@
       <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.3984375" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B2" t="s">
         <v>1</v>
       </c>
@@ -14756,7 +14723,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B3" t="s">
         <v>31</v>
       </c>
@@ -14779,7 +14746,7 @@
         <v>0.90688000000000002</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
         <v>33</v>
       </c>
@@ -14802,7 +14769,7 @@
         <v>1.0898300000000001</v>
       </c>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
         <v>34</v>
       </c>
@@ -14825,7 +14792,7 @@
         <v>0.95521</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B6" t="s">
         <v>35</v>
       </c>
@@ -14848,7 +14815,7 @@
         <v>0.75653000000000004</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B7" t="s">
         <v>36</v>
       </c>
@@ -14871,7 +14838,7 @@
         <v>0.74341999999999997</v>
       </c>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B8" t="s">
         <v>37</v>
       </c>
@@ -14894,7 +14861,7 @@
         <v>0.94435000000000002</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B9" t="s">
         <v>38</v>
       </c>
@@ -14917,7 +14884,7 @@
         <v>1.12294</v>
       </c>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B10" t="s">
         <v>39</v>
       </c>
@@ -14940,7 +14907,7 @@
         <v>0.99341000000000002</v>
       </c>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B11" t="s">
         <v>40</v>
       </c>
@@ -14963,7 +14930,7 @@
         <v>0.79964999999999997</v>
       </c>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B12" t="s">
         <v>41</v>
       </c>
@@ -14986,7 +14953,7 @@
         <v>0.80142999999999998</v>
       </c>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B13" t="s">
         <v>42</v>
       </c>
@@ -15009,7 +14976,7 @@
         <v>1.21305</v>
       </c>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B14" t="s">
         <v>43</v>
       </c>
@@ -15032,7 +14999,7 @@
         <v>1.3615299999999999</v>
       </c>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B15" t="s">
         <v>44</v>
       </c>
@@ -15055,7 +15022,7 @@
         <v>1.1169199999999999</v>
       </c>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B16" t="s">
         <v>45</v>
       </c>
@@ -15078,7 +15045,7 @@
         <v>0.88107000000000002</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B17" t="s">
         <v>46</v>
       </c>
@@ -15101,7 +15068,7 @@
         <v>0.92349999999999999</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B18" t="s">
         <v>47</v>
       </c>
@@ -15124,7 +15091,7 @@
         <v>1.19356</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B19" t="s">
         <v>48</v>
       </c>
@@ -15147,7 +15114,7 @@
         <v>1.3284400000000001</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B20" t="s">
         <v>49</v>
       </c>
@@ -15170,7 +15137,7 @@
         <v>1.1071599999999999</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B21" t="s">
         <v>50</v>
       </c>
@@ -15193,7 +15160,7 @@
         <v>0.88378999999999996</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B22" t="s">
         <v>51</v>
       </c>
@@ -15216,7 +15183,7 @@
         <v>0.92042000000000002</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B23" t="s">
         <v>52</v>
       </c>
@@ -15239,7 +15206,7 @@
         <v>0.53678999999999999</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B24" t="s">
         <v>53</v>
       </c>
@@ -15262,7 +15229,7 @@
         <v>0.68625000000000003</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B25" t="s">
         <v>54</v>
       </c>
@@ -15285,7 +15252,7 @@
         <v>0.47421999999999997</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B26" t="s">
         <v>55</v>
       </c>
@@ -15308,7 +15275,7 @@
         <v>0.2432</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B27" t="s">
         <v>56</v>
       </c>
@@ -15331,7 +15298,7 @@
         <v>0.22589000000000001</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B28" t="s">
         <v>57</v>
       </c>
@@ -15354,7 +15321,7 @@
         <v>0.48504000000000003</v>
       </c>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B29" t="s">
         <v>58</v>
       </c>
@@ -15377,7 +15344,7 @@
         <v>0.64010999999999996</v>
       </c>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B30" t="s">
         <v>59</v>
       </c>
@@ -15400,7 +15367,7 @@
         <v>0.48250999999999999</v>
       </c>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B31" t="s">
         <v>60</v>
       </c>
@@ -15423,7 +15390,7 @@
         <v>0.27161000000000002</v>
       </c>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B32" t="s">
         <v>61</v>
       </c>
@@ -15446,7 +15413,7 @@
         <v>0.23272000000000001</v>
       </c>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B33" t="s">
         <v>62</v>
       </c>
@@ -15469,7 +15436,7 @@
         <v>1.60748</v>
       </c>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B34" t="s">
         <v>63</v>
       </c>
@@ -15492,7 +15459,7 @@
         <v>1.7771699999999999</v>
       </c>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B35" t="s">
         <v>64</v>
       </c>
@@ -15515,7 +15482,7 @@
         <v>1.7190799999999999</v>
       </c>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B36" t="s">
         <v>65</v>
       </c>
@@ -15538,7 +15505,7 @@
         <v>1.52077</v>
       </c>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B37" t="s">
         <v>66</v>
       </c>
@@ -15561,7 +15528,7 @@
         <v>1.4550700000000001</v>
       </c>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B38" t="s">
         <v>67</v>
       </c>
@@ -15584,7 +15551,7 @@
         <v>1.5007699999999999</v>
       </c>
     </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B39" t="s">
         <v>68</v>
       </c>
@@ -15607,7 +15574,7 @@
         <v>1.6842900000000001</v>
       </c>
     </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B40" t="s">
         <v>69</v>
       </c>
@@ -15630,7 +15597,7 @@
         <v>1.63463</v>
       </c>
     </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B41" t="s">
         <v>70</v>
       </c>
@@ -15653,7 +15620,7 @@
         <v>1.4461299999999999</v>
       </c>
     </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B42" t="s">
         <v>71</v>
       </c>
@@ -15691,14 +15658,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.3984375" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B2" t="s">
         <v>1</v>
       </c>
@@ -15718,7 +15685,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B3" t="s">
         <v>31</v>
       </c>
@@ -15738,7 +15705,7 @@
         <v>1.129E-2</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
         <v>33</v>
       </c>
@@ -15758,7 +15725,7 @@
         <v>5.1599999999999997E-3</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
         <v>34</v>
       </c>
@@ -15778,7 +15745,7 @@
         <v>2.1059999999999999E-2</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B6" t="s">
         <v>35</v>
       </c>
@@ -15798,7 +15765,7 @@
         <v>8.4799999999999997E-3</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B7" t="s">
         <v>36</v>
       </c>
@@ -15818,7 +15785,7 @@
         <v>1.6650000000000002E-2</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B8" t="s">
         <v>37</v>
       </c>
@@ -15838,7 +15805,7 @@
         <v>2.6780000000000002E-2</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B9" t="s">
         <v>38</v>
       </c>
@@ -15858,7 +15825,7 @@
         <v>1.1730000000000001E-2</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B10" t="s">
         <v>39</v>
       </c>
@@ -15878,7 +15845,7 @@
         <v>5.3339999999999999E-2</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B11" t="s">
         <v>40</v>
       </c>
@@ -15898,7 +15865,7 @@
         <v>2.1299999999999999E-2</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B12" t="s">
         <v>41</v>
       </c>
@@ -15918,7 +15885,7 @@
         <v>4.0070000000000001E-2</v>
       </c>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B13" t="s">
         <v>42</v>
       </c>
@@ -15938,7 +15905,7 @@
         <v>1.6109999999999999E-2</v>
       </c>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B14" t="s">
         <v>43</v>
       </c>
@@ -15958,7 +15925,7 @@
         <v>6.94E-3</v>
       </c>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B15" t="s">
         <v>44</v>
       </c>
@@ -15978,7 +15945,7 @@
         <v>2.8969999999999999E-2</v>
       </c>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B16" t="s">
         <v>45</v>
       </c>
@@ -15998,7 +15965,7 @@
         <v>1.025E-2</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B17" t="s">
         <v>46</v>
       </c>
@@ -16018,7 +15985,7 @@
         <v>2.2329999999999999E-2</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B18" t="s">
         <v>47</v>
       </c>
@@ -16038,7 +16005,7 @@
         <v>3.4729999999999997E-2</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B19" t="s">
         <v>48</v>
       </c>
@@ -16058,7 +16025,7 @@
         <v>1.436E-2</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B20" t="s">
         <v>49</v>
       </c>
@@ -16078,7 +16045,7 @@
         <v>6.4229999999999995E-2</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B21" t="s">
         <v>50</v>
       </c>
@@ -16098,7 +16065,7 @@
         <v>2.3099999999999999E-2</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B22" t="s">
         <v>51</v>
       </c>
@@ -16118,7 +16085,7 @@
         <v>4.9050000000000003E-2</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B23" t="s">
         <v>52</v>
       </c>
@@ -16138,7 +16105,7 @@
         <v>1.2449999999999999E-2</v>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B24" t="s">
         <v>53</v>
       </c>
@@ -16158,7 +16125,7 @@
         <v>5.0400000000000002E-3</v>
       </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B25" t="s">
         <v>54</v>
       </c>
@@ -16178,7 +16145,7 @@
         <v>2.2859999999999998E-2</v>
       </c>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B26" t="s">
         <v>55</v>
       </c>
@@ -16198,7 +16165,7 @@
         <v>7.8100000000000001E-3</v>
       </c>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B27" t="s">
         <v>56</v>
       </c>
@@ -16218,7 +16185,7 @@
         <v>1.6289999999999999E-2</v>
       </c>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B28" t="s">
         <v>57</v>
       </c>
@@ -16238,7 +16205,7 @@
         <v>2.811E-2</v>
       </c>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B29" t="s">
         <v>58</v>
       </c>
@@ -16258,7 +16225,7 @@
         <v>1.112E-2</v>
       </c>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B30" t="s">
         <v>59</v>
       </c>
@@ -16278,7 +16245,7 @@
         <v>5.296E-2</v>
       </c>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B31" t="s">
         <v>60</v>
       </c>
@@ -16298,7 +16265,7 @@
         <v>1.8120000000000001E-2</v>
       </c>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B32" t="s">
         <v>61</v>
       </c>
@@ -16318,7 +16285,7 @@
         <v>3.7429999999999998E-2</v>
       </c>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B33" t="s">
         <v>62</v>
       </c>
@@ -16338,7 +16305,7 @@
         <v>1.702E-2</v>
       </c>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B34" t="s">
         <v>63</v>
       </c>
@@ -16358,7 +16325,7 @@
         <v>7.4400000000000004E-3</v>
       </c>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B35" t="s">
         <v>64</v>
       </c>
@@ -16378,7 +16345,7 @@
         <v>3.2099999999999997E-2</v>
       </c>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B36" t="s">
         <v>65</v>
       </c>
@@ -16398,7 +16365,7 @@
         <v>1.3050000000000001E-2</v>
       </c>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B37" t="s">
         <v>66</v>
       </c>
@@ -16418,7 +16385,7 @@
         <v>2.461E-2</v>
       </c>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B38" t="s">
         <v>67</v>
       </c>
@@ -16438,7 +16405,7 @@
         <v>3.6549999999999999E-2</v>
       </c>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B39" t="s">
         <v>68</v>
       </c>
@@ -16458,7 +16425,7 @@
         <v>1.5429999999999999E-2</v>
       </c>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B40" t="s">
         <v>69</v>
       </c>
@@ -16478,7 +16445,7 @@
         <v>7.2840000000000002E-2</v>
       </c>
     </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B41" t="s">
         <v>70</v>
       </c>
@@ -16498,7 +16465,7 @@
         <v>2.9250000000000002E-2</v>
       </c>
     </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B42" t="s">
         <v>71</v>
       </c>
@@ -16533,14 +16500,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.3984375" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B2" t="s">
         <v>1</v>
       </c>
@@ -16560,7 +16527,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B3" t="s">
         <v>31</v>
       </c>
@@ -16580,7 +16547,7 @@
         <v>0.32551999999999998</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
         <v>33</v>
       </c>
@@ -16600,7 +16567,7 @@
         <v>0.29649999999999999</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
         <v>34</v>
       </c>
@@ -16620,7 +16587,7 @@
         <v>0.35221999999999998</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B6" t="s">
         <v>35</v>
       </c>
@@ -16640,7 +16607,7 @@
         <v>0.27958</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B7" t="s">
         <v>36</v>
       </c>
@@ -16660,7 +16627,7 @@
         <v>0.26002999999999998</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B8" t="s">
         <v>37</v>
       </c>
@@ -16680,7 +16647,7 @@
         <v>0.26874999999999999</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B9" t="s">
         <v>38</v>
       </c>
@@ -16700,7 +16667,7 @@
         <v>0.25735000000000002</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B10" t="s">
         <v>39</v>
       </c>
@@ -16720,7 +16687,7 @@
         <v>0.28193000000000001</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B11" t="s">
         <v>40</v>
       </c>
@@ -16740,7 +16707,7 @@
         <v>0.28033000000000002</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B12" t="s">
         <v>41</v>
       </c>
@@ -16760,7 +16727,7 @@
         <v>0.29352</v>
       </c>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B13" t="s">
         <v>42</v>
       </c>
@@ -16780,7 +16747,7 @@
         <v>0.25664999999999999</v>
       </c>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B14" t="s">
         <v>43</v>
       </c>
@@ -16800,7 +16767,7 @@
         <v>0.26723000000000002</v>
       </c>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B15" t="s">
         <v>44</v>
       </c>
@@ -16820,7 +16787,7 @@
         <v>0.31667000000000001</v>
       </c>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B16" t="s">
         <v>45</v>
       </c>
@@ -16840,7 +16807,7 @@
         <v>0.25568000000000002</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B17" t="s">
         <v>46</v>
       </c>
@@ -16860,7 +16827,7 @@
         <v>0.23894000000000001</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B18" t="s">
         <v>47</v>
       </c>
@@ -16880,7 +16847,7 @@
         <v>0.23577999999999999</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B19" t="s">
         <v>48</v>
       </c>
@@ -16900,7 +16867,7 @@
         <v>0.20695</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B20" t="s">
         <v>49</v>
       </c>
@@ -16920,7 +16887,7 @@
         <v>0.28109000000000001</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B21" t="s">
         <v>50</v>
       </c>
@@ -16940,7 +16907,7 @@
         <v>0.26029000000000002</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B22" t="s">
         <v>51</v>
       </c>
@@ -16960,7 +16927,7 @@
         <v>0.27063999999999999</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B23" t="s">
         <v>52</v>
       </c>
@@ -16980,7 +16947,7 @@
         <v>0.15639</v>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B24" t="s">
         <v>53</v>
       </c>
@@ -17000,7 +16967,7 @@
         <v>0.14599000000000001</v>
       </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B25" t="s">
         <v>54</v>
       </c>
@@ -17020,7 +16987,7 @@
         <v>0.21615999999999999</v>
       </c>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B26" t="s">
         <v>55</v>
       </c>
@@ -17040,7 +17007,7 @@
         <v>0.21323</v>
       </c>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B27" t="s">
         <v>56</v>
       </c>
@@ -17060,7 +17027,7 @@
         <v>0.18953999999999999</v>
       </c>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B28" t="s">
         <v>57</v>
       </c>
@@ -17080,7 +17047,7 @@
         <v>0.20230999999999999</v>
       </c>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B29" t="s">
         <v>58</v>
       </c>
@@ -17100,7 +17067,7 @@
         <v>0.20780999999999999</v>
       </c>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B30" t="s">
         <v>59</v>
       </c>
@@ -17120,7 +17087,7 @@
         <v>0.27050000000000002</v>
       </c>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B31" t="s">
         <v>60</v>
       </c>
@@ -17140,7 +17107,7 @@
         <v>0.23150000000000001</v>
       </c>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B32" t="s">
         <v>61</v>
       </c>
@@ -17160,7 +17127,7 @@
         <v>0.19950999999999999</v>
       </c>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B33" t="s">
         <v>62</v>
       </c>
@@ -17180,7 +17147,7 @@
         <v>0.38279999999999997</v>
       </c>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B34" t="s">
         <v>63</v>
       </c>
@@ -17200,7 +17167,7 @@
         <v>0.36819000000000002</v>
       </c>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B35" t="s">
         <v>64</v>
       </c>
@@ -17220,7 +17187,7 @@
         <v>0.36501</v>
       </c>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B36" t="s">
         <v>65</v>
       </c>
@@ -17240,7 +17207,7 @@
         <v>0.36048999999999998</v>
       </c>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B37" t="s">
         <v>66</v>
       </c>
@@ -17260,7 +17227,7 @@
         <v>0.39956999999999998</v>
       </c>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B38" t="s">
         <v>67</v>
       </c>
@@ -17280,7 +17247,7 @@
         <v>0.42041000000000001</v>
       </c>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B39" t="s">
         <v>68</v>
       </c>
@@ -17300,7 +17267,7 @@
         <v>0.42507</v>
       </c>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B40" t="s">
         <v>69</v>
       </c>
@@ -17320,7 +17287,7 @@
         <v>0.40692</v>
       </c>
     </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B41" t="s">
         <v>70</v>
       </c>
@@ -17340,7 +17307,7 @@
         <v>0.39445999999999998</v>
       </c>
     </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B42" t="s">
         <v>71</v>
       </c>
@@ -17360,7 +17327,7 @@
         <v>0.38823000000000002</v>
       </c>
     </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B43" t="s">
         <v>31</v>
       </c>
@@ -17380,7 +17347,7 @@
         <v>0.32102000000000003</v>
       </c>
     </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B44" t="s">
         <v>33</v>
       </c>
@@ -17400,7 +17367,7 @@
         <v>0.31252999999999997</v>
       </c>
     </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B45" t="s">
         <v>34</v>
       </c>
@@ -17420,7 +17387,7 @@
         <v>0.30262</v>
       </c>
     </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B46" t="s">
         <v>35</v>
       </c>
@@ -17440,7 +17407,7 @@
         <v>0.31583</v>
       </c>
     </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B47" t="s">
         <v>36</v>
       </c>
@@ -17460,7 +17427,7 @@
         <v>0.30546000000000001</v>
       </c>
     </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B48" t="s">
         <v>37</v>
       </c>
@@ -17480,7 +17447,7 @@
         <v>0.29726000000000002</v>
       </c>
     </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B49" t="s">
         <v>38</v>
       </c>
@@ -17500,7 +17467,7 @@
         <v>0.28188999999999997</v>
       </c>
     </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B50" t="s">
         <v>39</v>
       </c>
@@ -17520,7 +17487,7 @@
         <v>0.29208000000000001</v>
       </c>
     </row>
-    <row r="51" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B51" t="s">
         <v>40</v>
       </c>
@@ -17540,7 +17507,7 @@
         <v>0.29919000000000001</v>
       </c>
     </row>
-    <row r="52" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B52" t="s">
         <v>41</v>
       </c>
@@ -17560,7 +17527,7 @@
         <v>0.32063999999999998</v>
       </c>
     </row>
-    <row r="53" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B53" t="s">
         <v>42</v>
       </c>
@@ -17580,7 +17547,7 @@
         <v>0.26401999999999998</v>
       </c>
     </row>
-    <row r="54" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B54" t="s">
         <v>43</v>
       </c>
@@ -17600,7 +17567,7 @@
         <v>0.29360999999999998</v>
       </c>
     </row>
-    <row r="55" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B55" t="s">
         <v>44</v>
       </c>
@@ -17620,7 +17587,7 @@
         <v>0.30764000000000002</v>
       </c>
     </row>
-    <row r="56" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B56" t="s">
         <v>45</v>
       </c>
@@ -17640,7 +17607,7 @@
         <v>0.30353999999999998</v>
       </c>
     </row>
-    <row r="57" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B57" t="s">
         <v>46</v>
       </c>
@@ -17660,7 +17627,7 @@
         <v>0.29160000000000003</v>
       </c>
     </row>
-    <row r="58" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B58" t="s">
         <v>47</v>
       </c>
@@ -17680,7 +17647,7 @@
         <v>0.24475</v>
       </c>
     </row>
-    <row r="59" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B59" t="s">
         <v>48</v>
       </c>
@@ -17700,7 +17667,7 @@
         <v>0.22409000000000001</v>
       </c>
     </row>
-    <row r="60" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B60" t="s">
         <v>49</v>
       </c>
@@ -17720,7 +17687,7 @@
         <v>0.23730999999999999</v>
       </c>
     </row>
-    <row r="61" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B61" t="s">
         <v>50</v>
       </c>
@@ -17740,7 +17707,7 @@
         <v>0.24793999999999999</v>
       </c>
     </row>
-    <row r="62" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B62" t="s">
         <v>51</v>
       </c>
@@ -17760,7 +17727,7 @@
         <v>0.25073000000000001</v>
       </c>
     </row>
-    <row r="63" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B63" t="s">
         <v>52</v>
       </c>
@@ -17780,7 +17747,7 @@
         <v>0.16100999999999999</v>
       </c>
     </row>
-    <row r="64" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B64" t="s">
         <v>53</v>
       </c>
@@ -17800,7 +17767,7 @@
         <v>0.14237</v>
       </c>
     </row>
-    <row r="65" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B65" t="s">
         <v>54</v>
       </c>
@@ -17820,7 +17787,7 @@
         <v>0.18665999999999999</v>
       </c>
     </row>
-    <row r="66" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B66" t="s">
         <v>55</v>
       </c>
@@ -17840,7 +17807,7 @@
         <v>0.18753</v>
       </c>
     </row>
-    <row r="67" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B67" t="s">
         <v>56</v>
       </c>
@@ -17860,7 +17827,7 @@
         <v>0.18817</v>
       </c>
     </row>
-    <row r="68" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B68" t="s">
         <v>57</v>
       </c>
@@ -17880,7 +17847,7 @@
         <v>0.1772</v>
       </c>
     </row>
-    <row r="69" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B69" t="s">
         <v>58</v>
       </c>
@@ -17900,7 +17867,7 @@
         <v>0.16735</v>
       </c>
     </row>
-    <row r="70" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B70" t="s">
         <v>59</v>
       </c>
@@ -17920,7 +17887,7 @@
         <v>0.21167</v>
       </c>
     </row>
-    <row r="71" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B71" t="s">
         <v>60</v>
       </c>
@@ -17940,7 +17907,7 @@
         <v>0.22251000000000001</v>
       </c>
     </row>
-    <row r="72" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B72" t="s">
         <v>61</v>
       </c>
@@ -17960,7 +17927,7 @@
         <v>0.21956000000000001</v>
       </c>
     </row>
-    <row r="73" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B73" t="s">
         <v>62</v>
       </c>
@@ -17980,7 +17947,7 @@
         <v>0.41025</v>
       </c>
     </row>
-    <row r="74" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B74" t="s">
         <v>63</v>
       </c>
@@ -18000,7 +17967,7 @@
         <v>0.41252</v>
       </c>
     </row>
-    <row r="75" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B75" t="s">
         <v>64</v>
       </c>
@@ -18020,7 +17987,7 @@
         <v>0.38380999999999998</v>
       </c>
     </row>
-    <row r="76" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B76" t="s">
         <v>65</v>
       </c>
@@ -18040,7 +18007,7 @@
         <v>0.36051</v>
       </c>
     </row>
-    <row r="77" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B77" t="s">
         <v>66</v>
       </c>
@@ -18060,7 +18027,7 @@
         <v>0.39241999999999999</v>
       </c>
     </row>
-    <row r="78" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B78" t="s">
         <v>67</v>
       </c>
@@ -18080,7 +18047,7 @@
         <v>0.42096</v>
       </c>
     </row>
-    <row r="79" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B79" t="s">
         <v>68</v>
       </c>
@@ -18100,7 +18067,7 @@
         <v>0.42959000000000003</v>
       </c>
     </row>
-    <row r="80" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B80" t="s">
         <v>69</v>
       </c>
@@ -18120,7 +18087,7 @@
         <v>0.41343000000000002</v>
       </c>
     </row>
-    <row r="81" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B81" t="s">
         <v>70</v>
       </c>
@@ -18140,7 +18107,7 @@
         <v>0.40994000000000003</v>
       </c>
     </row>
-    <row r="82" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B82" t="s">
         <v>71</v>
       </c>
@@ -18160,7 +18127,7 @@
         <v>0.39660000000000001</v>
       </c>
     </row>
-    <row r="83" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B83" t="s">
         <v>31</v>
       </c>
@@ -18180,7 +18147,7 @@
         <v>5.9999999999999995E-4</v>
       </c>
     </row>
-    <row r="84" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B84" t="s">
         <v>33</v>
       </c>
@@ -18200,7 +18167,7 @@
         <v>5.6349999999999997E-2</v>
       </c>
     </row>
-    <row r="85" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B85" t="s">
         <v>34</v>
       </c>
@@ -18220,7 +18187,7 @@
         <v>0.23627999999999999</v>
       </c>
     </row>
-    <row r="86" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B86" t="s">
         <v>35</v>
       </c>
@@ -18240,7 +18207,7 @@
         <v>1.7829999999999999E-2</v>
       </c>
     </row>
-    <row r="87" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B87" t="s">
         <v>36</v>
       </c>
@@ -18260,7 +18227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B88" t="s">
         <v>37</v>
       </c>
@@ -18280,7 +18247,7 @@
         <v>2.9999999999999997E-4</v>
       </c>
     </row>
-    <row r="89" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B89" t="s">
         <v>38</v>
       </c>
@@ -18300,7 +18267,7 @@
         <v>4.7419999999999997E-2</v>
       </c>
     </row>
-    <row r="90" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B90" t="s">
         <v>39</v>
       </c>
@@ -18320,7 +18287,7 @@
         <v>0.22863</v>
       </c>
     </row>
-    <row r="91" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B91" t="s">
         <v>40</v>
       </c>
@@ -18340,7 +18307,7 @@
         <v>1.503E-2</v>
       </c>
     </row>
-    <row r="92" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B92" t="s">
         <v>41</v>
       </c>
@@ -18360,7 +18327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B93" t="s">
         <v>42</v>
       </c>
@@ -18380,7 +18347,7 @@
         <v>5.28E-3</v>
       </c>
     </row>
-    <row r="94" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B94" t="s">
         <v>43</v>
       </c>
@@ -18400,7 +18367,7 @@
         <v>0.15382999999999999</v>
       </c>
     </row>
-    <row r="95" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B95" t="s">
         <v>44</v>
       </c>
@@ -18420,7 +18387,7 @@
         <v>0.3609</v>
       </c>
     </row>
-    <row r="96" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B96" t="s">
         <v>45</v>
       </c>
@@ -18440,7 +18407,7 @@
         <v>7.6520000000000005E-2</v>
       </c>
     </row>
-    <row r="97" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B97" t="s">
         <v>46</v>
       </c>
@@ -18460,7 +18427,7 @@
         <v>1.23E-3</v>
       </c>
     </row>
-    <row r="98" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B98" t="s">
         <v>47</v>
       </c>
@@ -18480,7 +18447,7 @@
         <v>6.9899999999999997E-3</v>
       </c>
     </row>
-    <row r="99" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B99" t="s">
         <v>48</v>
       </c>
@@ -18500,7 +18467,7 @@
         <v>0.15962999999999999</v>
       </c>
     </row>
-    <row r="100" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B100" t="s">
         <v>49</v>
       </c>
@@ -18520,7 +18487,7 @@
         <v>0.3644</v>
       </c>
     </row>
-    <row r="101" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B101" t="s">
         <v>50</v>
       </c>
@@ -18540,7 +18507,7 @@
         <v>7.893E-2</v>
       </c>
     </row>
-    <row r="102" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B102" t="s">
         <v>51</v>
       </c>
@@ -18560,7 +18527,7 @@
         <v>1.57E-3</v>
       </c>
     </row>
-    <row r="103" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B103" t="s">
         <v>52</v>
       </c>
@@ -18580,7 +18547,7 @@
         <v>1.529E-2</v>
       </c>
     </row>
-    <row r="104" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B104" t="s">
         <v>53</v>
       </c>
@@ -18600,7 +18567,7 @@
         <v>0.23</v>
       </c>
     </row>
-    <row r="105" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B105" t="s">
         <v>54</v>
       </c>
@@ -18620,7 +18587,7 @@
         <v>0.42102000000000001</v>
       </c>
     </row>
-    <row r="106" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B106" t="s">
         <v>55</v>
       </c>
@@ -18640,7 +18607,7 @@
         <v>0.12891</v>
       </c>
     </row>
-    <row r="107" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B107" t="s">
         <v>56</v>
       </c>
@@ -18660,7 +18627,7 @@
         <v>5.1900000000000002E-3</v>
       </c>
     </row>
-    <row r="108" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B108" t="s">
         <v>57</v>
       </c>
@@ -18680,7 +18647,7 @@
         <v>1.436E-2</v>
       </c>
     </row>
-    <row r="109" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B109" t="s">
         <v>58</v>
       </c>
@@ -18700,7 +18667,7 @@
         <v>0.22231999999999999</v>
       </c>
     </row>
-    <row r="110" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B110" t="s">
         <v>59</v>
       </c>
@@ -18720,7 +18687,7 @@
         <v>0.40501999999999999</v>
       </c>
     </row>
-    <row r="111" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B111" t="s">
         <v>60</v>
       </c>
@@ -18740,7 +18707,7 @@
         <v>0.11814</v>
       </c>
     </row>
-    <row r="112" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B112" t="s">
         <v>61</v>
       </c>
@@ -18760,7 +18727,7 @@
         <v>4.7299999999999998E-3</v>
       </c>
     </row>
-    <row r="113" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B113" t="s">
         <v>62</v>
       </c>
@@ -18780,7 +18747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B114" t="s">
         <v>63</v>
       </c>
@@ -18800,7 +18767,7 @@
         <v>6.0299999999999998E-3</v>
       </c>
     </row>
-    <row r="115" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B115" t="s">
         <v>64</v>
       </c>
@@ -18820,7 +18787,7 @@
         <v>0.11210000000000001</v>
       </c>
     </row>
-    <row r="116" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B116" t="s">
         <v>65</v>
       </c>
@@ -18840,7 +18807,7 @@
         <v>2.2000000000000001E-4</v>
       </c>
     </row>
-    <row r="117" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B117" t="s">
         <v>66</v>
       </c>
@@ -18860,7 +18827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B118" t="s">
         <v>67</v>
       </c>
@@ -18880,7 +18847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B119" t="s">
         <v>68</v>
       </c>
@@ -18900,7 +18867,7 @@
         <v>6.0499999999999998E-3</v>
       </c>
     </row>
-    <row r="120" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B120" t="s">
         <v>69</v>
       </c>
@@ -18920,7 +18887,7 @@
         <v>9.4469999999999998E-2</v>
       </c>
     </row>
-    <row r="121" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B121" t="s">
         <v>70</v>
       </c>
@@ -18940,7 +18907,7 @@
         <v>3.8999999999999999E-4</v>
       </c>
     </row>
-    <row r="122" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B122" t="s">
         <v>71</v>
       </c>
@@ -18960,7 +18927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B123" t="s">
         <v>31</v>
       </c>
@@ -18980,7 +18947,7 @@
         <v>0.41793000000000002</v>
       </c>
     </row>
-    <row r="124" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B124" t="s">
         <v>33</v>
       </c>
@@ -19000,7 +18967,7 @@
         <v>0.3962</v>
       </c>
     </row>
-    <row r="125" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B125" t="s">
         <v>34</v>
       </c>
@@ -19020,7 +18987,7 @@
         <v>0.39962999999999999</v>
       </c>
     </row>
-    <row r="126" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B126" t="s">
         <v>35</v>
       </c>
@@ -19040,7 +19007,7 @@
         <v>0.41471999999999998</v>
       </c>
     </row>
-    <row r="127" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B127" t="s">
         <v>36</v>
       </c>
@@ -19060,7 +19027,7 @@
         <v>0.43691000000000002</v>
       </c>
     </row>
-    <row r="128" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B128" t="s">
         <v>37</v>
       </c>
@@ -19080,7 +19047,7 @@
         <v>0.48105999999999999</v>
       </c>
     </row>
-    <row r="129" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B129" t="s">
         <v>38</v>
       </c>
@@ -19100,7 +19067,7 @@
         <v>0.48581000000000002</v>
       </c>
     </row>
-    <row r="130" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B130" t="s">
         <v>39</v>
       </c>
@@ -19120,7 +19087,7 @@
         <v>0.47155999999999998</v>
       </c>
     </row>
-    <row r="131" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B131" t="s">
         <v>40</v>
       </c>
@@ -19140,7 +19107,7 @@
         <v>0.48566999999999999</v>
       </c>
     </row>
-    <row r="132" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B132" t="s">
         <v>41</v>
       </c>
@@ -19160,7 +19127,7 @@
         <v>0.47587000000000002</v>
       </c>
     </row>
-    <row r="133" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B133" t="s">
         <v>42</v>
       </c>
@@ -19180,7 +19147,7 @@
         <v>0.42899999999999999</v>
       </c>
     </row>
-    <row r="134" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B134" t="s">
         <v>43</v>
       </c>
@@ -19200,7 +19167,7 @@
         <v>0.41528999999999999</v>
       </c>
     </row>
-    <row r="135" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B135" t="s">
         <v>44</v>
       </c>
@@ -19220,7 +19187,7 @@
         <v>0.40062999999999999</v>
       </c>
     </row>
-    <row r="136" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B136" t="s">
         <v>45</v>
       </c>
@@ -19240,7 +19207,7 @@
         <v>0.38972000000000001</v>
       </c>
     </row>
-    <row r="137" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B137" t="s">
         <v>46</v>
       </c>
@@ -19260,7 +19227,7 @@
         <v>0.38183</v>
       </c>
     </row>
-    <row r="138" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B138" t="s">
         <v>47</v>
       </c>
@@ -19280,7 +19247,7 @@
         <v>0.44295000000000001</v>
       </c>
     </row>
-    <row r="139" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B139" t="s">
         <v>48</v>
       </c>
@@ -19300,7 +19267,7 @@
         <v>0.45665</v>
       </c>
     </row>
-    <row r="140" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B140" t="s">
         <v>49</v>
       </c>
@@ -19320,7 +19287,7 @@
         <v>0.47403000000000001</v>
       </c>
     </row>
-    <row r="141" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B141" t="s">
         <v>50</v>
       </c>
@@ -19340,7 +19307,7 @@
         <v>0.47215000000000001</v>
       </c>
     </row>
-    <row r="142" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B142" t="s">
         <v>51</v>
       </c>
@@ -19360,7 +19327,7 @@
         <v>0.45791999999999999</v>
       </c>
     </row>
-    <row r="143" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B143" t="s">
         <v>52</v>
       </c>
@@ -19380,7 +19347,7 @@
         <v>0.12482</v>
       </c>
     </row>
-    <row r="144" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B144" t="s">
         <v>53</v>
       </c>
@@ -19400,7 +19367,7 @@
         <v>0.12174</v>
       </c>
     </row>
-    <row r="145" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B145" t="s">
         <v>54</v>
       </c>
@@ -19420,7 +19387,7 @@
         <v>0.12595000000000001</v>
       </c>
     </row>
-    <row r="146" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B146" t="s">
         <v>55</v>
       </c>
@@ -19440,7 +19407,7 @@
         <v>0.12336</v>
       </c>
     </row>
-    <row r="147" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B147" t="s">
         <v>56</v>
       </c>
@@ -19460,7 +19427,7 @@
         <v>0.13813</v>
       </c>
     </row>
-    <row r="148" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B148" t="s">
         <v>57</v>
       </c>
@@ -19480,7 +19447,7 @@
         <v>0.16492999999999999</v>
       </c>
     </row>
-    <row r="149" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B149" t="s">
         <v>58</v>
       </c>
@@ -19500,7 +19467,7 @@
         <v>0.17297000000000001</v>
       </c>
     </row>
-    <row r="150" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B150" t="s">
         <v>59</v>
       </c>
@@ -19520,7 +19487,7 @@
         <v>0.16464000000000001</v>
       </c>
     </row>
-    <row r="151" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B151" t="s">
         <v>60</v>
       </c>
@@ -19540,7 +19507,7 @@
         <v>0.16377</v>
       </c>
     </row>
-    <row r="152" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B152" t="s">
         <v>61</v>
       </c>
@@ -19560,7 +19527,7 @@
         <v>0.16047</v>
       </c>
     </row>
-    <row r="153" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B153" t="s">
         <v>62</v>
       </c>
@@ -19580,7 +19547,7 @@
         <v>0.65466999999999997</v>
       </c>
     </row>
-    <row r="154" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B154" t="s">
         <v>63</v>
       </c>
@@ -19600,7 +19567,7 @@
         <v>0.64185999999999999</v>
       </c>
     </row>
-    <row r="155" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B155" t="s">
         <v>64</v>
       </c>
@@ -19620,7 +19587,7 @@
         <v>0.69233999999999996</v>
       </c>
     </row>
-    <row r="156" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B156" t="s">
         <v>65</v>
       </c>
@@ -19640,7 +19607,7 @@
         <v>0.70830000000000004</v>
       </c>
     </row>
-    <row r="157" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B157" t="s">
         <v>66</v>
       </c>
@@ -19660,7 +19627,7 @@
         <v>0.68359999999999999</v>
       </c>
     </row>
-    <row r="158" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B158" t="s">
         <v>67</v>
       </c>
@@ -19680,7 +19647,7 @@
         <v>0.70443</v>
       </c>
     </row>
-    <row r="159" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B159" t="s">
         <v>68</v>
       </c>
@@ -19700,7 +19667,7 @@
         <v>0.72245000000000004</v>
       </c>
     </row>
-    <row r="160" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B160" t="s">
         <v>69</v>
       </c>
@@ -19720,7 +19687,7 @@
         <v>0.72123999999999999</v>
       </c>
     </row>
-    <row r="161" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B161" t="s">
         <v>70</v>
       </c>
@@ -19740,7 +19707,7 @@
         <v>0.74111000000000005</v>
       </c>
     </row>
-    <row r="162" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B162" t="s">
         <v>71</v>
       </c>
@@ -19760,7 +19727,7 @@
         <v>0.71840000000000004</v>
       </c>
     </row>
-    <row r="163" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B163" t="s">
         <v>31</v>
       </c>
@@ -19780,7 +19747,7 @@
         <v>0.44947999999999999</v>
       </c>
     </row>
-    <row r="164" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B164" t="s">
         <v>33</v>
       </c>
@@ -19800,7 +19767,7 @@
         <v>0.52261999999999997</v>
       </c>
     </row>
-    <row r="165" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B165" t="s">
         <v>34</v>
       </c>
@@ -19820,7 +19787,7 @@
         <v>0.43339</v>
       </c>
     </row>
-    <row r="166" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B166" t="s">
         <v>35</v>
       </c>
@@ -19840,7 +19807,7 @@
         <v>0.38442999999999999</v>
       </c>
     </row>
-    <row r="167" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B167" t="s">
         <v>36</v>
       </c>
@@ -19860,7 +19827,7 @@
         <v>0.44697999999999999</v>
       </c>
     </row>
-    <row r="168" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B168" t="s">
         <v>37</v>
       </c>
@@ -19880,7 +19847,7 @@
         <v>0.44406000000000001</v>
       </c>
     </row>
-    <row r="169" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B169" t="s">
         <v>38</v>
       </c>
@@ -19900,7 +19867,7 @@
         <v>0.41560000000000002</v>
       </c>
     </row>
-    <row r="170" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B170" t="s">
         <v>39</v>
       </c>
@@ -19920,7 +19887,7 @@
         <v>0.44638</v>
       </c>
     </row>
-    <row r="171" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B171" t="s">
         <v>40</v>
       </c>
@@ -19940,7 +19907,7 @@
         <v>0.46544000000000002</v>
       </c>
     </row>
-    <row r="172" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B172" t="s">
         <v>41</v>
       </c>
@@ -19960,7 +19927,7 @@
         <v>0.44255</v>
       </c>
     </row>
-    <row r="173" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B173" t="s">
         <v>42</v>
       </c>
@@ -19980,7 +19947,7 @@
         <v>0.45501999999999998</v>
       </c>
     </row>
-    <row r="174" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B174" t="s">
         <v>43</v>
       </c>
@@ -20000,7 +19967,7 @@
         <v>0.49564000000000002</v>
       </c>
     </row>
-    <row r="175" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B175" t="s">
         <v>44</v>
       </c>
@@ -20020,7 +19987,7 @@
         <v>0.43779000000000001</v>
       </c>
     </row>
-    <row r="176" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B176" t="s">
         <v>45</v>
       </c>
@@ -20040,7 +20007,7 @@
         <v>0.42676999999999998</v>
       </c>
     </row>
-    <row r="177" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B177" t="s">
         <v>46</v>
       </c>
@@ -20060,7 +20027,7 @@
         <v>0.44613999999999998</v>
       </c>
     </row>
-    <row r="178" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B178" t="s">
         <v>47</v>
       </c>
@@ -20080,7 +20047,7 @@
         <v>0.45245000000000002</v>
       </c>
     </row>
-    <row r="179" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B179" t="s">
         <v>48</v>
       </c>
@@ -20100,7 +20067,7 @@
         <v>0.42357</v>
       </c>
     </row>
-    <row r="180" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B180" t="s">
         <v>49</v>
       </c>
@@ -20120,7 +20087,7 @@
         <v>0.45987</v>
       </c>
     </row>
-    <row r="181" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B181" t="s">
         <v>50</v>
       </c>
@@ -20140,7 +20107,7 @@
         <v>0.47555999999999998</v>
       </c>
     </row>
-    <row r="182" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B182" t="s">
         <v>51</v>
       </c>
@@ -20160,7 +20127,7 @@
         <v>0.45456999999999997</v>
       </c>
     </row>
-    <row r="183" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B183" t="s">
         <v>52</v>
       </c>
@@ -20180,7 +20147,7 @@
         <v>0.43697999999999998</v>
       </c>
     </row>
-    <row r="184" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B184" t="s">
         <v>53</v>
       </c>
@@ -20200,7 +20167,7 @@
         <v>0.36806</v>
       </c>
     </row>
-    <row r="185" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B185" t="s">
         <v>54</v>
       </c>
@@ -20220,7 +20187,7 @@
         <v>0.45913999999999999</v>
       </c>
     </row>
-    <row r="186" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B186" t="s">
         <v>55</v>
       </c>
@@ -20240,7 +20207,7 @@
         <v>0.48901</v>
       </c>
     </row>
-    <row r="187" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B187" t="s">
         <v>56</v>
       </c>
@@ -20260,7 +20227,7 @@
         <v>0.44422</v>
       </c>
     </row>
-    <row r="188" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B188" t="s">
         <v>57</v>
       </c>
@@ -20280,7 +20247,7 @@
         <v>0.44871</v>
       </c>
     </row>
-    <row r="189" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B189" t="s">
         <v>58</v>
       </c>
@@ -20300,7 +20267,7 @@
         <v>0.48659999999999998</v>
       </c>
     </row>
-    <row r="190" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="190" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B190" t="s">
         <v>59</v>
       </c>
@@ -20320,7 +20287,7 @@
         <v>0.44263000000000002</v>
       </c>
     </row>
-    <row r="191" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="191" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B191" t="s">
         <v>60</v>
       </c>
@@ -20340,7 +20307,7 @@
         <v>0.41896</v>
       </c>
     </row>
-    <row r="192" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="192" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B192" t="s">
         <v>61</v>
       </c>
@@ -20360,7 +20327,7 @@
         <v>0.44796999999999998</v>
       </c>
     </row>
-    <row r="193" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="193" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B193" t="s">
         <v>62</v>
       </c>
@@ -20380,7 +20347,7 @@
         <v>0.43802999999999997</v>
       </c>
     </row>
-    <row r="194" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="194" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B194" t="s">
         <v>63</v>
       </c>
@@ -20400,7 +20367,7 @@
         <v>0.40934999999999999</v>
       </c>
     </row>
-    <row r="195" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="195" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B195" t="s">
         <v>64</v>
       </c>
@@ -20420,7 +20387,7 @@
         <v>0.44023000000000001</v>
       </c>
     </row>
-    <row r="196" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="196" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B196" t="s">
         <v>65</v>
       </c>
@@ -20440,7 +20407,7 @@
         <v>0.46895999999999999</v>
       </c>
     </row>
-    <row r="197" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="197" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B197" t="s">
         <v>66</v>
       </c>
@@ -20460,7 +20427,7 @@
         <v>0.43108999999999997</v>
       </c>
     </row>
-    <row r="198" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="198" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B198" t="s">
         <v>67</v>
       </c>
@@ -20480,7 +20447,7 @@
         <v>0.45157000000000003</v>
       </c>
     </row>
-    <row r="199" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="199" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B199" t="s">
         <v>68</v>
       </c>
@@ -20500,7 +20467,7 @@
         <v>0.47591</v>
       </c>
     </row>
-    <row r="200" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="200" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B200" t="s">
         <v>69</v>
       </c>
@@ -20520,7 +20487,7 @@
         <v>0.44740999999999997</v>
       </c>
     </row>
-    <row r="201" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="201" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B201" t="s">
         <v>70</v>
       </c>
@@ -20540,7 +20507,7 @@
         <v>0.42978</v>
       </c>
     </row>
-    <row r="202" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="202" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B202" t="s">
         <v>71</v>
       </c>
@@ -20575,14 +20542,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.3984375" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:33" x14ac:dyDescent="0.45">
       <c r="B1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:33" x14ac:dyDescent="0.45">
       <c r="B2" t="s">
         <v>1</v>
       </c>
@@ -20680,7 +20647,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:33" x14ac:dyDescent="0.45">
       <c r="B3" t="s">
         <v>31</v>
       </c>
@@ -20778,7 +20745,7 @@
         <v>1.1199999999999999E-3</v>
       </c>
     </row>
-    <row r="4" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:33" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
         <v>33</v>
       </c>
@@ -20876,7 +20843,7 @@
         <v>6.7400000000000003E-3</v>
       </c>
     </row>
-    <row r="5" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:33" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
         <v>34</v>
       </c>
@@ -20974,7 +20941,7 @@
         <v>2.376E-2</v>
       </c>
     </row>
-    <row r="6" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:33" x14ac:dyDescent="0.45">
       <c r="B6" t="s">
         <v>35</v>
       </c>
@@ -21072,7 +21039,7 @@
         <v>5.1900000000000002E-3</v>
       </c>
     </row>
-    <row r="7" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:33" x14ac:dyDescent="0.45">
       <c r="B7" t="s">
         <v>36</v>
       </c>
@@ -21170,7 +21137,7 @@
         <v>3.63E-3</v>
       </c>
     </row>
-    <row r="8" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:33" x14ac:dyDescent="0.45">
       <c r="B8" t="s">
         <v>37</v>
       </c>
@@ -21268,7 +21235,7 @@
         <v>5.9500000000000004E-3</v>
       </c>
     </row>
-    <row r="9" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:33" x14ac:dyDescent="0.45">
       <c r="B9" t="s">
         <v>38</v>
       </c>
@@ -21366,7 +21333,7 @@
         <v>3.4810000000000001E-2</v>
       </c>
     </row>
-    <row r="10" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:33" x14ac:dyDescent="0.45">
       <c r="B10" t="s">
         <v>39</v>
       </c>
@@ -21464,7 +21431,7 @@
         <v>0.12253</v>
       </c>
     </row>
-    <row r="11" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:33" x14ac:dyDescent="0.45">
       <c r="B11" t="s">
         <v>40</v>
       </c>
@@ -21562,7 +21529,7 @@
         <v>2.681E-2</v>
       </c>
     </row>
-    <row r="12" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:33" x14ac:dyDescent="0.45">
       <c r="B12" t="s">
         <v>41</v>
       </c>
@@ -21660,7 +21627,7 @@
         <v>1.881E-2</v>
       </c>
     </row>
-    <row r="13" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:33" x14ac:dyDescent="0.45">
       <c r="B13" t="s">
         <v>42</v>
       </c>
@@ -21758,7 +21725,7 @@
         <v>1.2700000000000001E-3</v>
       </c>
     </row>
-    <row r="14" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:33" x14ac:dyDescent="0.45">
       <c r="B14" t="s">
         <v>43</v>
       </c>
@@ -21856,7 +21823,7 @@
         <v>7.62E-3</v>
       </c>
     </row>
-    <row r="15" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:33" x14ac:dyDescent="0.45">
       <c r="B15" t="s">
         <v>44</v>
       </c>
@@ -21954,7 +21921,7 @@
         <v>2.683E-2</v>
       </c>
     </row>
-    <row r="16" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:33" x14ac:dyDescent="0.45">
       <c r="B16" t="s">
         <v>45</v>
       </c>
@@ -22052,7 +22019,7 @@
         <v>5.8599999999999998E-3</v>
       </c>
     </row>
-    <row r="17" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:33" x14ac:dyDescent="0.45">
       <c r="B17" t="s">
         <v>46</v>
       </c>
@@ -22150,7 +22117,7 @@
         <v>4.1000000000000003E-3</v>
       </c>
     </row>
-    <row r="18" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:33" x14ac:dyDescent="0.45">
       <c r="B18" t="s">
         <v>47</v>
       </c>
@@ -22248,7 +22215,7 @@
         <v>5.8900000000000003E-3</v>
       </c>
     </row>
-    <row r="19" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:33" x14ac:dyDescent="0.45">
       <c r="B19" t="s">
         <v>48</v>
       </c>
@@ -22346,7 +22313,7 @@
         <v>3.4509999999999999E-2</v>
       </c>
     </row>
-    <row r="20" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:33" x14ac:dyDescent="0.45">
       <c r="B20" t="s">
         <v>49</v>
       </c>
@@ -22444,7 +22411,7 @@
         <v>0.12146999999999999</v>
       </c>
     </row>
-    <row r="21" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:33" x14ac:dyDescent="0.45">
       <c r="B21" t="s">
         <v>50</v>
       </c>
@@ -22542,7 +22509,7 @@
         <v>2.6579999999999999E-2</v>
       </c>
     </row>
-    <row r="22" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:33" x14ac:dyDescent="0.45">
       <c r="B22" t="s">
         <v>51</v>
       </c>
@@ -22640,7 +22607,7 @@
         <v>1.865E-2</v>
       </c>
     </row>
-    <row r="23" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:33" x14ac:dyDescent="0.45">
       <c r="B23" t="s">
         <v>52</v>
       </c>
@@ -22738,7 +22705,7 @@
         <v>1.1900000000000001E-3</v>
       </c>
     </row>
-    <row r="24" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:33" x14ac:dyDescent="0.45">
       <c r="B24" t="s">
         <v>53</v>
       </c>
@@ -22836,7 +22803,7 @@
         <v>7.1799999999999998E-3</v>
       </c>
     </row>
-    <row r="25" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:33" x14ac:dyDescent="0.45">
       <c r="B25" t="s">
         <v>54</v>
       </c>
@@ -22934,7 +22901,7 @@
         <v>2.529E-2</v>
       </c>
     </row>
-    <row r="26" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:33" x14ac:dyDescent="0.45">
       <c r="B26" t="s">
         <v>55</v>
       </c>
@@ -23032,7 +22999,7 @@
         <v>5.5300000000000002E-3</v>
       </c>
     </row>
-    <row r="27" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:33" x14ac:dyDescent="0.45">
       <c r="B27" t="s">
         <v>56</v>
       </c>
@@ -23130,7 +23097,7 @@
         <v>3.8600000000000001E-3</v>
       </c>
     </row>
-    <row r="28" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:33" x14ac:dyDescent="0.45">
       <c r="B28" t="s">
         <v>57</v>
       </c>
@@ -23228,7 +23195,7 @@
         <v>5.9500000000000004E-3</v>
       </c>
     </row>
-    <row r="29" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:33" x14ac:dyDescent="0.45">
       <c r="B29" t="s">
         <v>58</v>
       </c>
@@ -23326,7 +23293,7 @@
         <v>3.483E-2</v>
       </c>
     </row>
-    <row r="30" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:33" x14ac:dyDescent="0.45">
       <c r="B30" t="s">
         <v>59</v>
       </c>
@@ -23424,7 +23391,7 @@
         <v>0.12259</v>
       </c>
     </row>
-    <row r="31" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:33" x14ac:dyDescent="0.45">
       <c r="B31" t="s">
         <v>60</v>
       </c>
@@ -23522,7 +23489,7 @@
         <v>2.682E-2</v>
       </c>
     </row>
-    <row r="32" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:33" x14ac:dyDescent="0.45">
       <c r="B32" t="s">
         <v>61</v>
       </c>
@@ -23620,7 +23587,7 @@
         <v>1.882E-2</v>
       </c>
     </row>
-    <row r="33" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:33" x14ac:dyDescent="0.45">
       <c r="B33" t="s">
         <v>62</v>
       </c>
@@ -23718,7 +23685,7 @@
         <v>1.33E-3</v>
       </c>
     </row>
-    <row r="34" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:33" x14ac:dyDescent="0.45">
       <c r="B34" t="s">
         <v>63</v>
       </c>
@@ -23816,7 +23783,7 @@
         <v>7.9900000000000006E-3</v>
       </c>
     </row>
-    <row r="35" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:33" x14ac:dyDescent="0.45">
       <c r="B35" t="s">
         <v>64</v>
       </c>
@@ -23914,7 +23881,7 @@
         <v>2.8139999999999998E-2</v>
       </c>
     </row>
-    <row r="36" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:33" x14ac:dyDescent="0.45">
       <c r="B36" t="s">
         <v>65</v>
       </c>
@@ -24012,7 +23979,7 @@
         <v>6.1500000000000001E-3</v>
       </c>
     </row>
-    <row r="37" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:33" x14ac:dyDescent="0.45">
       <c r="B37" t="s">
         <v>66</v>
       </c>
@@ -24110,7 +24077,7 @@
         <v>4.3E-3</v>
       </c>
     </row>
-    <row r="38" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:33" x14ac:dyDescent="0.45">
       <c r="B38" t="s">
         <v>67</v>
       </c>
@@ -24208,7 +24175,7 @@
         <v>5.6299999999999996E-3</v>
       </c>
     </row>
-    <row r="39" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:33" x14ac:dyDescent="0.45">
       <c r="B39" t="s">
         <v>68</v>
       </c>
@@ -24306,7 +24273,7 @@
         <v>3.2969999999999999E-2</v>
       </c>
     </row>
-    <row r="40" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:33" x14ac:dyDescent="0.45">
       <c r="B40" t="s">
         <v>69</v>
       </c>
@@ -24404,7 +24371,7 @@
         <v>0.11605</v>
       </c>
     </row>
-    <row r="41" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:33" x14ac:dyDescent="0.45">
       <c r="B41" t="s">
         <v>70</v>
       </c>
@@ -24502,7 +24469,7 @@
         <v>2.5389999999999999E-2</v>
       </c>
     </row>
-    <row r="42" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:33" x14ac:dyDescent="0.45">
       <c r="B42" t="s">
         <v>71</v>
       </c>
@@ -24615,14 +24582,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.3984375" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B2" t="s">
         <v>1</v>
       </c>
@@ -24642,7 +24609,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B3" t="s">
         <v>31</v>
       </c>
@@ -24662,7 +24629,7 @@
         <v>1.661E-2</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
         <v>33</v>
       </c>
@@ -24682,7 +24649,7 @@
         <v>8.0400000000000003E-3</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
         <v>34</v>
       </c>
@@ -24702,7 +24669,7 @@
         <v>3.32E-2</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B6" t="s">
         <v>35</v>
       </c>
@@ -24722,7 +24689,7 @@
         <v>6.9100000000000003E-3</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B7" t="s">
         <v>36</v>
       </c>
@@ -24742,7 +24709,7 @@
         <v>1.3169999999999999E-2</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B8" t="s">
         <v>37</v>
       </c>
@@ -24762,7 +24729,7 @@
         <v>3.737E-2</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B9" t="s">
         <v>38</v>
       </c>
@@ -24782,7 +24749,7 @@
         <v>1.6719999999999999E-2</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B10" t="s">
         <v>39</v>
       </c>
@@ -24802,7 +24769,7 @@
         <v>7.1230000000000002E-2</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B11" t="s">
         <v>40</v>
       </c>
@@ -24822,7 +24789,7 @@
         <v>1.538E-2</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B12" t="s">
         <v>41</v>
       </c>
@@ -24842,7 +24809,7 @@
         <v>3.0269999999999998E-2</v>
       </c>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B13" t="s">
         <v>42</v>
       </c>
@@ -24862,7 +24829,7 @@
         <v>1.821E-2</v>
       </c>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B14" t="s">
         <v>43</v>
       </c>
@@ -24882,7 +24849,7 @@
         <v>8.3000000000000001E-3</v>
       </c>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B15" t="s">
         <v>44</v>
       </c>
@@ -24902,7 +24869,7 @@
         <v>3.4979999999999997E-2</v>
       </c>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B16" t="s">
         <v>45</v>
       </c>
@@ -24922,7 +24889,7 @@
         <v>7.3200000000000001E-3</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B17" t="s">
         <v>46</v>
       </c>
@@ -24942,7 +24909,7 @@
         <v>1.4619999999999999E-2</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B18" t="s">
         <v>47</v>
       </c>
@@ -24962,7 +24929,7 @@
         <v>3.8190000000000002E-2</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B19" t="s">
         <v>48</v>
       </c>
@@ -24982,7 +24949,7 @@
         <v>1.6789999999999999E-2</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B20" t="s">
         <v>49</v>
       </c>
@@ -25002,7 +24969,7 @@
         <v>7.1410000000000001E-2</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B21" t="s">
         <v>50</v>
       </c>
@@ -25022,7 +24989,7 @@
         <v>1.5169999999999999E-2</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B22" t="s">
         <v>51</v>
       </c>
@@ -25042,7 +25009,7 @@
         <v>3.0599999999999999E-2</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B23" t="s">
         <v>52</v>
       </c>
@@ -25062,7 +25029,7 @@
         <v>1.737E-2</v>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B24" t="s">
         <v>53</v>
       </c>
@@ -25082,7 +25049,7 @@
         <v>8.0499999999999999E-3</v>
       </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B25" t="s">
         <v>54</v>
       </c>
@@ -25102,7 +25069,7 @@
         <v>3.2590000000000001E-2</v>
       </c>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B26" t="s">
         <v>55</v>
       </c>
@@ -25122,7 +25089,7 @@
         <v>6.45E-3</v>
       </c>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B27" t="s">
         <v>56</v>
       </c>
@@ -25142,7 +25109,7 @@
         <v>1.2869999999999999E-2</v>
       </c>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B28" t="s">
         <v>57</v>
       </c>
@@ -25162,7 +25129,7 @@
         <v>3.7909999999999999E-2</v>
       </c>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B29" t="s">
         <v>58</v>
       </c>
@@ -25182,7 +25149,7 @@
         <v>1.669E-2</v>
       </c>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B30" t="s">
         <v>59</v>
       </c>
@@ -25202,7 +25169,7 @@
         <v>6.8760000000000002E-2</v>
       </c>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B31" t="s">
         <v>60</v>
       </c>
@@ -25222,7 +25189,7 @@
         <v>1.418E-2</v>
       </c>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B32" t="s">
         <v>61</v>
       </c>
@@ -25242,7 +25209,7 @@
         <v>2.903E-2</v>
       </c>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B33" t="s">
         <v>62</v>
       </c>
@@ -25262,7 +25229,7 @@
         <v>1.7270000000000001E-2</v>
       </c>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B34" t="s">
         <v>63</v>
       </c>
@@ -25282,7 +25249,7 @@
         <v>7.9000000000000008E-3</v>
       </c>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B35" t="s">
         <v>64</v>
       </c>
@@ -25302,7 +25269,7 @@
         <v>3.4909999999999997E-2</v>
       </c>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B36" t="s">
         <v>65</v>
       </c>
@@ -25322,7 +25289,7 @@
         <v>7.62E-3</v>
       </c>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B37" t="s">
         <v>66</v>
       </c>
@@ -25342,7 +25309,7 @@
         <v>1.5049999999999999E-2</v>
       </c>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B38" t="s">
         <v>67</v>
       </c>
@@ -25362,7 +25329,7 @@
         <v>3.6299999999999999E-2</v>
       </c>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B39" t="s">
         <v>68</v>
       </c>
@@ -25382,7 +25349,7 @@
         <v>1.5630000000000002E-2</v>
       </c>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B40" t="s">
         <v>69</v>
       </c>
@@ -25402,7 +25369,7 @@
         <v>7.0250000000000007E-2</v>
       </c>
     </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B41" t="s">
         <v>70</v>
       </c>
@@ -25422,7 +25389,7 @@
         <v>1.5469999999999999E-2</v>
       </c>
     </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B42" t="s">
         <v>71</v>
       </c>

--- a/SuppXLS/Scen_B_SYS_SubAnnual_Data.xlsx
+++ b/SuppXLS/Scen_B_SYS_SubAnnual_Data.xlsx
@@ -1,30 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olex\Documents\MANRID\ResLab\Modelling\TIMES\TIMES-IE\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{698CA910-FFB2-4AC6-BE0F-8211BE0C5158}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78EEBEBB-8212-4149-8336-90BC2DB6B9D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="12" r:id="rId1"/>
-    <sheet name="TimeSlices" sheetId="1" r:id="rId2"/>
-    <sheet name="RSDSOL" sheetId="2" r:id="rId3"/>
-    <sheet name="RSD_SH" sheetId="3" r:id="rId4"/>
-    <sheet name="RSD_RTFT" sheetId="4" r:id="rId5"/>
-    <sheet name="RSD_OE_DEM" sheetId="5" r:id="rId6"/>
-    <sheet name="PWR_AF" sheetId="6" r:id="rId7"/>
-    <sheet name="TRA_DEM" sheetId="7" r:id="rId8"/>
-    <sheet name="SRV_CS_DEM" sheetId="8" r:id="rId9"/>
-    <sheet name="SRV_PU_DEM" sheetId="9" r:id="rId10"/>
-    <sheet name="DCs" sheetId="10" r:id="rId11"/>
-    <sheet name="SRVSOL" sheetId="11" r:id="rId12"/>
+    <sheet name="TS_Definition" sheetId="13" r:id="rId2"/>
+    <sheet name="TimeSlices" sheetId="1" r:id="rId3"/>
+    <sheet name="RSDSOL" sheetId="2" r:id="rId4"/>
+    <sheet name="RSD_SH" sheetId="3" r:id="rId5"/>
+    <sheet name="RSD_RTFT" sheetId="4" r:id="rId6"/>
+    <sheet name="RSD_OE_DEM" sheetId="5" r:id="rId7"/>
+    <sheet name="PWR_AF" sheetId="6" r:id="rId8"/>
+    <sheet name="TRA_DEM" sheetId="7" r:id="rId9"/>
+    <sheet name="SRV_CS_DEM" sheetId="8" r:id="rId10"/>
+    <sheet name="SRV_PU_DEM" sheetId="9" r:id="rId11"/>
+    <sheet name="DCs" sheetId="10" r:id="rId12"/>
+    <sheet name="SRVSOL" sheetId="11" r:id="rId13"/>
   </sheets>
   <definedNames>
     <definedName name="__123Graph_AEUMILKPN" hidden="1">#REF!</definedName>
@@ -92,12 +93,24 @@
     <definedName name="table6" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
     <definedName name="wrn.Electricity._.Questionnaire." hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="91">
   <si>
     <t>~TFM_INS</t>
   </si>
@@ -343,6 +356,33 @@
   </si>
   <si>
     <t>Specify time slice data according to the time slice model variant</t>
+  </si>
+  <si>
+    <t>~TimeSlices</t>
+  </si>
+  <si>
+    <t>Season</t>
+  </si>
+  <si>
+    <t>Weekly</t>
+  </si>
+  <si>
+    <t>DayNite</t>
+  </si>
+  <si>
+    <t>Month</t>
+  </si>
+  <si>
+    <t>Day</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>Hour</t>
   </si>
 </sst>
 </file>
@@ -352,7 +392,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -436,8 +476,31 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -462,13 +525,36 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -478,7 +564,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -535,6 +621,11 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -864,158 +955,217 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>609599</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextBox 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD8BDEB2-4A1A-4E46-B657-26B8126C13BC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3048000" y="571500"/>
+          <a:ext cx="3047999" cy="809625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>~TimeSlices</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> is used to define</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>the time-slices resolution for the model, by declaring the elements of each time-slice: </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>SEASON</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>, </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>WEEKLY </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>and </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>DAYNITE</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>.</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="timeslices" displayName="timeslices" ref="B2:AE3" totalsRowShown="0">
-  <autoFilter ref="B2:AE3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
-  <tableColumns count="30">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="TimeSlice"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Attribute"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="IE"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="National"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="IE-CW"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="IE-D"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="IE-KE"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="IE-KK"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="IE-LS"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="IE-LD"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="IE-LH"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="IE-MH"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="IE-OY"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="IE-WH"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="IE-WX"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="IE-WW"/>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="IE-CE"/>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="IE-CO"/>
-    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="IE-KY"/>
-    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="IE-LK"/>
-    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="IE-TA"/>
-    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="IE-WD"/>
-    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" name="IE-G"/>
-    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="IE-LM"/>
-    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0000-000019000000}" name="IE-MO"/>
-    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0000-00001A000000}" name="IE-RN"/>
-    <tableColumn id="27" xr3:uid="{00000000-0010-0000-0000-00001B000000}" name="IE-SO"/>
-    <tableColumn id="28" xr3:uid="{00000000-0010-0000-0000-00001C000000}" name="IE-CN"/>
-    <tableColumn id="29" xr3:uid="{00000000-0010-0000-0000-00001D000000}" name="IE-DL"/>
-    <tableColumn id="30" xr3:uid="{00000000-0010-0000-0000-00001E000000}" name="IE-MN"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{B92864FE-A379-487D-9F3F-B9D210D4D9B4}" name="weekly_info" displayName="weekly_info" ref="O4:P11" totalsRowShown="0">
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Day"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Type"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{00000000-000C-0000-FFFF-FFFF09000000}" name="dcs" displayName="dcs" ref="B2:I5" totalsRowShown="0">
-  <autoFilter ref="B2:I5" xr:uid="{00000000-0009-0000-0100-00000C000000}"/>
-  <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0900-000001000000}" name="TimeSlice"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0900-000002000000}" name="Attribute"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0900-000003000000}" name="Year"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0900-000004000000}" name="Other_Indexes"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0900-000005000000}" name="Cset_CN"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0900-000006000000}" name="Pset_PN"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0900-000007000000}" name="IE"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0900-000008000000}" name="National"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{00000000-000C-0000-FFFF-FFFF0A000000}" name="srvsol" displayName="srvsol" ref="B2:I3" totalsRowShown="0">
-  <autoFilter ref="B2:I3" xr:uid="{00000000-0009-0000-0100-00000D000000}"/>
-  <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0A00-000001000000}" name="TimeSlice"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0A00-000002000000}" name="Attribute"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0A00-000003000000}" name="Year"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0A00-000004000000}" name="Other_Indexes"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0A00-000005000000}" name="Pset_PN"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0A00-000006000000}" name="Pset_CI"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0A00-000007000000}" name="IE"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0A00-000008000000}" name="National"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="rsdsol" displayName="rsdsol" ref="B2:I3" totalsRowShown="0">
-  <autoFilter ref="B2:I3" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
-  <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="TimeSlice"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Attribute"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Year"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Other_Indexes"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Pset_PN"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Pset_CI"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="IE"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="National"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="rsd_sh" displayName="rsd_sh" ref="B2:G3" totalsRowShown="0">
-  <autoFilter ref="B2:G3" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
-  <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="TimeSlice"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Attribute"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Year"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Cset_CN"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="IE"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="National"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="rsd_rtft" displayName="rsd_rtft" ref="B2:H3" totalsRowShown="0">
-  <autoFilter ref="B2:H3" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
-  <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="TimeSlice"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Attribute"/>
-    <tableColumn id="7" xr3:uid="{DA5FA9F4-D4B7-44E0-A803-2D2586DBF9CB}" name="LimType"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Year"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="Pset_PN"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="IE"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="National"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="rsd_oe_dem" displayName="rsd_oe_dem" ref="B2:G3" totalsRowShown="0">
-  <autoFilter ref="B2:G3" xr:uid="{00000000-0009-0000-0100-000007000000}"/>
-  <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="TimeSlice"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="Attribute"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="Year"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="Cset_CN"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="IE"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0400-000006000000}" name="National"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="pwr_af" displayName="pwr_af" ref="B2:G7" totalsRowShown="0">
-  <autoFilter ref="B2:G7" xr:uid="{00000000-0009-0000-0100-000008000000}"/>
-  <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="TimeSlice"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="Attribute"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0500-000003000000}" name="Year"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0500-000004000000}" name="Pset_PN"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0500-000005000000}" name="IE"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0500-000006000000}" name="National"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{00000000-000C-0000-FFFF-FFFF06000000}" name="tra_dem" displayName="tra_dem" ref="B2:AG3" totalsRowShown="0">
   <autoFilter ref="B2:AG3" xr:uid="{00000000-0009-0000-0100-000009000000}"/>
   <tableColumns count="32">
@@ -1056,7 +1206,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{00000000-000C-0000-FFFF-FFFF07000000}" name="srv_cs_dem" displayName="srv_cs_dem" ref="B2:G3" totalsRowShown="0">
   <autoFilter ref="B2:G3" xr:uid="{00000000-0009-0000-0100-00000A000000}"/>
   <tableColumns count="6">
@@ -1071,7 +1221,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{00000000-000C-0000-FFFF-FFFF08000000}" name="srv_pu_dem" displayName="srv_pu_dem" ref="B2:G3" totalsRowShown="0">
   <autoFilter ref="B2:G3" xr:uid="{00000000-0009-0000-0100-00000B000000}"/>
   <tableColumns count="6">
@@ -1081,6 +1231,177 @@
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0800-000004000000}" name="Cset_CN"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0800-000005000000}" name="IE"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0800-000006000000}" name="National"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{00000000-000C-0000-FFFF-FFFF09000000}" name="dcs" displayName="dcs" ref="B2:I5" totalsRowShown="0">
+  <autoFilter ref="B2:I5" xr:uid="{00000000-0009-0000-0100-00000C000000}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0900-000001000000}" name="TimeSlice"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0900-000002000000}" name="Attribute"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0900-000003000000}" name="Year"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0900-000004000000}" name="Other_Indexes"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0900-000005000000}" name="Cset_CN"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0900-000006000000}" name="Pset_PN"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0900-000007000000}" name="IE"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0900-000008000000}" name="National"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{00000000-000C-0000-FFFF-FFFF0A000000}" name="srvsol" displayName="srvsol" ref="B2:I3" totalsRowShown="0">
+  <autoFilter ref="B2:I3" xr:uid="{00000000-0009-0000-0100-00000D000000}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0A00-000001000000}" name="TimeSlice"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0A00-000002000000}" name="Attribute"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0A00-000003000000}" name="Year"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0A00-000004000000}" name="Other_Indexes"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0A00-000005000000}" name="Pset_PN"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0A00-000006000000}" name="Pset_CI"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0A00-000007000000}" name="IE"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0A00-000008000000}" name="National"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{8BAB9A19-16B1-439F-8D3B-1C87DDADB8BB}" name="season_info" displayName="season_info" ref="L4:M16" totalsRowShown="0">
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Month"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Season"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{635E1DC4-6E84-4D32-AA40-E00034D55B90}" name="daynite_info" displayName="daynite_info" ref="R4:S28" totalsRowShown="0">
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Hour"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Type"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="timeslices" displayName="timeslices" ref="B2:AE3" totalsRowShown="0">
+  <autoFilter ref="B2:AE3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+  <tableColumns count="30">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="TimeSlice"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Attribute"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="IE"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="National"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="IE-CW"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="IE-D"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="IE-KE"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="IE-KK"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="IE-LS"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="IE-LD"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="IE-LH"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="IE-MH"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="IE-OY"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="IE-WH"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="IE-WX"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="IE-WW"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="IE-CE"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="IE-CO"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="IE-KY"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="IE-LK"/>
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="IE-TA"/>
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="IE-WD"/>
+    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" name="IE-G"/>
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="IE-LM"/>
+    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0000-000019000000}" name="IE-MO"/>
+    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0000-00001A000000}" name="IE-RN"/>
+    <tableColumn id="27" xr3:uid="{00000000-0010-0000-0000-00001B000000}" name="IE-SO"/>
+    <tableColumn id="28" xr3:uid="{00000000-0010-0000-0000-00001C000000}" name="IE-CN"/>
+    <tableColumn id="29" xr3:uid="{00000000-0010-0000-0000-00001D000000}" name="IE-DL"/>
+    <tableColumn id="30" xr3:uid="{00000000-0010-0000-0000-00001E000000}" name="IE-MN"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="rsdsol" displayName="rsdsol" ref="B2:I3" totalsRowShown="0">
+  <autoFilter ref="B2:I3" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="TimeSlice"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Attribute"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Year"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Other_Indexes"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Pset_PN"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Pset_CI"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="IE"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="National"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="rsd_sh" displayName="rsd_sh" ref="B2:G3" totalsRowShown="0">
+  <autoFilter ref="B2:G3" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="TimeSlice"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Attribute"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Year"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Cset_CN"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="IE"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="National"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="rsd_rtft" displayName="rsd_rtft" ref="B2:H3" totalsRowShown="0">
+  <autoFilter ref="B2:H3" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="TimeSlice"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Attribute"/>
+    <tableColumn id="7" xr3:uid="{DA5FA9F4-D4B7-44E0-A803-2D2586DBF9CB}" name="LimType"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Year"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="Pset_PN"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="IE"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="National"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="rsd_oe_dem" displayName="rsd_oe_dem" ref="B2:G3" totalsRowShown="0">
+  <autoFilter ref="B2:G3" xr:uid="{00000000-0009-0000-0100-000007000000}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="TimeSlice"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="Attribute"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="Year"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="Cset_CN"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="IE"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0400-000006000000}" name="National"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="pwr_af" displayName="pwr_af" ref="B2:G7" totalsRowShown="0">
+  <autoFilter ref="B2:G7" xr:uid="{00000000-0009-0000-0100-000008000000}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="TimeSlice"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="Attribute"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0500-000003000000}" name="Year"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0500-000004000000}" name="Pset_PN"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0500-000005000000}" name="IE"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0500-000006000000}" name="National"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1368,7 +1689,7 @@
   <sheetPr codeName="Sheet12"/>
   <dimension ref="A1:Z99"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B24" sqref="B24:D24"/>
     </sheetView>
   </sheetViews>
@@ -4216,6 +4537,69 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <sheetPr codeName="Sheet8"/>
+  <dimension ref="B1:G3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3">
+        <v>2018</v>
+      </c>
+      <c r="E3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr codeName="Sheet9"/>
   <dimension ref="B1:G3"/>
@@ -4278,7 +4662,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <sheetPr codeName="Sheet10"/>
   <dimension ref="B1:I5"/>
@@ -4393,7 +4777,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <sheetPr codeName="Sheet11"/>
   <dimension ref="B1:I3"/>
@@ -4471,6 +4855,394 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E87912A-05C7-48D9-8B04-811783F0B11F}">
+  <dimension ref="B3:S28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="3" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B3" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+    </row>
+    <row r="4" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="D4" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="L4" t="s">
+        <v>86</v>
+      </c>
+      <c r="M4" t="s">
+        <v>83</v>
+      </c>
+      <c r="O4" t="s">
+        <v>87</v>
+      </c>
+      <c r="P4" t="s">
+        <v>88</v>
+      </c>
+      <c r="R4" t="s">
+        <v>90</v>
+      </c>
+      <c r="S4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="5" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B5" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="D5" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5" t="s">
+        <v>89</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5" t="s">
+        <v>89</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="6" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B6" s="23"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6" t="s">
+        <v>89</v>
+      </c>
+      <c r="O6">
+        <v>1</v>
+      </c>
+      <c r="P6" t="s">
+        <v>89</v>
+      </c>
+      <c r="R6">
+        <v>1</v>
+      </c>
+      <c r="S6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="7" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B7" s="23"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="L7">
+        <v>2</v>
+      </c>
+      <c r="M7" t="s">
+        <v>89</v>
+      </c>
+      <c r="O7">
+        <v>2</v>
+      </c>
+      <c r="P7" t="s">
+        <v>89</v>
+      </c>
+      <c r="R7">
+        <v>2</v>
+      </c>
+      <c r="S7" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="8" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B8" s="23"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="L8">
+        <v>3</v>
+      </c>
+      <c r="M8" t="s">
+        <v>89</v>
+      </c>
+      <c r="O8">
+        <v>3</v>
+      </c>
+      <c r="P8" t="s">
+        <v>89</v>
+      </c>
+      <c r="R8">
+        <v>3</v>
+      </c>
+      <c r="S8" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="9" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="L9">
+        <v>4</v>
+      </c>
+      <c r="M9" t="s">
+        <v>89</v>
+      </c>
+      <c r="O9">
+        <v>4</v>
+      </c>
+      <c r="P9" t="s">
+        <v>89</v>
+      </c>
+      <c r="R9">
+        <v>4</v>
+      </c>
+      <c r="S9" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="10" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="L10">
+        <v>5</v>
+      </c>
+      <c r="M10" t="s">
+        <v>89</v>
+      </c>
+      <c r="O10">
+        <v>5</v>
+      </c>
+      <c r="P10" t="s">
+        <v>89</v>
+      </c>
+      <c r="R10">
+        <v>5</v>
+      </c>
+      <c r="S10" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="11" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B11" s="24"/>
+      <c r="L11">
+        <v>6</v>
+      </c>
+      <c r="M11" t="s">
+        <v>89</v>
+      </c>
+      <c r="O11">
+        <v>6</v>
+      </c>
+      <c r="P11" t="s">
+        <v>89</v>
+      </c>
+      <c r="R11">
+        <v>6</v>
+      </c>
+      <c r="S11" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="12" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B12" s="24"/>
+      <c r="L12">
+        <v>7</v>
+      </c>
+      <c r="M12" t="s">
+        <v>89</v>
+      </c>
+      <c r="R12">
+        <v>7</v>
+      </c>
+      <c r="S12" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="13" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B13" s="24"/>
+      <c r="L13">
+        <v>8</v>
+      </c>
+      <c r="M13" t="s">
+        <v>89</v>
+      </c>
+      <c r="R13">
+        <v>8</v>
+      </c>
+      <c r="S13" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="14" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B14" s="24"/>
+      <c r="L14">
+        <v>9</v>
+      </c>
+      <c r="M14" t="s">
+        <v>89</v>
+      </c>
+      <c r="R14">
+        <v>9</v>
+      </c>
+      <c r="S14" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="15" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B15" s="24"/>
+      <c r="L15">
+        <v>10</v>
+      </c>
+      <c r="M15" t="s">
+        <v>89</v>
+      </c>
+      <c r="R15">
+        <v>10</v>
+      </c>
+      <c r="S15" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="16" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B16" s="24"/>
+      <c r="L16">
+        <v>11</v>
+      </c>
+      <c r="M16" t="s">
+        <v>89</v>
+      </c>
+      <c r="R16">
+        <v>11</v>
+      </c>
+      <c r="S16" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="17" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B17" s="24"/>
+      <c r="R17">
+        <v>12</v>
+      </c>
+      <c r="S17" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="18" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="R18">
+        <v>13</v>
+      </c>
+      <c r="S18" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="19" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="R19">
+        <v>14</v>
+      </c>
+      <c r="S19" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="20" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="R20">
+        <v>15</v>
+      </c>
+      <c r="S20" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="21" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="R21">
+        <v>16</v>
+      </c>
+      <c r="S21" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="22" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="R22">
+        <v>17</v>
+      </c>
+      <c r="S22" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="23" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="R23">
+        <v>18</v>
+      </c>
+      <c r="S23" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="24" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="R24">
+        <v>19</v>
+      </c>
+      <c r="S24" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="25" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="R25">
+        <v>20</v>
+      </c>
+      <c r="S25" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="26" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="R26">
+        <v>21</v>
+      </c>
+      <c r="S26" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="27" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="R27">
+        <v>22</v>
+      </c>
+      <c r="S27" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="28" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="R28">
+        <v>23</v>
+      </c>
+      <c r="S28" t="s">
+        <v>89</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <tableParts count="3">
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B1:AE3"/>
@@ -4679,7 +5451,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="B1:I3"/>
@@ -4756,7 +5528,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="B1:G3"/>
@@ -4819,7 +5591,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="B1:H3"/>
@@ -4890,7 +5662,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="B1:G3"/>
@@ -4953,7 +5725,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr codeName="Sheet6"/>
   <dimension ref="B1:G7"/>
@@ -5096,7 +5868,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr codeName="Sheet7"/>
   <dimension ref="B1:AG3"/>
@@ -5313,67 +6085,4 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <sheetPr codeName="Sheet8"/>
-  <dimension ref="B1:G3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D3">
-        <v>2018</v>
-      </c>
-      <c r="E3" t="s">
-        <v>54</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
 </file>
--- a/SuppXLS/Scen_B_SYS_SubAnnual_Data.xlsx
+++ b/SuppXLS/Scen_B_SYS_SubAnnual_Data.xlsx
@@ -1,35 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olex\Documents\MANRID\ResLab\Modelling\TIMES\TIMES-IE\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{772630E7-62A9-43AA-925E-98B96D5768AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{402F9C89-F88D-4257-9BED-136CAC25F9D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="12" r:id="rId1"/>
-    <sheet name="TimeSlices" sheetId="1" r:id="rId2"/>
-    <sheet name="RSDSOL" sheetId="2" r:id="rId3"/>
-    <sheet name="RSD_SH" sheetId="3" r:id="rId4"/>
-    <sheet name="RSD_RTFT" sheetId="4" r:id="rId5"/>
-    <sheet name="RSD_OE_DEM" sheetId="5" r:id="rId6"/>
-    <sheet name="PWR_AF" sheetId="6" r:id="rId7"/>
-    <sheet name="TRA_DEM" sheetId="7" r:id="rId8"/>
-    <sheet name="SRV_CS_DEM" sheetId="8" r:id="rId9"/>
-    <sheet name="SRV_PU_DEM" sheetId="9" r:id="rId10"/>
-    <sheet name="DCs" sheetId="10" r:id="rId11"/>
-    <sheet name="SRVSOL" sheetId="11" r:id="rId12"/>
+    <sheet name="TS_Definition" sheetId="13" r:id="rId2"/>
+    <sheet name="TimeSlices" sheetId="1" r:id="rId3"/>
+    <sheet name="RSDSOL" sheetId="2" r:id="rId4"/>
+    <sheet name="RSD_SH" sheetId="3" r:id="rId5"/>
+    <sheet name="RSD_RTFT" sheetId="4" r:id="rId6"/>
+    <sheet name="RSD_OE_DEM" sheetId="5" r:id="rId7"/>
+    <sheet name="PWR_AF" sheetId="6" r:id="rId8"/>
+    <sheet name="TRA_DEM" sheetId="7" r:id="rId9"/>
+    <sheet name="SRV_CS_DEM" sheetId="8" r:id="rId10"/>
+    <sheet name="SRV_PU_DEM" sheetId="9" r:id="rId11"/>
+    <sheet name="DCs" sheetId="10" r:id="rId12"/>
+    <sheet name="SRVSOL" sheetId="11" r:id="rId13"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId13"/>
+    <externalReference r:id="rId14"/>
   </externalReferences>
   <definedNames>
+    <definedName name="__123Graph_AEUMILKPN" localSheetId="1" hidden="1">#REF!</definedName>
     <definedName name="__123Graph_AEUMILKPN" hidden="1">#REF!</definedName>
     <definedName name="_AtRisk_SimSetting_AutomaticallyGenerateReports" hidden="1">FALSE</definedName>
     <definedName name="_AtRisk_SimSetting_AutomaticResultsDisplayMode" hidden="1">2</definedName>
@@ -51,10 +53,15 @@
     <definedName name="_AtRisk_SimSetting_StdRecalcWithoutRiskStatic" hidden="1">0</definedName>
     <definedName name="_AtRisk_SimSetting_StdRecalcWithoutRiskStaticPercentile" hidden="1">0.5</definedName>
     <definedName name="_Regression_Y" hidden="1">#REF!</definedName>
+    <definedName name="aa" localSheetId="1" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
     <definedName name="aa" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
+    <definedName name="elec" localSheetId="1" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
     <definedName name="elec" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
+    <definedName name="elec2" localSheetId="1" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
     <definedName name="elec2" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
+    <definedName name="elec3" localSheetId="1" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
     <definedName name="elec3" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
+    <definedName name="elecc" localSheetId="1" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
     <definedName name="elecc" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
     <definedName name="IQ_FWD_CY" hidden="1">10001</definedName>
     <definedName name="IQ_FWD_CY1" hidden="1">10002</definedName>
@@ -92,7 +99,9 @@
     <definedName name="RiskUseDifferentSeedForEachSim" hidden="1">FALSE</definedName>
     <definedName name="RiskUseFixedSeed" hidden="1">TRUE</definedName>
     <definedName name="RiskUseMultipleCPUs" hidden="1">FALSE</definedName>
+    <definedName name="table6" localSheetId="1" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
     <definedName name="table6" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
+    <definedName name="wrn.Electricity._.Questionnaire." localSheetId="1" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
     <definedName name="wrn.Electricity._.Questionnaire." hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
   </definedNames>
   <calcPr calcId="0"/>
@@ -100,7 +109,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2471" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2535" uniqueCount="140">
   <si>
     <t>~TFM_INS</t>
   </si>
@@ -464,6 +473,63 @@
   <si>
     <t>https://creativecommons.org/licenses/by-nc-sa/4.0/</t>
   </si>
+  <si>
+    <t>~TimeSlices</t>
+  </si>
+  <si>
+    <t>Season</t>
+  </si>
+  <si>
+    <t>Weekly</t>
+  </si>
+  <si>
+    <t>DayNite</t>
+  </si>
+  <si>
+    <t>Month</t>
+  </si>
+  <si>
+    <t>Day</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Hour</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>Wi</t>
+  </si>
+  <si>
+    <t>NW</t>
+  </si>
+  <si>
+    <t>WD</t>
+  </si>
+  <si>
+    <t>Sp</t>
+  </si>
+  <si>
+    <t>Su</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Au</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
 </sst>
 </file>
 
@@ -472,7 +538,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -556,8 +622,31 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -582,13 +671,36 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -598,7 +710,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -607,9 +719,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -637,9 +746,6 @@
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -655,6 +761,17 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -984,11 +1101,212 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>609599</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E53258A9-5C47-4713-B092-3E59E5324E40}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3048000" y="571500"/>
+          <a:ext cx="3047999" cy="809625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>~TimeSlices</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> is used to define</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>the time-slices resolution for the model, by declaring the elements of each time-slice: </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>SEASON</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>, </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>WEEKLY </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>and </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>DAYNITE</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>.</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Cover"/>
+      <sheetName val="TS_Definition"/>
       <sheetName val="TimeSlices"/>
       <sheetName val="RSDSOL"/>
       <sheetName val="RSD_SH"/>
@@ -1002,175 +1320,35 @@
       <sheetName val="SRVSOL"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
-      <sheetData sheetId="10" refreshError="1"/>
-      <sheetData sheetId="11" refreshError="1"/>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="timeslices" displayName="timeslices" ref="B2:AE42" totalsRowShown="0">
-  <autoFilter ref="B2:AE42" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
-  <tableColumns count="30">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="TimeSlice"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Attribute"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="IE"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="National"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="IE-CW"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="IE-D"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="IE-KE"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="IE-KK"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="IE-LS"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="IE-LD"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="IE-LH"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="IE-MH"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="IE-OY"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="IE-WH"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="IE-WX"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="IE-WW"/>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="IE-CE"/>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="IE-CO"/>
-    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="IE-KY"/>
-    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="IE-LK"/>
-    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="IE-TA"/>
-    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="IE-WD"/>
-    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" name="IE-G"/>
-    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="IE-LM"/>
-    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0000-000019000000}" name="IE-MO"/>
-    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0000-00001A000000}" name="IE-RN"/>
-    <tableColumn id="27" xr3:uid="{00000000-0010-0000-0000-00001B000000}" name="IE-SO"/>
-    <tableColumn id="28" xr3:uid="{00000000-0010-0000-0000-00001C000000}" name="IE-CN"/>
-    <tableColumn id="29" xr3:uid="{00000000-0010-0000-0000-00001D000000}" name="IE-DL"/>
-    <tableColumn id="30" xr3:uid="{00000000-0010-0000-0000-00001E000000}" name="IE-MN"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{00A0ED70-32B0-422F-A128-202FFFBDD989}" name="season_info19" displayName="season_info19" ref="L4:M16" totalsRowShown="0">
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{D2785796-31B0-4942-B2B3-FC23091CEF01}" name="Month"/>
+    <tableColumn id="2" xr3:uid="{A5E59FBE-8C76-43E0-A504-9175BB417965}" name="Season"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{00000000-000C-0000-FFFF-FFFF09000000}" name="dcs" displayName="dcs" ref="B2:I122" totalsRowShown="0">
-  <autoFilter ref="B2:I122" xr:uid="{00000000-0009-0000-0100-00000C000000}"/>
-  <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0900-000001000000}" name="TimeSlice"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0900-000002000000}" name="Attribute"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0900-000003000000}" name="Year"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0900-000004000000}" name="Other_Indexes"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0900-000005000000}" name="Cset_CN"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0900-000006000000}" name="Pset_PN"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0900-000007000000}" name="IE"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0900-000008000000}" name="National"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{00000000-000C-0000-FFFF-FFFF0A000000}" name="srvsol" displayName="srvsol" ref="B2:I42" totalsRowShown="0">
-  <autoFilter ref="B2:I42" xr:uid="{00000000-0009-0000-0100-00000D000000}"/>
-  <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0A00-000001000000}" name="TimeSlice"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0A00-000002000000}" name="Attribute"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0A00-000003000000}" name="Year"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0A00-000004000000}" name="Other_Indexes"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0A00-000005000000}" name="Pset_PN"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0A00-000006000000}" name="Pset_CI"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0A00-000007000000}" name="IE"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0A00-000008000000}" name="National"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="rsdsol" displayName="rsdsol" ref="B2:I42" totalsRowShown="0">
-  <autoFilter ref="B2:I42" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
-  <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="TimeSlice"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Attribute"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Year"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Other_Indexes"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Pset_PN"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Pset_CI"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="IE"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="National"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="rsd_sh" displayName="rsd_sh" ref="B2:G42" totalsRowShown="0">
-  <autoFilter ref="B2:G42" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
-  <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="TimeSlice"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Attribute"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Year"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Cset_CN"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="IE"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="National"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="rsd_rtft" displayName="rsd_rtft" ref="B2:H42" totalsRowShown="0">
-  <autoFilter ref="B2:H42" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
-  <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="TimeSlice"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Attribute"/>
-    <tableColumn id="7" xr3:uid="{A089AEDA-8E96-495A-8524-E07DDD68F013}" name="LimType"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Year"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="Pset_PN"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="IE"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="National"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="rsd_oe_dem" displayName="rsd_oe_dem" ref="B2:G42" totalsRowShown="0">
-  <autoFilter ref="B2:G42" xr:uid="{00000000-0009-0000-0100-000007000000}"/>
-  <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="TimeSlice"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="Attribute"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="Year"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="Cset_CN"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="IE"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0400-000006000000}" name="National"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="pwr_af" displayName="pwr_af" ref="B2:G202" totalsRowShown="0">
-  <autoFilter ref="B2:G202" xr:uid="{00000000-0009-0000-0100-000008000000}"/>
-  <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="TimeSlice"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="Attribute"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0500-000003000000}" name="Year"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0500-000004000000}" name="Pset_PN"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0500-000005000000}" name="IE"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0500-000006000000}" name="National"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{00000000-000C-0000-FFFF-FFFF06000000}" name="tra_dem" displayName="tra_dem" ref="B2:AG42" totalsRowShown="0">
   <autoFilter ref="B2:AG42" xr:uid="{00000000-0009-0000-0100-000009000000}"/>
   <tableColumns count="32">
@@ -1211,7 +1389,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{00000000-000C-0000-FFFF-FFFF07000000}" name="srv_cs_dem" displayName="srv_cs_dem" ref="B2:G42" totalsRowShown="0">
   <autoFilter ref="B2:G42" xr:uid="{00000000-0009-0000-0100-00000A000000}"/>
   <tableColumns count="6">
@@ -1226,7 +1404,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{00000000-000C-0000-FFFF-FFFF08000000}" name="srv_pu_dem" displayName="srv_pu_dem" ref="B2:G42" totalsRowShown="0">
   <autoFilter ref="B2:G42" xr:uid="{00000000-0009-0000-0100-00000B000000}"/>
   <tableColumns count="6">
@@ -1236,6 +1414,177 @@
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0800-000004000000}" name="Cset_CN"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0800-000005000000}" name="IE"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0800-000006000000}" name="National"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{00000000-000C-0000-FFFF-FFFF09000000}" name="dcs" displayName="dcs" ref="B2:I122" totalsRowShown="0">
+  <autoFilter ref="B2:I122" xr:uid="{00000000-0009-0000-0100-00000C000000}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0900-000001000000}" name="TimeSlice"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0900-000002000000}" name="Attribute"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0900-000003000000}" name="Year"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0900-000004000000}" name="Other_Indexes"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0900-000005000000}" name="Cset_CN"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0900-000006000000}" name="Pset_PN"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0900-000007000000}" name="IE"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0900-000008000000}" name="National"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{00000000-000C-0000-FFFF-FFFF0A000000}" name="srvsol" displayName="srvsol" ref="B2:I42" totalsRowShown="0">
+  <autoFilter ref="B2:I42" xr:uid="{00000000-0009-0000-0100-00000D000000}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0A00-000001000000}" name="TimeSlice"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0A00-000002000000}" name="Attribute"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0A00-000003000000}" name="Year"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0A00-000004000000}" name="Other_Indexes"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0A00-000005000000}" name="Pset_PN"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0A00-000006000000}" name="Pset_CI"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0A00-000007000000}" name="IE"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0A00-000008000000}" name="National"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{BD417E7D-061B-4101-B604-0FB95F82E942}" name="weekly_info20" displayName="weekly_info20" ref="O4:P11" totalsRowShown="0">
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{B647E062-A9E4-4FCD-A124-A965EDC97BFC}" name="Day"/>
+    <tableColumn id="2" xr3:uid="{2C6C4042-72B5-4245-9188-26A94F7DE2E4}" name="Type"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{AE484DEB-DC4F-453D-859C-CB76072D019D}" name="daynite_info21" displayName="daynite_info21" ref="R4:S28" totalsRowShown="0">
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{B3AB0946-28C5-4E32-ABC2-54A46B2131D5}" name="Hour"/>
+    <tableColumn id="2" xr3:uid="{04684AF8-8A56-4F32-B901-103BAF315576}" name="Type"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="timeslices" displayName="timeslices" ref="B2:AE42" totalsRowShown="0">
+  <autoFilter ref="B2:AE42" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+  <tableColumns count="30">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="TimeSlice"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Attribute"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="IE"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="National"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="IE-CW"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="IE-D"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="IE-KE"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="IE-KK"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="IE-LS"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="IE-LD"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="IE-LH"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="IE-MH"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="IE-OY"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="IE-WH"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="IE-WX"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="IE-WW"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="IE-CE"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="IE-CO"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="IE-KY"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="IE-LK"/>
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="IE-TA"/>
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="IE-WD"/>
+    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" name="IE-G"/>
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="IE-LM"/>
+    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0000-000019000000}" name="IE-MO"/>
+    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0000-00001A000000}" name="IE-RN"/>
+    <tableColumn id="27" xr3:uid="{00000000-0010-0000-0000-00001B000000}" name="IE-SO"/>
+    <tableColumn id="28" xr3:uid="{00000000-0010-0000-0000-00001C000000}" name="IE-CN"/>
+    <tableColumn id="29" xr3:uid="{00000000-0010-0000-0000-00001D000000}" name="IE-DL"/>
+    <tableColumn id="30" xr3:uid="{00000000-0010-0000-0000-00001E000000}" name="IE-MN"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="rsdsol" displayName="rsdsol" ref="B2:I42" totalsRowShown="0">
+  <autoFilter ref="B2:I42" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="TimeSlice"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Attribute"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Year"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Other_Indexes"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Pset_PN"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Pset_CI"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="IE"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="National"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="rsd_sh" displayName="rsd_sh" ref="B2:G42" totalsRowShown="0">
+  <autoFilter ref="B2:G42" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="TimeSlice"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Attribute"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Year"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Cset_CN"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="IE"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="National"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="rsd_rtft" displayName="rsd_rtft" ref="B2:H42" totalsRowShown="0">
+  <autoFilter ref="B2:H42" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="TimeSlice"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Attribute"/>
+    <tableColumn id="7" xr3:uid="{A089AEDA-8E96-495A-8524-E07DDD68F013}" name="LimType"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Year"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="Pset_PN"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="IE"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="National"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="rsd_oe_dem" displayName="rsd_oe_dem" ref="B2:G42" totalsRowShown="0">
+  <autoFilter ref="B2:G42" xr:uid="{00000000-0009-0000-0100-000007000000}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="TimeSlice"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="Attribute"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="Year"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="Cset_CN"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="IE"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0400-000006000000}" name="National"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="pwr_af" displayName="pwr_af" ref="B2:G202" totalsRowShown="0">
+  <autoFilter ref="B2:G202" xr:uid="{00000000-0009-0000-0100-000008000000}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="TimeSlice"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="Attribute"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0500-000003000000}" name="Year"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0500-000004000000}" name="Pset_PN"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0500-000005000000}" name="IE"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0500-000006000000}" name="National"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1522,7 +1871,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF9E7995-53E7-4F58-976D-6AC1D3A1017B}">
   <dimension ref="A1:Z99"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1959,20 +2308,20 @@
       <c r="Z15" s="2"/>
     </row>
     <row r="16" spans="1:26" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="6"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -1989,10 +2338,10 @@
       <c r="Z16" s="2"/>
     </row>
     <row r="17" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="7"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
+      <c r="A17" s="6"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
@@ -2017,18 +2366,18 @@
       <c r="Z17" s="2"/>
     </row>
     <row r="18" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="7"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="9"/>
-      <c r="L18" s="9"/>
+      <c r="A18" s="6"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="8"/>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -2045,22 +2394,22 @@
       <c r="Z18" s="2"/>
     </row>
     <row r="19" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="10" t="s">
+      <c r="A19" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="B19" s="11" t="s">
+      <c r="B19" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="13"/>
-      <c r="L19" s="13"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="12"/>
+      <c r="L19" s="12"/>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -2077,22 +2426,22 @@
       <c r="Z19" s="2"/>
     </row>
     <row r="20" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="10" t="s">
+      <c r="A20" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="B20" s="11" t="s">
+      <c r="B20" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="13"/>
-      <c r="J20" s="13"/>
-      <c r="K20" s="13"/>
-      <c r="L20" s="13"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="12"/>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -2109,22 +2458,22 @@
       <c r="Z20" s="2"/>
     </row>
     <row r="21" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="10" t="s">
+      <c r="A21" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="B21" s="14" t="s">
+      <c r="B21" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="13"/>
-      <c r="J21" s="13"/>
-      <c r="K21" s="13"/>
-      <c r="L21" s="13"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="12"/>
+      <c r="L21" s="12"/>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -2141,18 +2490,18 @@
       <c r="Z21" s="2"/>
     </row>
     <row r="22" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="10"/>
-      <c r="B22" s="14"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="13"/>
-      <c r="J22" s="13"/>
-      <c r="K22" s="13"/>
-      <c r="L22" s="13"/>
+      <c r="A22" s="9"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="12"/>
+      <c r="L22" s="12"/>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -2169,14 +2518,14 @@
       <c r="Z22" s="2"/>
     </row>
     <row r="23" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="10" t="s">
+      <c r="A23" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="B23" s="11" t="s">
+      <c r="B23" s="18" t="s">
         <v>113</v>
       </c>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
@@ -2201,10 +2550,10 @@
       <c r="Z23" s="2"/>
     </row>
     <row r="24" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="10"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
+      <c r="A24" s="9"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
@@ -2229,10 +2578,10 @@
       <c r="Z24" s="2"/>
     </row>
     <row r="25" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="10"/>
-      <c r="B25" s="14"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
+      <c r="A25" s="9"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
@@ -2257,14 +2606,14 @@
       <c r="Z25" s="2"/>
     </row>
     <row r="26" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="10" t="s">
+      <c r="A26" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="B26" s="11" t="s">
+      <c r="B26" s="18" t="s">
         <v>113</v>
       </c>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="18"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
@@ -2289,10 +2638,10 @@
       <c r="Z26" s="2"/>
     </row>
     <row r="27" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="10"/>
-      <c r="B27" s="14"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
+      <c r="A27" s="9"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
@@ -2317,10 +2666,10 @@
       <c r="Z27" s="2"/>
     </row>
     <row r="28" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="10"/>
-      <c r="B28" s="14"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
+      <c r="A28" s="9"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
@@ -2345,14 +2694,14 @@
       <c r="Z28" s="2"/>
     </row>
     <row r="29" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="10" t="s">
+      <c r="A29" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="B29" s="15">
+      <c r="B29" s="13">
         <v>1</v>
       </c>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
@@ -2377,16 +2726,16 @@
       <c r="Z29" s="2"/>
     </row>
     <row r="30" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="10" t="s">
+      <c r="A30" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="B30" s="16" t="s">
+      <c r="B30" s="17" t="s">
         <v>117</v>
       </c>
-      <c r="C30" s="11"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="17"/>
-      <c r="F30" s="17"/>
+      <c r="C30" s="18"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="15"/>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
@@ -2409,16 +2758,16 @@
       <c r="Z30" s="2"/>
     </row>
     <row r="31" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="10" t="s">
+      <c r="A31" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="B31" s="11" t="s">
+      <c r="B31" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="C31" s="11"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="17"/>
-      <c r="F31" s="17"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="15"/>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
@@ -2441,12 +2790,12 @@
       <c r="Z31" s="2"/>
     </row>
     <row r="32" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="18"/>
-      <c r="B32" s="19" t="s">
+      <c r="A32" s="16"/>
+      <c r="B32" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="C32" s="18"/>
-      <c r="D32" s="18"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="16"/>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
@@ -4368,6 +4717,848 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="B1:G42"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D3">
+        <v>2018</v>
+      </c>
+      <c r="E3" t="s">
+        <v>93</v>
+      </c>
+      <c r="F3">
+        <v>1.661E-2</v>
+      </c>
+      <c r="G3">
+        <v>1.661E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D4">
+        <v>2018</v>
+      </c>
+      <c r="E4" t="s">
+        <v>93</v>
+      </c>
+      <c r="F4">
+        <v>8.0400000000000003E-3</v>
+      </c>
+      <c r="G4">
+        <v>8.0400000000000003E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D5">
+        <v>2018</v>
+      </c>
+      <c r="E5" t="s">
+        <v>93</v>
+      </c>
+      <c r="F5">
+        <v>3.32E-2</v>
+      </c>
+      <c r="G5">
+        <v>3.32E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" t="s">
+        <v>79</v>
+      </c>
+      <c r="D6">
+        <v>2018</v>
+      </c>
+      <c r="E6" t="s">
+        <v>93</v>
+      </c>
+      <c r="F6">
+        <v>6.9100000000000003E-3</v>
+      </c>
+      <c r="G6">
+        <v>6.9100000000000003E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D7">
+        <v>2018</v>
+      </c>
+      <c r="E7" t="s">
+        <v>93</v>
+      </c>
+      <c r="F7">
+        <v>1.3169999999999999E-2</v>
+      </c>
+      <c r="G7">
+        <v>1.3169999999999999E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" t="s">
+        <v>79</v>
+      </c>
+      <c r="D8">
+        <v>2018</v>
+      </c>
+      <c r="E8" t="s">
+        <v>93</v>
+      </c>
+      <c r="F8">
+        <v>3.737E-2</v>
+      </c>
+      <c r="G8">
+        <v>3.737E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" t="s">
+        <v>79</v>
+      </c>
+      <c r="D9">
+        <v>2018</v>
+      </c>
+      <c r="E9" t="s">
+        <v>93</v>
+      </c>
+      <c r="F9">
+        <v>1.6719999999999999E-2</v>
+      </c>
+      <c r="G9">
+        <v>1.6719999999999999E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" t="s">
+        <v>79</v>
+      </c>
+      <c r="D10">
+        <v>2018</v>
+      </c>
+      <c r="E10" t="s">
+        <v>93</v>
+      </c>
+      <c r="F10">
+        <v>7.1230000000000002E-2</v>
+      </c>
+      <c r="G10">
+        <v>7.1230000000000002E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" t="s">
+        <v>79</v>
+      </c>
+      <c r="D11">
+        <v>2018</v>
+      </c>
+      <c r="E11" t="s">
+        <v>93</v>
+      </c>
+      <c r="F11">
+        <v>1.538E-2</v>
+      </c>
+      <c r="G11">
+        <v>1.538E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" t="s">
+        <v>79</v>
+      </c>
+      <c r="D12">
+        <v>2018</v>
+      </c>
+      <c r="E12" t="s">
+        <v>93</v>
+      </c>
+      <c r="F12">
+        <v>3.0269999999999998E-2</v>
+      </c>
+      <c r="G12">
+        <v>3.0269999999999998E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" t="s">
+        <v>79</v>
+      </c>
+      <c r="D13">
+        <v>2018</v>
+      </c>
+      <c r="E13" t="s">
+        <v>93</v>
+      </c>
+      <c r="F13">
+        <v>1.821E-2</v>
+      </c>
+      <c r="G13">
+        <v>1.821E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" t="s">
+        <v>79</v>
+      </c>
+      <c r="D14">
+        <v>2018</v>
+      </c>
+      <c r="E14" t="s">
+        <v>93</v>
+      </c>
+      <c r="F14">
+        <v>8.3000000000000001E-3</v>
+      </c>
+      <c r="G14">
+        <v>8.3000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" t="s">
+        <v>79</v>
+      </c>
+      <c r="D15">
+        <v>2018</v>
+      </c>
+      <c r="E15" t="s">
+        <v>93</v>
+      </c>
+      <c r="F15">
+        <v>3.4979999999999997E-2</v>
+      </c>
+      <c r="G15">
+        <v>3.4979999999999997E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" t="s">
+        <v>79</v>
+      </c>
+      <c r="D16">
+        <v>2018</v>
+      </c>
+      <c r="E16" t="s">
+        <v>93</v>
+      </c>
+      <c r="F16">
+        <v>7.3200000000000001E-3</v>
+      </c>
+      <c r="G16">
+        <v>7.3200000000000001E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" t="s">
+        <v>79</v>
+      </c>
+      <c r="D17">
+        <v>2018</v>
+      </c>
+      <c r="E17" t="s">
+        <v>93</v>
+      </c>
+      <c r="F17">
+        <v>1.4619999999999999E-2</v>
+      </c>
+      <c r="G17">
+        <v>1.4619999999999999E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" t="s">
+        <v>79</v>
+      </c>
+      <c r="D18">
+        <v>2018</v>
+      </c>
+      <c r="E18" t="s">
+        <v>93</v>
+      </c>
+      <c r="F18">
+        <v>3.8190000000000002E-2</v>
+      </c>
+      <c r="G18">
+        <v>3.8190000000000002E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" t="s">
+        <v>79</v>
+      </c>
+      <c r="D19">
+        <v>2018</v>
+      </c>
+      <c r="E19" t="s">
+        <v>93</v>
+      </c>
+      <c r="F19">
+        <v>1.6789999999999999E-2</v>
+      </c>
+      <c r="G19">
+        <v>1.6789999999999999E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C20" t="s">
+        <v>79</v>
+      </c>
+      <c r="D20">
+        <v>2018</v>
+      </c>
+      <c r="E20" t="s">
+        <v>93</v>
+      </c>
+      <c r="F20">
+        <v>7.1410000000000001E-2</v>
+      </c>
+      <c r="G20">
+        <v>7.1410000000000001E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>50</v>
+      </c>
+      <c r="C21" t="s">
+        <v>79</v>
+      </c>
+      <c r="D21">
+        <v>2018</v>
+      </c>
+      <c r="E21" t="s">
+        <v>93</v>
+      </c>
+      <c r="F21">
+        <v>1.5169999999999999E-2</v>
+      </c>
+      <c r="G21">
+        <v>1.5169999999999999E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>51</v>
+      </c>
+      <c r="C22" t="s">
+        <v>79</v>
+      </c>
+      <c r="D22">
+        <v>2018</v>
+      </c>
+      <c r="E22" t="s">
+        <v>93</v>
+      </c>
+      <c r="F22">
+        <v>3.0599999999999999E-2</v>
+      </c>
+      <c r="G22">
+        <v>3.0599999999999999E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>52</v>
+      </c>
+      <c r="C23" t="s">
+        <v>79</v>
+      </c>
+      <c r="D23">
+        <v>2018</v>
+      </c>
+      <c r="E23" t="s">
+        <v>93</v>
+      </c>
+      <c r="F23">
+        <v>1.737E-2</v>
+      </c>
+      <c r="G23">
+        <v>1.737E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>53</v>
+      </c>
+      <c r="C24" t="s">
+        <v>79</v>
+      </c>
+      <c r="D24">
+        <v>2018</v>
+      </c>
+      <c r="E24" t="s">
+        <v>93</v>
+      </c>
+      <c r="F24">
+        <v>8.0499999999999999E-3</v>
+      </c>
+      <c r="G24">
+        <v>8.0499999999999999E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>54</v>
+      </c>
+      <c r="C25" t="s">
+        <v>79</v>
+      </c>
+      <c r="D25">
+        <v>2018</v>
+      </c>
+      <c r="E25" t="s">
+        <v>93</v>
+      </c>
+      <c r="F25">
+        <v>3.2590000000000001E-2</v>
+      </c>
+      <c r="G25">
+        <v>3.2590000000000001E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>55</v>
+      </c>
+      <c r="C26" t="s">
+        <v>79</v>
+      </c>
+      <c r="D26">
+        <v>2018</v>
+      </c>
+      <c r="E26" t="s">
+        <v>93</v>
+      </c>
+      <c r="F26">
+        <v>6.45E-3</v>
+      </c>
+      <c r="G26">
+        <v>6.45E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>56</v>
+      </c>
+      <c r="C27" t="s">
+        <v>79</v>
+      </c>
+      <c r="D27">
+        <v>2018</v>
+      </c>
+      <c r="E27" t="s">
+        <v>93</v>
+      </c>
+      <c r="F27">
+        <v>1.2869999999999999E-2</v>
+      </c>
+      <c r="G27">
+        <v>1.2869999999999999E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>57</v>
+      </c>
+      <c r="C28" t="s">
+        <v>79</v>
+      </c>
+      <c r="D28">
+        <v>2018</v>
+      </c>
+      <c r="E28" t="s">
+        <v>93</v>
+      </c>
+      <c r="F28">
+        <v>3.7909999999999999E-2</v>
+      </c>
+      <c r="G28">
+        <v>3.7909999999999999E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>58</v>
+      </c>
+      <c r="C29" t="s">
+        <v>79</v>
+      </c>
+      <c r="D29">
+        <v>2018</v>
+      </c>
+      <c r="E29" t="s">
+        <v>93</v>
+      </c>
+      <c r="F29">
+        <v>1.669E-2</v>
+      </c>
+      <c r="G29">
+        <v>1.669E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>59</v>
+      </c>
+      <c r="C30" t="s">
+        <v>79</v>
+      </c>
+      <c r="D30">
+        <v>2018</v>
+      </c>
+      <c r="E30" t="s">
+        <v>93</v>
+      </c>
+      <c r="F30">
+        <v>6.8760000000000002E-2</v>
+      </c>
+      <c r="G30">
+        <v>6.8760000000000002E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>60</v>
+      </c>
+      <c r="C31" t="s">
+        <v>79</v>
+      </c>
+      <c r="D31">
+        <v>2018</v>
+      </c>
+      <c r="E31" t="s">
+        <v>93</v>
+      </c>
+      <c r="F31">
+        <v>1.418E-2</v>
+      </c>
+      <c r="G31">
+        <v>1.418E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>61</v>
+      </c>
+      <c r="C32" t="s">
+        <v>79</v>
+      </c>
+      <c r="D32">
+        <v>2018</v>
+      </c>
+      <c r="E32" t="s">
+        <v>93</v>
+      </c>
+      <c r="F32">
+        <v>2.903E-2</v>
+      </c>
+      <c r="G32">
+        <v>2.903E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>62</v>
+      </c>
+      <c r="C33" t="s">
+        <v>79</v>
+      </c>
+      <c r="D33">
+        <v>2018</v>
+      </c>
+      <c r="E33" t="s">
+        <v>93</v>
+      </c>
+      <c r="F33">
+        <v>1.7270000000000001E-2</v>
+      </c>
+      <c r="G33">
+        <v>1.7270000000000001E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>63</v>
+      </c>
+      <c r="C34" t="s">
+        <v>79</v>
+      </c>
+      <c r="D34">
+        <v>2018</v>
+      </c>
+      <c r="E34" t="s">
+        <v>93</v>
+      </c>
+      <c r="F34">
+        <v>7.9000000000000008E-3</v>
+      </c>
+      <c r="G34">
+        <v>7.9000000000000008E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>64</v>
+      </c>
+      <c r="C35" t="s">
+        <v>79</v>
+      </c>
+      <c r="D35">
+        <v>2018</v>
+      </c>
+      <c r="E35" t="s">
+        <v>93</v>
+      </c>
+      <c r="F35">
+        <v>3.4909999999999997E-2</v>
+      </c>
+      <c r="G35">
+        <v>3.4909999999999997E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>65</v>
+      </c>
+      <c r="C36" t="s">
+        <v>79</v>
+      </c>
+      <c r="D36">
+        <v>2018</v>
+      </c>
+      <c r="E36" t="s">
+        <v>93</v>
+      </c>
+      <c r="F36">
+        <v>7.62E-3</v>
+      </c>
+      <c r="G36">
+        <v>7.62E-3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>66</v>
+      </c>
+      <c r="C37" t="s">
+        <v>79</v>
+      </c>
+      <c r="D37">
+        <v>2018</v>
+      </c>
+      <c r="E37" t="s">
+        <v>93</v>
+      </c>
+      <c r="F37">
+        <v>1.5049999999999999E-2</v>
+      </c>
+      <c r="G37">
+        <v>1.5049999999999999E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>67</v>
+      </c>
+      <c r="C38" t="s">
+        <v>79</v>
+      </c>
+      <c r="D38">
+        <v>2018</v>
+      </c>
+      <c r="E38" t="s">
+        <v>93</v>
+      </c>
+      <c r="F38">
+        <v>3.6299999999999999E-2</v>
+      </c>
+      <c r="G38">
+        <v>3.6299999999999999E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>68</v>
+      </c>
+      <c r="C39" t="s">
+        <v>79</v>
+      </c>
+      <c r="D39">
+        <v>2018</v>
+      </c>
+      <c r="E39" t="s">
+        <v>93</v>
+      </c>
+      <c r="F39">
+        <v>1.5630000000000002E-2</v>
+      </c>
+      <c r="G39">
+        <v>1.5630000000000002E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>69</v>
+      </c>
+      <c r="C40" t="s">
+        <v>79</v>
+      </c>
+      <c r="D40">
+        <v>2018</v>
+      </c>
+      <c r="E40" t="s">
+        <v>93</v>
+      </c>
+      <c r="F40">
+        <v>7.0250000000000007E-2</v>
+      </c>
+      <c r="G40">
+        <v>7.0250000000000007E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>70</v>
+      </c>
+      <c r="C41" t="s">
+        <v>79</v>
+      </c>
+      <c r="D41">
+        <v>2018</v>
+      </c>
+      <c r="E41" t="s">
+        <v>93</v>
+      </c>
+      <c r="F41">
+        <v>1.5469999999999999E-2</v>
+      </c>
+      <c r="G41">
+        <v>1.5469999999999999E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>71</v>
+      </c>
+      <c r="C42" t="s">
+        <v>79</v>
+      </c>
+      <c r="D42">
+        <v>2018</v>
+      </c>
+      <c r="E42" t="s">
+        <v>93</v>
+      </c>
+      <c r="F42">
+        <v>3.124E-2</v>
+      </c>
+      <c r="G42">
+        <v>3.124E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="B1:G42"/>
   <sheetViews>
@@ -5209,7 +6400,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="B1:I122"/>
   <sheetViews>
@@ -7897,7 +9088,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="B1:I42"/>
   <sheetViews>
@@ -8988,6 +10179,413 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A916DD6D-BEB6-4B16-A1CD-EEF48A0890F6}">
+  <dimension ref="B3:S28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Z16" sqref="Z16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="3" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B3" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+    </row>
+    <row r="4" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="D4" s="22" t="s">
+        <v>124</v>
+      </c>
+      <c r="L4" t="s">
+        <v>125</v>
+      </c>
+      <c r="M4" t="s">
+        <v>122</v>
+      </c>
+      <c r="O4" t="s">
+        <v>126</v>
+      </c>
+      <c r="P4" t="s">
+        <v>127</v>
+      </c>
+      <c r="R4" t="s">
+        <v>128</v>
+      </c>
+      <c r="S4" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="5" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B5" s="23" t="s">
+        <v>130</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="D5" s="23" t="s">
+        <v>129</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5" t="s">
+        <v>130</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5" t="s">
+        <v>131</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="6" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B6" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="D6" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6" t="s">
+        <v>130</v>
+      </c>
+      <c r="O6">
+        <v>1</v>
+      </c>
+      <c r="P6" t="s">
+        <v>132</v>
+      </c>
+      <c r="R6">
+        <v>1</v>
+      </c>
+      <c r="S6" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="7" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B7" s="23" t="s">
+        <v>134</v>
+      </c>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="L7">
+        <v>2</v>
+      </c>
+      <c r="M7" t="s">
+        <v>133</v>
+      </c>
+      <c r="O7">
+        <v>2</v>
+      </c>
+      <c r="P7" t="s">
+        <v>132</v>
+      </c>
+      <c r="R7">
+        <v>2</v>
+      </c>
+      <c r="S7" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="8" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B8" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23" t="s">
+        <v>138</v>
+      </c>
+      <c r="L8">
+        <v>3</v>
+      </c>
+      <c r="M8" t="s">
+        <v>133</v>
+      </c>
+      <c r="O8">
+        <v>3</v>
+      </c>
+      <c r="P8" t="s">
+        <v>132</v>
+      </c>
+      <c r="R8">
+        <v>3</v>
+      </c>
+      <c r="S8" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="9" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B9" s="23"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="L9">
+        <v>4</v>
+      </c>
+      <c r="M9" t="s">
+        <v>133</v>
+      </c>
+      <c r="O9">
+        <v>4</v>
+      </c>
+      <c r="P9" t="s">
+        <v>132</v>
+      </c>
+      <c r="R9">
+        <v>4</v>
+      </c>
+      <c r="S9" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="10" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="L10">
+        <v>5</v>
+      </c>
+      <c r="M10" t="s">
+        <v>134</v>
+      </c>
+      <c r="O10">
+        <v>5</v>
+      </c>
+      <c r="P10" t="s">
+        <v>132</v>
+      </c>
+      <c r="R10">
+        <v>5</v>
+      </c>
+      <c r="S10" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="11" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B11" s="24"/>
+      <c r="L11">
+        <v>6</v>
+      </c>
+      <c r="M11" t="s">
+        <v>134</v>
+      </c>
+      <c r="O11">
+        <v>6</v>
+      </c>
+      <c r="P11" t="s">
+        <v>131</v>
+      </c>
+      <c r="R11">
+        <v>6</v>
+      </c>
+      <c r="S11" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="12" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B12" s="24"/>
+      <c r="L12">
+        <v>7</v>
+      </c>
+      <c r="M12" t="s">
+        <v>134</v>
+      </c>
+      <c r="R12">
+        <v>7</v>
+      </c>
+      <c r="S12" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="13" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B13" s="24"/>
+      <c r="L13">
+        <v>8</v>
+      </c>
+      <c r="M13" t="s">
+        <v>136</v>
+      </c>
+      <c r="R13">
+        <v>8</v>
+      </c>
+      <c r="S13" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="14" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B14" s="24"/>
+      <c r="L14">
+        <v>9</v>
+      </c>
+      <c r="M14" t="s">
+        <v>136</v>
+      </c>
+      <c r="R14">
+        <v>9</v>
+      </c>
+      <c r="S14" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="15" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B15" s="24"/>
+      <c r="L15">
+        <v>10</v>
+      </c>
+      <c r="M15" t="s">
+        <v>136</v>
+      </c>
+      <c r="R15">
+        <v>10</v>
+      </c>
+      <c r="S15" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="16" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B16" s="24"/>
+      <c r="L16">
+        <v>11</v>
+      </c>
+      <c r="M16" t="s">
+        <v>130</v>
+      </c>
+      <c r="R16">
+        <v>11</v>
+      </c>
+      <c r="S16" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="17" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B17" s="24"/>
+      <c r="R17">
+        <v>12</v>
+      </c>
+      <c r="S17" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="18" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="R18">
+        <v>13</v>
+      </c>
+      <c r="S18" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="19" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="R19">
+        <v>14</v>
+      </c>
+      <c r="S19" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="20" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="R20">
+        <v>15</v>
+      </c>
+      <c r="S20" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="21" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="R21">
+        <v>16</v>
+      </c>
+      <c r="S21" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="22" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="R22">
+        <v>17</v>
+      </c>
+      <c r="S22" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="23" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="R23">
+        <v>18</v>
+      </c>
+      <c r="S23" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="24" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="R24">
+        <v>19</v>
+      </c>
+      <c r="S24" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="25" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="R25">
+        <v>20</v>
+      </c>
+      <c r="S25" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="26" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="R26">
+        <v>21</v>
+      </c>
+      <c r="S26" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="27" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="R27">
+        <v>22</v>
+      </c>
+      <c r="S27" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="28" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="R28">
+        <v>23</v>
+      </c>
+      <c r="S28" t="s">
+        <v>139</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <tableParts count="3">
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:AE42"/>
   <sheetViews>
@@ -12783,7 +14381,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:I42"/>
   <sheetViews>
@@ -13873,7 +15471,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:G42"/>
   <sheetViews>
@@ -14715,7 +16313,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B1:H42"/>
   <sheetViews>
@@ -15685,7 +17283,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B1:G42"/>
   <sheetViews>
@@ -16527,7 +18125,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="B1:G202"/>
   <sheetViews>
@@ -20569,7 +22167,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="B1:AG42"/>
   <sheetViews>
@@ -24607,846 +26205,4 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="B1:G42"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E2" t="s">
-        <v>78</v>
-      </c>
-      <c r="F2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3" t="s">
-        <v>79</v>
-      </c>
-      <c r="D3">
-        <v>2018</v>
-      </c>
-      <c r="E3" t="s">
-        <v>93</v>
-      </c>
-      <c r="F3">
-        <v>1.661E-2</v>
-      </c>
-      <c r="G3">
-        <v>1.661E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C4" t="s">
-        <v>79</v>
-      </c>
-      <c r="D4">
-        <v>2018</v>
-      </c>
-      <c r="E4" t="s">
-        <v>93</v>
-      </c>
-      <c r="F4">
-        <v>8.0400000000000003E-3</v>
-      </c>
-      <c r="G4">
-        <v>8.0400000000000003E-3</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C5" t="s">
-        <v>79</v>
-      </c>
-      <c r="D5">
-        <v>2018</v>
-      </c>
-      <c r="E5" t="s">
-        <v>93</v>
-      </c>
-      <c r="F5">
-        <v>3.32E-2</v>
-      </c>
-      <c r="G5">
-        <v>3.32E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C6" t="s">
-        <v>79</v>
-      </c>
-      <c r="D6">
-        <v>2018</v>
-      </c>
-      <c r="E6" t="s">
-        <v>93</v>
-      </c>
-      <c r="F6">
-        <v>6.9100000000000003E-3</v>
-      </c>
-      <c r="G6">
-        <v>6.9100000000000003E-3</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C7" t="s">
-        <v>79</v>
-      </c>
-      <c r="D7">
-        <v>2018</v>
-      </c>
-      <c r="E7" t="s">
-        <v>93</v>
-      </c>
-      <c r="F7">
-        <v>1.3169999999999999E-2</v>
-      </c>
-      <c r="G7">
-        <v>1.3169999999999999E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C8" t="s">
-        <v>79</v>
-      </c>
-      <c r="D8">
-        <v>2018</v>
-      </c>
-      <c r="E8" t="s">
-        <v>93</v>
-      </c>
-      <c r="F8">
-        <v>3.737E-2</v>
-      </c>
-      <c r="G8">
-        <v>3.737E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C9" t="s">
-        <v>79</v>
-      </c>
-      <c r="D9">
-        <v>2018</v>
-      </c>
-      <c r="E9" t="s">
-        <v>93</v>
-      </c>
-      <c r="F9">
-        <v>1.6719999999999999E-2</v>
-      </c>
-      <c r="G9">
-        <v>1.6719999999999999E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>39</v>
-      </c>
-      <c r="C10" t="s">
-        <v>79</v>
-      </c>
-      <c r="D10">
-        <v>2018</v>
-      </c>
-      <c r="E10" t="s">
-        <v>93</v>
-      </c>
-      <c r="F10">
-        <v>7.1230000000000002E-2</v>
-      </c>
-      <c r="G10">
-        <v>7.1230000000000002E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>40</v>
-      </c>
-      <c r="C11" t="s">
-        <v>79</v>
-      </c>
-      <c r="D11">
-        <v>2018</v>
-      </c>
-      <c r="E11" t="s">
-        <v>93</v>
-      </c>
-      <c r="F11">
-        <v>1.538E-2</v>
-      </c>
-      <c r="G11">
-        <v>1.538E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>41</v>
-      </c>
-      <c r="C12" t="s">
-        <v>79</v>
-      </c>
-      <c r="D12">
-        <v>2018</v>
-      </c>
-      <c r="E12" t="s">
-        <v>93</v>
-      </c>
-      <c r="F12">
-        <v>3.0269999999999998E-2</v>
-      </c>
-      <c r="G12">
-        <v>3.0269999999999998E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>42</v>
-      </c>
-      <c r="C13" t="s">
-        <v>79</v>
-      </c>
-      <c r="D13">
-        <v>2018</v>
-      </c>
-      <c r="E13" t="s">
-        <v>93</v>
-      </c>
-      <c r="F13">
-        <v>1.821E-2</v>
-      </c>
-      <c r="G13">
-        <v>1.821E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>43</v>
-      </c>
-      <c r="C14" t="s">
-        <v>79</v>
-      </c>
-      <c r="D14">
-        <v>2018</v>
-      </c>
-      <c r="E14" t="s">
-        <v>93</v>
-      </c>
-      <c r="F14">
-        <v>8.3000000000000001E-3</v>
-      </c>
-      <c r="G14">
-        <v>8.3000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>44</v>
-      </c>
-      <c r="C15" t="s">
-        <v>79</v>
-      </c>
-      <c r="D15">
-        <v>2018</v>
-      </c>
-      <c r="E15" t="s">
-        <v>93</v>
-      </c>
-      <c r="F15">
-        <v>3.4979999999999997E-2</v>
-      </c>
-      <c r="G15">
-        <v>3.4979999999999997E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>45</v>
-      </c>
-      <c r="C16" t="s">
-        <v>79</v>
-      </c>
-      <c r="D16">
-        <v>2018</v>
-      </c>
-      <c r="E16" t="s">
-        <v>93</v>
-      </c>
-      <c r="F16">
-        <v>7.3200000000000001E-3</v>
-      </c>
-      <c r="G16">
-        <v>7.3200000000000001E-3</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
-        <v>46</v>
-      </c>
-      <c r="C17" t="s">
-        <v>79</v>
-      </c>
-      <c r="D17">
-        <v>2018</v>
-      </c>
-      <c r="E17" t="s">
-        <v>93</v>
-      </c>
-      <c r="F17">
-        <v>1.4619999999999999E-2</v>
-      </c>
-      <c r="G17">
-        <v>1.4619999999999999E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>47</v>
-      </c>
-      <c r="C18" t="s">
-        <v>79</v>
-      </c>
-      <c r="D18">
-        <v>2018</v>
-      </c>
-      <c r="E18" t="s">
-        <v>93</v>
-      </c>
-      <c r="F18">
-        <v>3.8190000000000002E-2</v>
-      </c>
-      <c r="G18">
-        <v>3.8190000000000002E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
-        <v>48</v>
-      </c>
-      <c r="C19" t="s">
-        <v>79</v>
-      </c>
-      <c r="D19">
-        <v>2018</v>
-      </c>
-      <c r="E19" t="s">
-        <v>93</v>
-      </c>
-      <c r="F19">
-        <v>1.6789999999999999E-2</v>
-      </c>
-      <c r="G19">
-        <v>1.6789999999999999E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
-        <v>49</v>
-      </c>
-      <c r="C20" t="s">
-        <v>79</v>
-      </c>
-      <c r="D20">
-        <v>2018</v>
-      </c>
-      <c r="E20" t="s">
-        <v>93</v>
-      </c>
-      <c r="F20">
-        <v>7.1410000000000001E-2</v>
-      </c>
-      <c r="G20">
-        <v>7.1410000000000001E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
-        <v>50</v>
-      </c>
-      <c r="C21" t="s">
-        <v>79</v>
-      </c>
-      <c r="D21">
-        <v>2018</v>
-      </c>
-      <c r="E21" t="s">
-        <v>93</v>
-      </c>
-      <c r="F21">
-        <v>1.5169999999999999E-2</v>
-      </c>
-      <c r="G21">
-        <v>1.5169999999999999E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
-        <v>51</v>
-      </c>
-      <c r="C22" t="s">
-        <v>79</v>
-      </c>
-      <c r="D22">
-        <v>2018</v>
-      </c>
-      <c r="E22" t="s">
-        <v>93</v>
-      </c>
-      <c r="F22">
-        <v>3.0599999999999999E-2</v>
-      </c>
-      <c r="G22">
-        <v>3.0599999999999999E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
-        <v>52</v>
-      </c>
-      <c r="C23" t="s">
-        <v>79</v>
-      </c>
-      <c r="D23">
-        <v>2018</v>
-      </c>
-      <c r="E23" t="s">
-        <v>93</v>
-      </c>
-      <c r="F23">
-        <v>1.737E-2</v>
-      </c>
-      <c r="G23">
-        <v>1.737E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
-        <v>53</v>
-      </c>
-      <c r="C24" t="s">
-        <v>79</v>
-      </c>
-      <c r="D24">
-        <v>2018</v>
-      </c>
-      <c r="E24" t="s">
-        <v>93</v>
-      </c>
-      <c r="F24">
-        <v>8.0499999999999999E-3</v>
-      </c>
-      <c r="G24">
-        <v>8.0499999999999999E-3</v>
-      </c>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
-        <v>54</v>
-      </c>
-      <c r="C25" t="s">
-        <v>79</v>
-      </c>
-      <c r="D25">
-        <v>2018</v>
-      </c>
-      <c r="E25" t="s">
-        <v>93</v>
-      </c>
-      <c r="F25">
-        <v>3.2590000000000001E-2</v>
-      </c>
-      <c r="G25">
-        <v>3.2590000000000001E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
-        <v>55</v>
-      </c>
-      <c r="C26" t="s">
-        <v>79</v>
-      </c>
-      <c r="D26">
-        <v>2018</v>
-      </c>
-      <c r="E26" t="s">
-        <v>93</v>
-      </c>
-      <c r="F26">
-        <v>6.45E-3</v>
-      </c>
-      <c r="G26">
-        <v>6.45E-3</v>
-      </c>
-    </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
-        <v>56</v>
-      </c>
-      <c r="C27" t="s">
-        <v>79</v>
-      </c>
-      <c r="D27">
-        <v>2018</v>
-      </c>
-      <c r="E27" t="s">
-        <v>93</v>
-      </c>
-      <c r="F27">
-        <v>1.2869999999999999E-2</v>
-      </c>
-      <c r="G27">
-        <v>1.2869999999999999E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
-        <v>57</v>
-      </c>
-      <c r="C28" t="s">
-        <v>79</v>
-      </c>
-      <c r="D28">
-        <v>2018</v>
-      </c>
-      <c r="E28" t="s">
-        <v>93</v>
-      </c>
-      <c r="F28">
-        <v>3.7909999999999999E-2</v>
-      </c>
-      <c r="G28">
-        <v>3.7909999999999999E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
-        <v>58</v>
-      </c>
-      <c r="C29" t="s">
-        <v>79</v>
-      </c>
-      <c r="D29">
-        <v>2018</v>
-      </c>
-      <c r="E29" t="s">
-        <v>93</v>
-      </c>
-      <c r="F29">
-        <v>1.669E-2</v>
-      </c>
-      <c r="G29">
-        <v>1.669E-2</v>
-      </c>
-    </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
-        <v>59</v>
-      </c>
-      <c r="C30" t="s">
-        <v>79</v>
-      </c>
-      <c r="D30">
-        <v>2018</v>
-      </c>
-      <c r="E30" t="s">
-        <v>93</v>
-      </c>
-      <c r="F30">
-        <v>6.8760000000000002E-2</v>
-      </c>
-      <c r="G30">
-        <v>6.8760000000000002E-2</v>
-      </c>
-    </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B31" t="s">
-        <v>60</v>
-      </c>
-      <c r="C31" t="s">
-        <v>79</v>
-      </c>
-      <c r="D31">
-        <v>2018</v>
-      </c>
-      <c r="E31" t="s">
-        <v>93</v>
-      </c>
-      <c r="F31">
-        <v>1.418E-2</v>
-      </c>
-      <c r="G31">
-        <v>1.418E-2</v>
-      </c>
-    </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
-        <v>61</v>
-      </c>
-      <c r="C32" t="s">
-        <v>79</v>
-      </c>
-      <c r="D32">
-        <v>2018</v>
-      </c>
-      <c r="E32" t="s">
-        <v>93</v>
-      </c>
-      <c r="F32">
-        <v>2.903E-2</v>
-      </c>
-      <c r="G32">
-        <v>2.903E-2</v>
-      </c>
-    </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B33" t="s">
-        <v>62</v>
-      </c>
-      <c r="C33" t="s">
-        <v>79</v>
-      </c>
-      <c r="D33">
-        <v>2018</v>
-      </c>
-      <c r="E33" t="s">
-        <v>93</v>
-      </c>
-      <c r="F33">
-        <v>1.7270000000000001E-2</v>
-      </c>
-      <c r="G33">
-        <v>1.7270000000000001E-2</v>
-      </c>
-    </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B34" t="s">
-        <v>63</v>
-      </c>
-      <c r="C34" t="s">
-        <v>79</v>
-      </c>
-      <c r="D34">
-        <v>2018</v>
-      </c>
-      <c r="E34" t="s">
-        <v>93</v>
-      </c>
-      <c r="F34">
-        <v>7.9000000000000008E-3</v>
-      </c>
-      <c r="G34">
-        <v>7.9000000000000008E-3</v>
-      </c>
-    </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B35" t="s">
-        <v>64</v>
-      </c>
-      <c r="C35" t="s">
-        <v>79</v>
-      </c>
-      <c r="D35">
-        <v>2018</v>
-      </c>
-      <c r="E35" t="s">
-        <v>93</v>
-      </c>
-      <c r="F35">
-        <v>3.4909999999999997E-2</v>
-      </c>
-      <c r="G35">
-        <v>3.4909999999999997E-2</v>
-      </c>
-    </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B36" t="s">
-        <v>65</v>
-      </c>
-      <c r="C36" t="s">
-        <v>79</v>
-      </c>
-      <c r="D36">
-        <v>2018</v>
-      </c>
-      <c r="E36" t="s">
-        <v>93</v>
-      </c>
-      <c r="F36">
-        <v>7.62E-3</v>
-      </c>
-      <c r="G36">
-        <v>7.62E-3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B37" t="s">
-        <v>66</v>
-      </c>
-      <c r="C37" t="s">
-        <v>79</v>
-      </c>
-      <c r="D37">
-        <v>2018</v>
-      </c>
-      <c r="E37" t="s">
-        <v>93</v>
-      </c>
-      <c r="F37">
-        <v>1.5049999999999999E-2</v>
-      </c>
-      <c r="G37">
-        <v>1.5049999999999999E-2</v>
-      </c>
-    </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B38" t="s">
-        <v>67</v>
-      </c>
-      <c r="C38" t="s">
-        <v>79</v>
-      </c>
-      <c r="D38">
-        <v>2018</v>
-      </c>
-      <c r="E38" t="s">
-        <v>93</v>
-      </c>
-      <c r="F38">
-        <v>3.6299999999999999E-2</v>
-      </c>
-      <c r="G38">
-        <v>3.6299999999999999E-2</v>
-      </c>
-    </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B39" t="s">
-        <v>68</v>
-      </c>
-      <c r="C39" t="s">
-        <v>79</v>
-      </c>
-      <c r="D39">
-        <v>2018</v>
-      </c>
-      <c r="E39" t="s">
-        <v>93</v>
-      </c>
-      <c r="F39">
-        <v>1.5630000000000002E-2</v>
-      </c>
-      <c r="G39">
-        <v>1.5630000000000002E-2</v>
-      </c>
-    </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B40" t="s">
-        <v>69</v>
-      </c>
-      <c r="C40" t="s">
-        <v>79</v>
-      </c>
-      <c r="D40">
-        <v>2018</v>
-      </c>
-      <c r="E40" t="s">
-        <v>93</v>
-      </c>
-      <c r="F40">
-        <v>7.0250000000000007E-2</v>
-      </c>
-      <c r="G40">
-        <v>7.0250000000000007E-2</v>
-      </c>
-    </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B41" t="s">
-        <v>70</v>
-      </c>
-      <c r="C41" t="s">
-        <v>79</v>
-      </c>
-      <c r="D41">
-        <v>2018</v>
-      </c>
-      <c r="E41" t="s">
-        <v>93</v>
-      </c>
-      <c r="F41">
-        <v>1.5469999999999999E-2</v>
-      </c>
-      <c r="G41">
-        <v>1.5469999999999999E-2</v>
-      </c>
-    </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B42" t="s">
-        <v>71</v>
-      </c>
-      <c r="C42" t="s">
-        <v>79</v>
-      </c>
-      <c r="D42">
-        <v>2018</v>
-      </c>
-      <c r="E42" t="s">
-        <v>93</v>
-      </c>
-      <c r="F42">
-        <v>3.124E-2</v>
-      </c>
-      <c r="G42">
-        <v>3.124E-2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
 </file>